--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002474292090572</v>
+        <v>1.000633810793429</v>
       </c>
       <c r="D3">
         <v>0.9967619853728887</v>
       </c>
       <c r="E3">
-        <v>1.000633810793429</v>
+        <v>1.002474292090572</v>
       </c>
       <c r="F3">
+        <v>0.9967619853728887</v>
+      </c>
+      <c r="G3">
+        <v>0.9992386820091478</v>
+      </c>
+      <c r="H3">
+        <v>1.000907518293582</v>
+      </c>
+      <c r="I3">
+        <v>0.9978631176104515</v>
+      </c>
+      <c r="J3">
         <v>1.002474292090572</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <v>1.002474292090572</v>
+      </c>
+      <c r="L3">
         <v>0.9992925270678344</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>1.00118433012796</v>
-      </c>
-      <c r="I3">
-        <v>1.002474292090572</v>
-      </c>
-      <c r="J3">
-        <v>0.9967619853728887</v>
-      </c>
-      <c r="K3">
-        <v>0.9992386820091478</v>
-      </c>
-      <c r="L3">
-        <v>1.000907518293582</v>
-      </c>
-      <c r="M3">
-        <v>0.9978631176104515</v>
       </c>
       <c r="N3">
         <v>1.002474292090572</v>
@@ -764,7 +716,7 @@
         <v>0.9997945329207332</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004771519823999</v>
+        <v>1.001227345336239</v>
       </c>
       <c r="D4">
         <v>0.9937453478218931</v>
       </c>
       <c r="E4">
-        <v>1.001227345336239</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="F4">
+        <v>0.9937453478218931</v>
+      </c>
+      <c r="G4">
+        <v>0.9985323285442554</v>
+      </c>
+      <c r="H4">
+        <v>1.001750986639747</v>
+      </c>
+      <c r="I4">
+        <v>0.9958736778006039</v>
+      </c>
+      <c r="J4">
         <v>1.004771519823999</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>1.004771519823999</v>
+      </c>
+      <c r="L4">
         <v>0.9986344678590158</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>1.002287369143447</v>
-      </c>
-      <c r="I4">
-        <v>1.004771519823999</v>
-      </c>
-      <c r="J4">
-        <v>0.9937453478218931</v>
-      </c>
-      <c r="K4">
-        <v>0.9985323285442554</v>
-      </c>
-      <c r="L4">
-        <v>1.001750986639747</v>
-      </c>
-      <c r="M4">
-        <v>0.9958736778006039</v>
       </c>
       <c r="N4">
         <v>1.004771519823999</v>
@@ -835,7 +787,7 @@
         <v>0.99960288037115</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00911345158638</v>
+        <v>1.002381170145861</v>
       </c>
       <c r="D5">
         <v>0.9879976854080695</v>
       </c>
       <c r="E5">
-        <v>1.002381170145861</v>
+        <v>1.00911345158638</v>
       </c>
       <c r="F5">
+        <v>0.9879976854080695</v>
+      </c>
+      <c r="G5">
+        <v>0.9971989366654761</v>
+      </c>
+      <c r="H5">
+        <v>1.00334603495583</v>
+      </c>
+      <c r="I5">
+        <v>0.9920852174378434</v>
+      </c>
+      <c r="J5">
         <v>1.00911345158638</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>1.00911345158638</v>
+      </c>
+      <c r="L5">
         <v>0.9973800194492911</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>1.004392913584672</v>
-      </c>
-      <c r="I5">
-        <v>1.00911345158638</v>
-      </c>
-      <c r="J5">
-        <v>0.9879976854080695</v>
-      </c>
-      <c r="K5">
-        <v>0.9971989366654763</v>
-      </c>
-      <c r="L5">
-        <v>1.00334603495583</v>
-      </c>
-      <c r="M5">
-        <v>0.9920852174378435</v>
       </c>
       <c r="N5">
         <v>1.00911345158638</v>
@@ -903,10 +855,10 @@
         <v>1.001197155635196</v>
       </c>
       <c r="W5">
-        <v>0.999236928654178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9992369286541778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.003509781121739</v>
+      </c>
+      <c r="D6">
+        <v>0.9823881103892897</v>
+      </c>
+      <c r="E6">
         <v>1.013349126023033</v>
       </c>
-      <c r="D6">
-        <v>0.9823881103892899</v>
-      </c>
-      <c r="E6">
-        <v>1.003509781121739</v>
-      </c>
       <c r="F6">
+        <v>0.9823881103892897</v>
+      </c>
+      <c r="G6">
+        <v>0.9958982138115178</v>
+      </c>
+      <c r="H6">
+        <v>1.00490168275243</v>
+      </c>
+      <c r="I6">
+        <v>0.9883873684125036</v>
+      </c>
+      <c r="J6">
         <v>1.013349126023033</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <v>1.013349126023033</v>
+      </c>
+      <c r="L6">
         <v>0.9961549852824596</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>1.006448795133753</v>
-      </c>
-      <c r="I6">
-        <v>1.013349126023033</v>
-      </c>
-      <c r="J6">
-        <v>0.9823881103892899</v>
-      </c>
-      <c r="K6">
-        <v>0.9958982138115178</v>
-      </c>
-      <c r="L6">
-        <v>1.00490168275243</v>
-      </c>
-      <c r="M6">
-        <v>0.9883873684125036</v>
       </c>
       <c r="N6">
         <v>1.013349126023033</v>
@@ -965,19 +917,19 @@
         <v>0.9940176255978294</v>
       </c>
       <c r="T6">
-        <v>0.9997490058446873</v>
+        <v>0.9997490058446871</v>
       </c>
       <c r="U6">
-        <v>0.9988505007041304</v>
+        <v>0.9988505007041302</v>
       </c>
       <c r="V6">
         <v>1.001750225767911</v>
       </c>
       <c r="W6">
-        <v>0.9988797578658407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9988797578658406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000081780141445</v>
+      </c>
+      <c r="D7">
+        <v>0.9997100538592274</v>
+      </c>
+      <c r="E7">
         <v>1.000176843831466</v>
       </c>
-      <c r="D7">
-        <v>0.9997100538592272</v>
-      </c>
-      <c r="E7">
-        <v>1.000081780141445</v>
-      </c>
       <c r="F7">
+        <v>0.9997100538592274</v>
+      </c>
+      <c r="G7">
+        <v>0.9999479332617139</v>
+      </c>
+      <c r="H7">
+        <v>1.000067330191808</v>
+      </c>
+      <c r="I7">
+        <v>0.9998130610290056</v>
+      </c>
+      <c r="J7">
         <v>1.000176843831466</v>
       </c>
-      <c r="G7">
-        <v>0.9999382313991575</v>
-      </c>
-      <c r="H7">
+      <c r="K7">
+        <v>1.000176843831466</v>
+      </c>
+      <c r="L7">
+        <v>0.9999382313991574</v>
+      </c>
+      <c r="M7">
         <v>1.000108621140935</v>
-      </c>
-      <c r="I7">
-        <v>1.000176843831466</v>
-      </c>
-      <c r="J7">
-        <v>0.9997100538592272</v>
-      </c>
-      <c r="K7">
-        <v>0.9999479332617138</v>
-      </c>
-      <c r="L7">
-        <v>1.000067330191808</v>
-      </c>
-      <c r="M7">
-        <v>0.9998130610290056</v>
       </c>
       <c r="N7">
         <v>1.000176843831466</v>
@@ -1024,7 +976,7 @@
         <v>1.000081780141445</v>
       </c>
       <c r="P7">
-        <v>0.9998959170003361</v>
+        <v>0.9998959170003362</v>
       </c>
       <c r="Q7">
         <v>1.000010005770301</v>
@@ -1033,7 +985,7 @@
         <v>0.9999895592773793</v>
       </c>
       <c r="S7">
-        <v>0.9999100217999431</v>
+        <v>0.9999100217999434</v>
       </c>
       <c r="T7">
         <v>0.9999895592773793</v>
@@ -1045,10 +997,10 @@
         <v>1.000016750612552</v>
       </c>
       <c r="W7">
-        <v>0.9999804818568447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999804818568448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000222055922729</v>
+      </c>
+      <c r="D8">
+        <v>0.999162230549966</v>
+      </c>
+      <c r="E8">
         <v>1.000536170488716</v>
       </c>
-      <c r="D8">
-        <v>0.9991622305499659</v>
-      </c>
-      <c r="E8">
-        <v>1.000222055922729</v>
-      </c>
       <c r="F8">
+        <v>0.999162230549966</v>
+      </c>
+      <c r="G8">
+        <v>0.9998404881970838</v>
+      </c>
+      <c r="H8">
+        <v>1.000202443423032</v>
+      </c>
+      <c r="I8">
+        <v>0.9994574333216393</v>
+      </c>
+      <c r="J8">
         <v>1.000536170488716</v>
       </c>
-      <c r="G8">
+      <c r="K8">
+        <v>1.000536170488716</v>
+      </c>
+      <c r="L8">
         <v>0.9998207123317834</v>
       </c>
-      <c r="H8">
+      <c r="M8">
         <v>1.000312320516254</v>
-      </c>
-      <c r="I8">
-        <v>1.000536170488716</v>
-      </c>
-      <c r="J8">
-        <v>0.9991622305499659</v>
-      </c>
-      <c r="K8">
-        <v>0.9998404881970838</v>
-      </c>
-      <c r="L8">
-        <v>1.000202443423032</v>
-      </c>
-      <c r="M8">
-        <v>0.9994574333216393</v>
       </c>
       <c r="N8">
         <v>1.000536170488716</v>
@@ -1095,7 +1047,7 @@
         <v>1.000222055922729</v>
       </c>
       <c r="P8">
-        <v>0.9996921432363476</v>
+        <v>0.9996921432363477</v>
       </c>
       <c r="Q8">
         <v>1.000021384127256</v>
@@ -1104,7 +1056,7 @@
         <v>0.9999734856538037</v>
       </c>
       <c r="S8">
-        <v>0.9997349996014928</v>
+        <v>0.9997349996014929</v>
       </c>
       <c r="T8">
         <v>0.9999734856538037</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999442318439005</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00083299031402</v>
+        <v>1.000304122876394</v>
       </c>
       <c r="D9">
         <v>0.9987636949688231</v>
       </c>
       <c r="E9">
-        <v>1.000304122876394</v>
+        <v>1.00083299031402</v>
       </c>
       <c r="F9">
+        <v>0.9987636949688231</v>
+      </c>
+      <c r="G9">
+        <v>0.9997495771925452</v>
+      </c>
+      <c r="H9">
+        <v>1.00031182445659</v>
+      </c>
+      <c r="I9">
+        <v>0.999195295397753</v>
+      </c>
+      <c r="J9">
         <v>1.00083299031402</v>
       </c>
-      <c r="G9">
+      <c r="K9">
+        <v>1.00083299031402</v>
+      </c>
+      <c r="L9">
         <v>0.9997340558186243</v>
       </c>
-      <c r="H9">
+      <c r="M9">
         <v>1.000458383105711</v>
-      </c>
-      <c r="I9">
-        <v>1.00083299031402</v>
-      </c>
-      <c r="J9">
-        <v>0.9987636949688231</v>
-      </c>
-      <c r="K9">
-        <v>0.9997495771925452</v>
-      </c>
-      <c r="L9">
-        <v>1.00031182445659</v>
-      </c>
-      <c r="M9">
-        <v>0.999195295397753</v>
       </c>
       <c r="N9">
         <v>1.00083299031402</v>
@@ -1190,7 +1142,7 @@
         <v>0.9999187430163075</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001712095156527</v>
+        <v>1.000665565658503</v>
       </c>
       <c r="D10">
         <v>0.9973933731379944</v>
       </c>
       <c r="E10">
-        <v>1.000665565658503</v>
+        <v>1.001712095156527</v>
       </c>
       <c r="F10">
+        <v>0.9973933731379944</v>
+      </c>
+      <c r="G10">
+        <v>0.9994879387984383</v>
+      </c>
+      <c r="H10">
+        <v>1.000643811443529</v>
+      </c>
+      <c r="I10">
+        <v>0.9983078722067061</v>
+      </c>
+      <c r="J10">
         <v>1.001712095156527</v>
       </c>
-      <c r="G10">
+      <c r="K10">
+        <v>1.001712095156527</v>
+      </c>
+      <c r="L10">
         <v>0.9994410569254987</v>
       </c>
-      <c r="H10">
+      <c r="M10">
         <v>1.000968778687117</v>
-      </c>
-      <c r="I10">
-        <v>1.001712095156527</v>
-      </c>
-      <c r="J10">
-        <v>0.9973933731379944</v>
-      </c>
-      <c r="K10">
-        <v>0.9994879387984383</v>
-      </c>
-      <c r="L10">
-        <v>1.000643811443529</v>
-      </c>
-      <c r="M10">
-        <v>0.9983078722067061</v>
       </c>
       <c r="N10">
         <v>1.001712095156527</v>
@@ -1261,7 +1213,7 @@
         <v>0.9998275615017893</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003092953358263</v>
+        <v>1.001067393415939</v>
       </c>
       <c r="D11">
         <v>0.9955073871485032</v>
       </c>
       <c r="E11">
-        <v>1.001067393415939</v>
+        <v>1.003092953358263</v>
       </c>
       <c r="F11">
+        <v>0.9955073871485032</v>
+      </c>
+      <c r="G11">
+        <v>0.9990662801431001</v>
+      </c>
+      <c r="H11">
+        <v>1.001153972509511</v>
+      </c>
+      <c r="I11">
+        <v>0.9970696369477101</v>
+      </c>
+      <c r="J11">
         <v>1.003092953358263</v>
       </c>
-      <c r="G11">
+      <c r="K11">
+        <v>1.003092953358263</v>
+      </c>
+      <c r="L11">
         <v>0.9990317266293943</v>
       </c>
-      <c r="H11">
+      <c r="M11">
         <v>1.001661441862887</v>
-      </c>
-      <c r="I11">
-        <v>1.003092953358263</v>
-      </c>
-      <c r="J11">
-        <v>0.9955073871485032</v>
-      </c>
-      <c r="K11">
-        <v>0.9990662801431001</v>
-      </c>
-      <c r="L11">
-        <v>1.001153972509511</v>
-      </c>
-      <c r="M11">
-        <v>0.9970696369477101</v>
       </c>
       <c r="N11">
         <v>1.003092953358263</v>
@@ -1332,7 +1284,7 @@
         <v>0.9997063490019135</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,40 +1292,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9787865666858397</v>
+        <v>0.9755009089550444</v>
       </c>
       <c r="D12">
         <v>1.058180098106829</v>
       </c>
       <c r="E12">
-        <v>0.9755009089550444</v>
+        <v>0.9787865666858399</v>
       </c>
       <c r="F12">
-        <v>0.9787865666858397</v>
+        <v>1.058180098106829</v>
       </c>
       <c r="G12">
+        <v>1.005313169491487</v>
+      </c>
+      <c r="H12">
+        <v>0.9909696585471111</v>
+      </c>
+      <c r="I12">
+        <v>1.036146256668458</v>
+      </c>
+      <c r="J12">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="K12">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="L12">
         <v>1.011946030628777</v>
       </c>
-      <c r="H12">
+      <c r="M12">
         <v>0.9773273371671877</v>
       </c>
-      <c r="I12">
-        <v>0.9787865666858397</v>
-      </c>
-      <c r="J12">
-        <v>1.058180098106829</v>
-      </c>
-      <c r="K12">
-        <v>1.005313169491487</v>
-      </c>
-      <c r="L12">
-        <v>0.9909696585471111</v>
-      </c>
-      <c r="M12">
-        <v>1.036146256668458</v>
-      </c>
       <c r="N12">
-        <v>0.9787865666858397</v>
+        <v>0.9787865666858399</v>
       </c>
       <c r="O12">
         <v>0.9755009089550444</v>
@@ -1382,10 +1334,10 @@
         <v>1.016840503530937</v>
       </c>
       <c r="Q12">
-        <v>0.9937234697919108</v>
+        <v>0.9937234697919107</v>
       </c>
       <c r="R12">
-        <v>1.004155857915904</v>
+        <v>1.004155857915905</v>
       </c>
       <c r="S12">
         <v>1.01520901256355</v>
@@ -1403,7 +1355,7 @@
         <v>1.004271253281342</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.985804183976829</v>
+        <v>1.001660143329285</v>
       </c>
       <c r="D13">
         <v>1.010255721180245</v>
       </c>
       <c r="E13">
-        <v>1.001660143329285</v>
+        <v>0.985804183976829</v>
       </c>
       <c r="F13">
+        <v>1.010255721180245</v>
+      </c>
+      <c r="G13">
+        <v>1.004695923658819</v>
+      </c>
+      <c r="H13">
+        <v>0.9951082105529874</v>
+      </c>
+      <c r="I13">
+        <v>1.007349716455098</v>
+      </c>
+      <c r="J13">
         <v>0.985804183976829</v>
       </c>
-      <c r="G13">
+      <c r="K13">
+        <v>0.985804183976829</v>
+      </c>
+      <c r="L13">
         <v>1.002405040071198</v>
       </c>
-      <c r="H13">
+      <c r="M13">
         <v>0.9966756587618713</v>
-      </c>
-      <c r="I13">
-        <v>0.985804183976829</v>
-      </c>
-      <c r="J13">
-        <v>1.010255721180245</v>
-      </c>
-      <c r="K13">
-        <v>1.004695923658819</v>
-      </c>
-      <c r="L13">
-        <v>0.9951082105529875</v>
-      </c>
-      <c r="M13">
-        <v>1.007349716455098</v>
       </c>
       <c r="N13">
         <v>0.985804183976829</v>
@@ -1474,7 +1426,7 @@
         <v>1.000494324748292</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9794887091682457</v>
+        <v>1.021117239570302</v>
       </c>
       <c r="D14">
         <v>0.9845659933140668</v>
       </c>
       <c r="E14">
-        <v>1.021117239570302</v>
+        <v>0.9794887091682457</v>
       </c>
       <c r="F14">
+        <v>0.9845659933140668</v>
+      </c>
+      <c r="G14">
+        <v>1.008004846172068</v>
+      </c>
+      <c r="H14">
+        <v>0.9942555075230741</v>
+      </c>
+      <c r="I14">
+        <v>0.9929922349355044</v>
+      </c>
+      <c r="J14">
         <v>0.9794887091682457</v>
       </c>
-      <c r="G14">
-        <v>0.9977622168072438</v>
-      </c>
-      <c r="H14">
+      <c r="K14">
+        <v>0.9794887091682457</v>
+      </c>
+      <c r="L14">
+        <v>0.9977622168072435</v>
+      </c>
+      <c r="M14">
         <v>1.007509949369854</v>
-      </c>
-      <c r="I14">
-        <v>0.9794887091682457</v>
-      </c>
-      <c r="J14">
-        <v>0.9845659933140668</v>
-      </c>
-      <c r="K14">
-        <v>1.008004846172068</v>
-      </c>
-      <c r="L14">
-        <v>0.9942555075230741</v>
-      </c>
-      <c r="M14">
-        <v>0.9929922349355044</v>
       </c>
       <c r="N14">
         <v>0.9794887091682457</v>
@@ -1536,16 +1488,16 @@
         <v>0.9950573140175383</v>
       </c>
       <c r="U14">
-        <v>0.9957335397149647</v>
+        <v>0.9957335397149646</v>
       </c>
       <c r="V14">
-        <v>0.9924845736056209</v>
+        <v>0.9924845736056207</v>
       </c>
       <c r="W14">
-        <v>0.9982120871075448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9982120871075447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.009744519650051</v>
+        <v>0.9918608534276627</v>
       </c>
       <c r="D15">
         <v>1.004383219576628</v>
       </c>
       <c r="E15">
-        <v>0.9918608534276627</v>
+        <v>1.009744519650051</v>
       </c>
       <c r="F15">
+        <v>1.004383219576628</v>
+      </c>
+      <c r="G15">
+        <v>0.9963124663247968</v>
+      </c>
+      <c r="H15">
+        <v>1.002835311627709</v>
+      </c>
+      <c r="I15">
+        <v>1.001582356557554</v>
+      </c>
+      <c r="J15">
         <v>1.009744519650051</v>
       </c>
-      <c r="G15">
+      <c r="K15">
+        <v>1.009744519650051</v>
+      </c>
+      <c r="L15">
         <v>1.000467907490345</v>
       </c>
-      <c r="H15">
+      <c r="M15">
         <v>0.9976712612833325</v>
-      </c>
-      <c r="I15">
-        <v>1.009744519650051</v>
-      </c>
-      <c r="J15">
-        <v>1.004383219576628</v>
-      </c>
-      <c r="K15">
-        <v>0.9963124663247968</v>
-      </c>
-      <c r="L15">
-        <v>1.002835311627709</v>
-      </c>
-      <c r="M15">
-        <v>1.001582356557554</v>
       </c>
       <c r="N15">
         <v>1.009744519650051</v>
@@ -1616,7 +1568,7 @@
         <v>1.00060723699226</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000005786378025</v>
+        <v>1.012845060853547</v>
       </c>
       <c r="D16">
-        <v>0.9999873745082714</v>
+        <v>0.9365130856123767</v>
       </c>
       <c r="E16">
-        <v>1.000009905976659</v>
+        <v>1.047751402658403</v>
       </c>
       <c r="F16">
-        <v>1.000005786378025</v>
+        <v>0.9365130856123767</v>
       </c>
       <c r="G16">
-        <v>0.9999944263847027</v>
+        <v>0.9853476441847695</v>
       </c>
       <c r="H16">
-        <v>1.000007825752342</v>
+        <v>1.017558964957788</v>
       </c>
       <c r="I16">
-        <v>1.000005786378025</v>
+        <v>0.9581811191563055</v>
       </c>
       <c r="J16">
-        <v>0.9999873745082714</v>
+        <v>1.047751402658403</v>
       </c>
       <c r="K16">
-        <v>0.9999981531587265</v>
+        <v>1.047751402658403</v>
       </c>
       <c r="L16">
-        <v>1.000000575990652</v>
+        <v>0.9861602208410752</v>
       </c>
       <c r="M16">
-        <v>0.9999898528420864</v>
+        <v>1.023260002336086</v>
       </c>
       <c r="N16">
-        <v>1.000005786378025</v>
+        <v>1.047751402658403</v>
       </c>
       <c r="O16">
-        <v>1.000009905976659</v>
+        <v>1.012845060853547</v>
       </c>
       <c r="P16">
-        <v>0.999998640242465</v>
+        <v>0.9746790732329619</v>
       </c>
       <c r="Q16">
-        <v>1.000002166180681</v>
+        <v>0.9995026408473111</v>
       </c>
       <c r="R16">
-        <v>1.000001022287652</v>
+        <v>0.9990365163747755</v>
       </c>
       <c r="S16">
-        <v>0.9999972356232109</v>
+        <v>0.9785061224356664</v>
       </c>
       <c r="T16">
-        <v>1.000001022287652</v>
+        <v>0.9990365163747755</v>
       </c>
       <c r="U16">
-        <v>0.9999993733119145</v>
+        <v>0.9958174424913504</v>
       </c>
       <c r="V16">
-        <v>1.000000655925137</v>
+        <v>1.006204234524761</v>
       </c>
       <c r="W16">
-        <v>0.9999992376239331</v>
+        <v>0.9959521875750438</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000166158532811</v>
+        <v>1.011625725937068</v>
       </c>
       <c r="D17">
-        <v>0.9996846359744145</v>
+        <v>0.9472885231855678</v>
       </c>
       <c r="E17">
-        <v>1.000097391263521</v>
+        <v>1.037936192245889</v>
       </c>
       <c r="F17">
-        <v>1.000166158532811</v>
+        <v>0.9472885231855678</v>
       </c>
       <c r="G17">
-        <v>0.9999372204361757</v>
+        <v>0.9884503971538917</v>
       </c>
       <c r="H17">
-        <v>1.000116131786403</v>
+        <v>1.014044649378205</v>
       </c>
       <c r="I17">
-        <v>1.000166158532811</v>
+        <v>0.9654460624586328</v>
       </c>
       <c r="J17">
-        <v>0.9996846359744145</v>
+        <v>1.037936192245889</v>
       </c>
       <c r="K17">
-        <v>0.9999531181658398</v>
+        <v>1.037936192245889</v>
       </c>
       <c r="L17">
-        <v>1.000067145418381</v>
+        <v>0.9885677864142908</v>
       </c>
       <c r="M17">
-        <v>0.9998018409415215</v>
+        <v>1.019412393095194</v>
       </c>
       <c r="N17">
-        <v>1.000166158532811</v>
+        <v>1.037936192245889</v>
       </c>
       <c r="O17">
-        <v>1.000097391263521</v>
+        <v>1.011625725937068</v>
       </c>
       <c r="P17">
-        <v>0.9998910136189679</v>
+        <v>0.9794571245613179</v>
       </c>
       <c r="Q17">
-        <v>1.000017305849848</v>
+        <v>1.00009675617568</v>
       </c>
       <c r="R17">
-        <v>0.9999827285902491</v>
+        <v>0.9989501471228417</v>
       </c>
       <c r="S17">
-        <v>0.9999064158913705</v>
+        <v>0.9824940118456422</v>
       </c>
       <c r="T17">
-        <v>0.9999827285902491</v>
+        <v>0.9989501471228417</v>
       </c>
       <c r="U17">
-        <v>0.9999713515517307</v>
+        <v>0.996354556945704</v>
       </c>
       <c r="V17">
-        <v>1.000010312947947</v>
+        <v>1.004670884005741</v>
       </c>
       <c r="W17">
-        <v>0.9999779553148834</v>
+        <v>0.9965964662335924</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000788495703886</v>
+        <v>1.009136959565545</v>
       </c>
       <c r="D18">
-        <v>0.9990267791552156</v>
+        <v>0.9688387530613484</v>
       </c>
       <c r="E18">
-        <v>1.000179479295673</v>
+        <v>1.018394977873059</v>
       </c>
       <c r="F18">
-        <v>1.000788495703886</v>
+        <v>0.9688387530613484</v>
       </c>
       <c r="G18">
-        <v>0.999777903739296</v>
+        <v>0.9946238300408082</v>
       </c>
       <c r="H18">
-        <v>1.000361347314297</v>
+        <v>1.007044029476768</v>
       </c>
       <c r="I18">
-        <v>1.000788495703886</v>
+        <v>0.9799670157189281</v>
       </c>
       <c r="J18">
-        <v>0.9990267791552156</v>
+        <v>1.018394977873059</v>
       </c>
       <c r="K18">
-        <v>0.9997543143122811</v>
+        <v>1.018394977873059</v>
       </c>
       <c r="L18">
-        <v>1.000282040567543</v>
+        <v>0.9933799580240864</v>
       </c>
       <c r="M18">
-        <v>0.9993474644239118</v>
+        <v>1.011711990880463</v>
       </c>
       <c r="N18">
-        <v>1.000788495703886</v>
+        <v>1.018394977873059</v>
       </c>
       <c r="O18">
-        <v>1.000179479295673</v>
+        <v>1.009136959565545</v>
       </c>
       <c r="P18">
-        <v>0.9996031292254445</v>
+        <v>0.9889878563134467</v>
       </c>
       <c r="Q18">
-        <v>0.9999786915174846</v>
+        <v>1.001258458794816</v>
       </c>
       <c r="R18">
-        <v>0.999998251384925</v>
+        <v>0.998790230166651</v>
       </c>
       <c r="S18">
-        <v>0.9996613873967283</v>
+        <v>0.9904518902169932</v>
       </c>
       <c r="T18">
-        <v>0.999998251384925</v>
+        <v>0.998790230166651</v>
       </c>
       <c r="U18">
-        <v>0.9999431644735177</v>
+        <v>0.9974376621310098</v>
       </c>
       <c r="V18">
-        <v>1.000112230719591</v>
+        <v>1.00162912527942</v>
       </c>
       <c r="W18">
-        <v>0.999939728064013</v>
+        <v>0.9978871893301259</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.010754471337879</v>
+      </c>
+      <c r="D19">
+        <v>0.9654596141756133</v>
+      </c>
+      <c r="E19">
+        <v>1.019298042228081</v>
+      </c>
+      <c r="F19">
+        <v>0.9654596141756133</v>
+      </c>
+      <c r="G19">
+        <v>0.9944332004824343</v>
+      </c>
+      <c r="H19">
+        <v>1.007462525446617</v>
+      </c>
+      <c r="I19">
+        <v>0.9778957017819528</v>
+      </c>
+      <c r="J19">
+        <v>1.019298042228081</v>
+      </c>
+      <c r="K19">
+        <v>1.019298042228081</v>
+      </c>
+      <c r="L19">
+        <v>0.9926919211965731</v>
+      </c>
+      <c r="M19">
+        <v>1.013053640970885</v>
+      </c>
+      <c r="N19">
+        <v>1.019298042228081</v>
+      </c>
+      <c r="O19">
+        <v>1.010754471337879</v>
+      </c>
+      <c r="P19">
+        <v>0.9881070427567461</v>
+      </c>
+      <c r="Q19">
+        <v>1.001723196267226</v>
+      </c>
+      <c r="R19">
+        <v>0.9985040425805245</v>
+      </c>
+      <c r="S19">
+        <v>0.9896353355700218</v>
+      </c>
+      <c r="T19">
+        <v>0.9985040425805245</v>
+      </c>
+      <c r="U19">
+        <v>0.9970510122345366</v>
+      </c>
+      <c r="V19">
+        <v>1.001500418233246</v>
+      </c>
+      <c r="W19">
+        <v>0.9976311397025044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000009905976659</v>
+      </c>
+      <c r="D20">
+        <v>0.9999873745082714</v>
+      </c>
+      <c r="E20">
+        <v>1.000005786378026</v>
+      </c>
+      <c r="F20">
+        <v>0.9999873745082714</v>
+      </c>
+      <c r="G20">
+        <v>0.9999981531587262</v>
+      </c>
+      <c r="H20">
+        <v>1.000000575990652</v>
+      </c>
+      <c r="I20">
+        <v>0.9999898528420864</v>
+      </c>
+      <c r="J20">
+        <v>1.000005786378026</v>
+      </c>
+      <c r="K20">
+        <v>1.000005786378026</v>
+      </c>
+      <c r="L20">
+        <v>0.9999944263847027</v>
+      </c>
+      <c r="M20">
+        <v>1.000007825752342</v>
+      </c>
+      <c r="N20">
+        <v>1.000005786378026</v>
+      </c>
+      <c r="O20">
+        <v>1.000009905976659</v>
+      </c>
+      <c r="P20">
+        <v>0.999998640242465</v>
+      </c>
+      <c r="Q20">
+        <v>1.000002166180681</v>
+      </c>
+      <c r="R20">
+        <v>1.000001022287652</v>
+      </c>
+      <c r="S20">
+        <v>0.9999972356232109</v>
+      </c>
+      <c r="T20">
+        <v>1.000001022287652</v>
+      </c>
+      <c r="U20">
+        <v>0.9999993733119146</v>
+      </c>
+      <c r="V20">
+        <v>1.000000655925137</v>
+      </c>
+      <c r="W20">
+        <v>0.9999992376239331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000097391263521</v>
+      </c>
+      <c r="D21">
+        <v>0.9996846359744145</v>
+      </c>
+      <c r="E21">
+        <v>1.000166158532811</v>
+      </c>
+      <c r="F21">
+        <v>0.9996846359744145</v>
+      </c>
+      <c r="G21">
+        <v>0.9999531181658398</v>
+      </c>
+      <c r="H21">
+        <v>1.000067145418381</v>
+      </c>
+      <c r="I21">
+        <v>0.9998018409415215</v>
+      </c>
+      <c r="J21">
+        <v>1.000166158532811</v>
+      </c>
+      <c r="K21">
+        <v>1.000166158532811</v>
+      </c>
+      <c r="L21">
+        <v>0.9999372204361757</v>
+      </c>
+      <c r="M21">
+        <v>1.000116131786403</v>
+      </c>
+      <c r="N21">
+        <v>1.000166158532811</v>
+      </c>
+      <c r="O21">
+        <v>1.000097391263521</v>
+      </c>
+      <c r="P21">
+        <v>0.9998910136189679</v>
+      </c>
+      <c r="Q21">
+        <v>1.000017305849848</v>
+      </c>
+      <c r="R21">
+        <v>0.9999827285902491</v>
+      </c>
+      <c r="S21">
+        <v>0.9999064158913705</v>
+      </c>
+      <c r="T21">
+        <v>0.9999827285902491</v>
+      </c>
+      <c r="U21">
+        <v>0.9999713515517307</v>
+      </c>
+      <c r="V21">
+        <v>1.000010312947947</v>
+      </c>
+      <c r="W21">
+        <v>0.9999779553148833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000179479295673</v>
+      </c>
+      <c r="D22">
+        <v>0.9990267791552156</v>
+      </c>
+      <c r="E22">
+        <v>1.000788495703886</v>
+      </c>
+      <c r="F22">
+        <v>0.9990267791552156</v>
+      </c>
+      <c r="G22">
+        <v>0.9997543143122811</v>
+      </c>
+      <c r="H22">
+        <v>1.000282040567543</v>
+      </c>
+      <c r="I22">
+        <v>0.9993474644239118</v>
+      </c>
+      <c r="J22">
+        <v>1.000788495703886</v>
+      </c>
+      <c r="K22">
+        <v>1.000788495703886</v>
+      </c>
+      <c r="L22">
+        <v>0.999777903739296</v>
+      </c>
+      <c r="M22">
+        <v>1.000361347314297</v>
+      </c>
+      <c r="N22">
+        <v>1.000788495703886</v>
+      </c>
+      <c r="O22">
+        <v>1.000179479295673</v>
+      </c>
+      <c r="P22">
+        <v>0.9996031292254445</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999786915174846</v>
+      </c>
+      <c r="R22">
+        <v>0.999998251384925</v>
+      </c>
+      <c r="S22">
+        <v>0.9996613873967283</v>
+      </c>
+      <c r="T22">
+        <v>0.999998251384925</v>
+      </c>
+      <c r="U22">
+        <v>0.9999431644735177</v>
+      </c>
+      <c r="V22">
+        <v>1.000112230719591</v>
+      </c>
+      <c r="W22">
+        <v>0.999939728064013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000300067361844</v>
+      </c>
+      <c r="D23">
+        <v>0.9978240189498121</v>
+      </c>
+      <c r="E23">
         <v>1.001999176473146</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.9978240189498121</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9993640297918749</v>
+      </c>
+      <c r="H23">
+        <v>1.000693866107485</v>
+      </c>
+      <c r="I23">
+        <v>0.9985048464093996</v>
+      </c>
+      <c r="J23">
+        <v>1.001999176473146</v>
+      </c>
+      <c r="K23">
+        <v>1.001999176473146</v>
+      </c>
+      <c r="L23">
+        <v>0.9994777348348095</v>
+      </c>
+      <c r="M23">
+        <v>1.000811871054381</v>
+      </c>
+      <c r="N23">
+        <v>1.001999176473146</v>
+      </c>
+      <c r="O23">
         <v>1.000300067361844</v>
       </c>
-      <c r="F19">
-        <v>1.001999176473146</v>
-      </c>
-      <c r="G19">
-        <v>0.9994777348348095</v>
-      </c>
-      <c r="H19">
-        <v>1.000811871054381</v>
-      </c>
-      <c r="I19">
-        <v>1.001999176473146</v>
-      </c>
-      <c r="J19">
-        <v>0.9978240189498121</v>
-      </c>
-      <c r="K19">
-        <v>0.9993640297918749</v>
-      </c>
-      <c r="L19">
-        <v>1.000693866107485</v>
-      </c>
-      <c r="M19">
-        <v>0.9985048464093996</v>
-      </c>
-      <c r="N19">
-        <v>1.001999176473146</v>
-      </c>
-      <c r="O19">
-        <v>1.000300067361844</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9990620431558279</v>
       </c>
-      <c r="Q19">
-        <v>0.9998889010983265</v>
-      </c>
-      <c r="R19">
+      <c r="Q23">
+        <v>0.9998889010983267</v>
+      </c>
+      <c r="R23">
         <v>1.000041087594934</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9992006070488219</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000041087594934</v>
       </c>
-      <c r="U19">
-        <v>0.9999002494049027</v>
-      </c>
-      <c r="V19">
+      <c r="U23">
+        <v>0.9999002494049029</v>
+      </c>
+      <c r="V23">
         <v>1.000320034818551</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.999871951372844</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000633810793429</v>
+        <v>1.011064772031698</v>
       </c>
       <c r="D3">
-        <v>0.9967619853728887</v>
+        <v>0.9621732905907758</v>
       </c>
       <c r="E3">
-        <v>1.002474292090572</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="F3">
-        <v>0.9967619853728887</v>
+        <v>0.9621732905907758</v>
       </c>
       <c r="G3">
-        <v>0.9992386820091478</v>
+        <v>0.9934503872334278</v>
       </c>
       <c r="H3">
-        <v>1.000907518293582</v>
+        <v>1.008567614106624</v>
       </c>
       <c r="I3">
-        <v>0.9978631176104515</v>
+        <v>0.9756718169020194</v>
       </c>
       <c r="J3">
-        <v>1.002474292090572</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="K3">
-        <v>1.002474292090572</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="L3">
-        <v>0.9992925270678344</v>
+        <v>0.9919565412896264</v>
       </c>
       <c r="M3">
-        <v>1.00118433012796</v>
+        <v>1.014218712917867</v>
       </c>
       <c r="N3">
-        <v>1.002474292090572</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="O3">
-        <v>1.000633810793429</v>
+        <v>1.011064772031698</v>
       </c>
       <c r="P3">
-        <v>0.9986978980831591</v>
+        <v>0.9866190313112371</v>
       </c>
       <c r="Q3">
-        <v>0.9999631689306319</v>
+        <v>1.001510656660662</v>
       </c>
       <c r="R3">
-        <v>0.9999566960856301</v>
+        <v>0.9985438779034576</v>
       </c>
       <c r="S3">
-        <v>0.9988961077447175</v>
+        <v>0.9883982013040336</v>
       </c>
       <c r="T3">
-        <v>0.9999566960856301</v>
+        <v>0.9985438779034576</v>
       </c>
       <c r="U3">
-        <v>0.9997906538311812</v>
+        <v>0.9968970437499998</v>
       </c>
       <c r="V3">
-        <v>1.000327381483059</v>
+        <v>1.00199634921758</v>
       </c>
       <c r="W3">
-        <v>0.9997945329207332</v>
+        <v>0.9974370882699922</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001227345336239</v>
+        <v>1.010028558143867</v>
       </c>
       <c r="D4">
-        <v>0.9937453478218931</v>
+        <v>0.9659501273844553</v>
       </c>
       <c r="E4">
-        <v>1.004771519823999</v>
+        <v>1.02002997344391</v>
       </c>
       <c r="F4">
-        <v>0.9937453478218931</v>
+        <v>0.9659501273844553</v>
       </c>
       <c r="G4">
-        <v>0.9985323285442554</v>
+        <v>0.994150475937376</v>
       </c>
       <c r="H4">
-        <v>1.001750986639747</v>
+        <v>1.007673360206855</v>
       </c>
       <c r="I4">
-        <v>0.9958736778006039</v>
+        <v>0.9781146810883334</v>
       </c>
       <c r="J4">
-        <v>1.004771519823999</v>
+        <v>1.02002997344391</v>
       </c>
       <c r="K4">
-        <v>1.004771519823999</v>
+        <v>1.02002997344391</v>
       </c>
       <c r="L4">
-        <v>0.9986344678590158</v>
+        <v>0.9927657940216158</v>
       </c>
       <c r="M4">
-        <v>1.002287369143447</v>
+        <v>1.012804724213573</v>
       </c>
       <c r="N4">
-        <v>1.004771519823999</v>
+        <v>1.02002997344391</v>
       </c>
       <c r="O4">
-        <v>1.001227345336239</v>
+        <v>1.010028558143867</v>
       </c>
       <c r="P4">
-        <v>0.9974863465790662</v>
+        <v>0.9879893427641609</v>
       </c>
       <c r="Q4">
-        <v>0.9999309065976275</v>
+        <v>1.001397176082741</v>
       </c>
       <c r="R4">
-        <v>0.9999147376607104</v>
+        <v>0.9986695529907439</v>
       </c>
       <c r="S4">
-        <v>0.9978690536723827</v>
+        <v>0.9895814931833126</v>
       </c>
       <c r="T4">
-        <v>0.9999147376607104</v>
+        <v>0.9986695529907439</v>
       </c>
       <c r="U4">
-        <v>0.9995946702102867</v>
+        <v>0.9971936132484619</v>
       </c>
       <c r="V4">
-        <v>1.000630040133029</v>
+        <v>1.001760885287551</v>
       </c>
       <c r="W4">
-        <v>0.99960288037115</v>
+        <v>0.9976897118049981</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.002381170145861</v>
+        <v>1.013043742749326</v>
       </c>
       <c r="D5">
-        <v>0.9879976854080695</v>
+        <v>0.9549204411051215</v>
       </c>
       <c r="E5">
-        <v>1.00911345158638</v>
+        <v>1.026950782803235</v>
       </c>
       <c r="F5">
-        <v>0.9879976854080695</v>
+        <v>0.9549204411051215</v>
       </c>
       <c r="G5">
-        <v>0.9971989366654761</v>
+        <v>0.9920994242587604</v>
       </c>
       <c r="H5">
-        <v>1.00334603495583</v>
+        <v>1.010290819811321</v>
       </c>
       <c r="I5">
-        <v>0.9920852174378434</v>
+        <v>0.9709791488409694</v>
       </c>
       <c r="J5">
-        <v>1.00911345158638</v>
+        <v>1.026950782803235</v>
       </c>
       <c r="K5">
-        <v>1.00911345158638</v>
+        <v>1.026950782803235</v>
       </c>
       <c r="L5">
-        <v>0.9973800194492911</v>
+        <v>0.9904022377897573</v>
       </c>
       <c r="M5">
-        <v>1.004392913584672</v>
+        <v>1.016932625040431</v>
       </c>
       <c r="N5">
-        <v>1.00911345158638</v>
+        <v>1.026950782803235</v>
       </c>
       <c r="O5">
-        <v>1.002381170145861</v>
+        <v>1.013043742749326</v>
       </c>
       <c r="P5">
-        <v>0.9951894277769655</v>
+        <v>0.983982091927224</v>
       </c>
       <c r="Q5">
-        <v>0.9998805947975762</v>
+        <v>1.001722990269542</v>
       </c>
       <c r="R5">
-        <v>0.9998307690467702</v>
+        <v>0.9983049888858943</v>
       </c>
       <c r="S5">
-        <v>0.9959196250010741</v>
+        <v>0.9861221405480683</v>
       </c>
       <c r="T5">
-        <v>0.9998307690467702</v>
+        <v>0.9983049888858943</v>
       </c>
       <c r="U5">
-        <v>0.9992180816474004</v>
+        <v>0.99632930111186</v>
       </c>
       <c r="V5">
-        <v>1.001197155635196</v>
+        <v>1.002453597450135</v>
       </c>
       <c r="W5">
-        <v>0.9992369286541778</v>
+        <v>0.9969524027998653</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.003509781121739</v>
+        <v>1.014904686079546</v>
       </c>
       <c r="D6">
-        <v>0.9823881103892897</v>
+        <v>0.9480530734090916</v>
       </c>
       <c r="E6">
-        <v>1.013349126023033</v>
+        <v>1.031287274772728</v>
       </c>
       <c r="F6">
-        <v>0.9823881103892897</v>
+        <v>0.9480530734090916</v>
       </c>
       <c r="G6">
-        <v>0.9958982138115178</v>
+        <v>0.9908125673863637</v>
       </c>
       <c r="H6">
-        <v>1.00490168275243</v>
+        <v>1.011929408522728</v>
       </c>
       <c r="I6">
-        <v>0.9883873684125036</v>
+        <v>0.9665341103409091</v>
       </c>
       <c r="J6">
-        <v>1.013349126023033</v>
+        <v>1.031287274772728</v>
       </c>
       <c r="K6">
-        <v>1.013349126023033</v>
+        <v>1.031287274772728</v>
       </c>
       <c r="L6">
-        <v>0.9961549852824596</v>
+        <v>0.9889302319318176</v>
       </c>
       <c r="M6">
-        <v>1.006448795133753</v>
+        <v>1.019500594772727</v>
       </c>
       <c r="N6">
-        <v>1.013349126023033</v>
+        <v>1.031287274772728</v>
       </c>
       <c r="O6">
-        <v>1.003509781121739</v>
+        <v>1.014904686079546</v>
       </c>
       <c r="P6">
-        <v>0.9929489457555143</v>
+        <v>0.981478879744319</v>
       </c>
       <c r="Q6">
-        <v>0.9998323832020992</v>
+        <v>1.001917459005682</v>
       </c>
       <c r="R6">
-        <v>0.9997490058446871</v>
+        <v>0.9980816780871221</v>
       </c>
       <c r="S6">
-        <v>0.9940176255978294</v>
+        <v>0.9839626638068185</v>
       </c>
       <c r="T6">
-        <v>0.9997490058446871</v>
+        <v>0.9980816780871221</v>
       </c>
       <c r="U6">
-        <v>0.9988505007041302</v>
+        <v>0.995793816548296</v>
       </c>
       <c r="V6">
-        <v>1.001750225767911</v>
+        <v>1.002892508193182</v>
       </c>
       <c r="W6">
-        <v>0.9988797578658406</v>
+        <v>0.996493993401989</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000081780141445</v>
+        <v>1.033295697614954</v>
       </c>
       <c r="D7">
-        <v>0.9997100538592274</v>
+        <v>0.8710069998234989</v>
       </c>
       <c r="E7">
-        <v>1.000176843831466</v>
+        <v>1.085215867481119</v>
       </c>
       <c r="F7">
-        <v>0.9997100538592274</v>
+        <v>0.8710069998234989</v>
       </c>
       <c r="G7">
-        <v>0.9999479332617139</v>
+        <v>0.9744508284446216</v>
       </c>
       <c r="H7">
-        <v>1.000067330191808</v>
+        <v>1.031801667289933</v>
       </c>
       <c r="I7">
-        <v>0.9998130610290056</v>
+        <v>0.9159504692310646</v>
       </c>
       <c r="J7">
-        <v>1.000176843831466</v>
+        <v>1.085215867481119</v>
       </c>
       <c r="K7">
-        <v>1.000176843831466</v>
+        <v>1.085215867481119</v>
       </c>
       <c r="L7">
-        <v>0.9999382313991574</v>
+        <v>0.9719681014064062</v>
       </c>
       <c r="M7">
-        <v>1.000108621140935</v>
+        <v>1.048271613276048</v>
       </c>
       <c r="N7">
-        <v>1.000176843831466</v>
+        <v>1.085215867481119</v>
       </c>
       <c r="O7">
-        <v>1.000081780141445</v>
+        <v>1.033295697614954</v>
       </c>
       <c r="P7">
-        <v>0.9998959170003362</v>
+        <v>0.9521513487192266</v>
       </c>
       <c r="Q7">
-        <v>1.000010005770301</v>
+        <v>1.00263189951068</v>
       </c>
       <c r="R7">
-        <v>0.9999895592773793</v>
+        <v>0.9965061883065243</v>
       </c>
       <c r="S7">
-        <v>0.9999100217999434</v>
+        <v>0.9587569329482865</v>
       </c>
       <c r="T7">
-        <v>0.9999895592773793</v>
+        <v>0.9965061883065242</v>
       </c>
       <c r="U7">
-        <v>0.9999767273078238</v>
+        <v>0.9903716665814947</v>
       </c>
       <c r="V7">
-        <v>1.000016750612552</v>
+        <v>1.00934050676142</v>
       </c>
       <c r="W7">
-        <v>0.9999804818568448</v>
+        <v>0.9914951555709557</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000222055922729</v>
+        <v>1.033474386883205</v>
       </c>
       <c r="D8">
-        <v>0.999162230549966</v>
+        <v>0.870239079577972</v>
       </c>
       <c r="E8">
-        <v>1.000536170488716</v>
+        <v>1.085745272975651</v>
       </c>
       <c r="F8">
-        <v>0.999162230549966</v>
+        <v>0.870239079577972</v>
       </c>
       <c r="G8">
-        <v>0.9998404881970838</v>
+        <v>0.9742911369010427</v>
       </c>
       <c r="H8">
-        <v>1.000202443423032</v>
+        <v>1.032000259982808</v>
       </c>
       <c r="I8">
-        <v>0.9994574333216393</v>
+        <v>0.9154509069023515</v>
       </c>
       <c r="J8">
-        <v>1.000536170488716</v>
+        <v>1.085745272975651</v>
       </c>
       <c r="K8">
-        <v>1.000536170488716</v>
+        <v>1.085745272975651</v>
       </c>
       <c r="L8">
-        <v>0.9998207123317834</v>
+        <v>0.9718044450903923</v>
       </c>
       <c r="M8">
-        <v>1.000312320516254</v>
+        <v>1.048553664528656</v>
       </c>
       <c r="N8">
-        <v>1.000536170488716</v>
+        <v>1.085745272975651</v>
       </c>
       <c r="O8">
-        <v>1.000222055922729</v>
+        <v>1.033474386883205</v>
       </c>
       <c r="P8">
-        <v>0.9996921432363477</v>
+        <v>0.9518567332305883</v>
       </c>
       <c r="Q8">
-        <v>1.000021384127256</v>
+        <v>1.002639415986798</v>
       </c>
       <c r="R8">
-        <v>0.9999734856538037</v>
+        <v>0.9964862464789425</v>
       </c>
       <c r="S8">
-        <v>0.9997349996014929</v>
+        <v>0.9585059705171896</v>
       </c>
       <c r="T8">
-        <v>0.9999734856538037</v>
+        <v>0.9964862464789425</v>
       </c>
       <c r="U8">
-        <v>0.9999352923232987</v>
+        <v>0.9903157961318049</v>
       </c>
       <c r="V8">
-        <v>1.000055467956382</v>
+        <v>1.009401691500574</v>
       </c>
       <c r="W8">
-        <v>0.9999442318439005</v>
+        <v>0.9914448941052598</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000304122876394</v>
+        <v>1.033678949251335</v>
       </c>
       <c r="D9">
-        <v>0.9987636949688231</v>
+        <v>0.8697122721413981</v>
       </c>
       <c r="E9">
-        <v>1.00083299031402</v>
+        <v>1.085964204750346</v>
       </c>
       <c r="F9">
-        <v>0.9987636949688231</v>
+        <v>0.8697122721413981</v>
       </c>
       <c r="G9">
-        <v>0.9997495771925452</v>
+        <v>0.9742334727625671</v>
       </c>
       <c r="H9">
-        <v>1.00031182445659</v>
+        <v>1.032091140748652</v>
       </c>
       <c r="I9">
-        <v>0.999195295397753</v>
+        <v>0.9151218984416648</v>
       </c>
       <c r="J9">
-        <v>1.00083299031402</v>
+        <v>1.085964204750346</v>
       </c>
       <c r="K9">
-        <v>1.00083299031402</v>
+        <v>1.085964204750346</v>
       </c>
       <c r="L9">
-        <v>0.9997340558186243</v>
+        <v>0.9716965822352287</v>
       </c>
       <c r="M9">
-        <v>1.000458383105711</v>
+        <v>1.048756148061672</v>
       </c>
       <c r="N9">
-        <v>1.00083299031402</v>
+        <v>1.085964204750346</v>
       </c>
       <c r="O9">
-        <v>1.000304122876394</v>
+        <v>1.033678949251335</v>
       </c>
       <c r="P9">
-        <v>0.9995339089226085</v>
+        <v>0.9516956106963663</v>
       </c>
       <c r="Q9">
-        <v>1.000019089347509</v>
+        <v>1.002687765743282</v>
       </c>
       <c r="R9">
-        <v>0.9999669360530792</v>
+        <v>0.9964518087143596</v>
       </c>
       <c r="S9">
-        <v>0.9996006245546137</v>
+        <v>0.9583626012093204</v>
       </c>
       <c r="T9">
-        <v>0.9999669360530792</v>
+        <v>0.9964518087143596</v>
       </c>
       <c r="U9">
-        <v>0.9999087159944655</v>
+        <v>0.9902630020945768</v>
       </c>
       <c r="V9">
-        <v>1.000093570858376</v>
+        <v>1.009403242625731</v>
       </c>
       <c r="W9">
-        <v>0.9999187430163075</v>
+        <v>0.991406833549108</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000665565658503</v>
+        <v>1.034149594346827</v>
       </c>
       <c r="D10">
-        <v>0.9973933731379944</v>
+        <v>0.8670108355502602</v>
       </c>
       <c r="E10">
-        <v>1.001712095156527</v>
+        <v>1.088109894294941</v>
       </c>
       <c r="F10">
-        <v>0.9973933731379944</v>
+        <v>0.8670108355502602</v>
       </c>
       <c r="G10">
-        <v>0.9994879387984383</v>
+        <v>0.9735696349146978</v>
       </c>
       <c r="H10">
-        <v>1.000643811443529</v>
+        <v>1.032877829285898</v>
       </c>
       <c r="I10">
-        <v>0.9983078722067061</v>
+        <v>0.9133363297243289</v>
       </c>
       <c r="J10">
-        <v>1.001712095156527</v>
+        <v>1.088109894294941</v>
       </c>
       <c r="K10">
-        <v>1.001712095156527</v>
+        <v>1.088109894294941</v>
       </c>
       <c r="L10">
-        <v>0.9994410569254987</v>
+        <v>0.9711104971340297</v>
       </c>
       <c r="M10">
-        <v>1.000968778687117</v>
+        <v>1.049732431201759</v>
       </c>
       <c r="N10">
-        <v>1.001712095156527</v>
+        <v>1.088109894294941</v>
       </c>
       <c r="O10">
-        <v>1.000665565658503</v>
+        <v>1.034149594346827</v>
       </c>
       <c r="P10">
-        <v>0.9990294693982487</v>
+        <v>0.9505802149485435</v>
       </c>
       <c r="Q10">
-        <v>1.000053311292001</v>
+        <v>1.002630045740428</v>
       </c>
       <c r="R10">
-        <v>0.9999236779843416</v>
+        <v>0.9964234413973427</v>
       </c>
       <c r="S10">
-        <v>0.9991666652406653</v>
+        <v>0.9574236423437056</v>
       </c>
       <c r="T10">
-        <v>0.9999236779843416</v>
+        <v>0.9964234413973427</v>
       </c>
       <c r="U10">
-        <v>0.9998030227196308</v>
+        <v>0.9900952053315145</v>
       </c>
       <c r="V10">
-        <v>1.00018483720701</v>
+        <v>1.0096981431242</v>
       </c>
       <c r="W10">
-        <v>0.9998275615017893</v>
+        <v>0.9912371308065926</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001067393415939</v>
+        <v>1.00070994814179</v>
       </c>
       <c r="D11">
-        <v>0.9955073871485032</v>
+        <v>0.9960987105298313</v>
       </c>
       <c r="E11">
-        <v>1.003092953358263</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="F11">
-        <v>0.9955073871485032</v>
+        <v>0.9960987105298313</v>
       </c>
       <c r="G11">
-        <v>0.9990662801431001</v>
+        <v>0.999048260184251</v>
       </c>
       <c r="H11">
-        <v>1.001153972509511</v>
+        <v>1.001123279117793</v>
       </c>
       <c r="I11">
-        <v>0.9970696369477101</v>
+        <v>0.9974160087317306</v>
       </c>
       <c r="J11">
-        <v>1.003092953358263</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="K11">
-        <v>1.003092953358263</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="L11">
-        <v>0.9990317266293943</v>
+        <v>0.9991442823997503</v>
       </c>
       <c r="M11">
-        <v>1.001661441862887</v>
+        <v>1.001421365394656</v>
       </c>
       <c r="N11">
-        <v>1.003092953358263</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="O11">
-        <v>1.001067393415939</v>
+        <v>1.00070994814179</v>
       </c>
       <c r="P11">
-        <v>0.9982873902822209</v>
+        <v>0.9984043293358109</v>
       </c>
       <c r="Q11">
-        <v>1.000049560022666</v>
+        <v>0.9999271152707704</v>
       </c>
       <c r="R11">
-        <v>0.9998892446409015</v>
+        <v>0.9999618404775962</v>
       </c>
       <c r="S11">
-        <v>0.9985355023979454</v>
+        <v>0.998650980357124</v>
       </c>
       <c r="T11">
-        <v>0.9998892446409015</v>
+        <v>0.9999618404775962</v>
       </c>
       <c r="U11">
-        <v>0.9996748651380247</v>
+        <v>0.9997574509581346</v>
       </c>
       <c r="V11">
-        <v>1.000358482782072</v>
+        <v>1.000421333318741</v>
       </c>
       <c r="W11">
-        <v>0.9997063490019135</v>
+        <v>0.9997548396576212</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9755009089550444</v>
+        <v>1.000522420054255</v>
       </c>
       <c r="D12">
-        <v>1.058180098106829</v>
+        <v>0.9976654024266234</v>
       </c>
       <c r="E12">
-        <v>0.9787865666858399</v>
+        <v>1.001672535474264</v>
       </c>
       <c r="F12">
-        <v>1.058180098106829</v>
+        <v>0.9976654024266234</v>
       </c>
       <c r="G12">
-        <v>1.005313169491487</v>
+        <v>0.9994910624582083</v>
       </c>
       <c r="H12">
-        <v>0.9909696585471111</v>
+        <v>1.000618574620175</v>
       </c>
       <c r="I12">
-        <v>1.036146256668458</v>
+        <v>0.9984690137662329</v>
       </c>
       <c r="J12">
-        <v>0.9787865666858399</v>
+        <v>1.001672535474264</v>
       </c>
       <c r="K12">
-        <v>0.9787865666858399</v>
+        <v>1.001672535474264</v>
       </c>
       <c r="L12">
-        <v>1.011946030628777</v>
+        <v>0.9994921309234872</v>
       </c>
       <c r="M12">
-        <v>0.9773273371671877</v>
+        <v>1.000862045255091</v>
       </c>
       <c r="N12">
-        <v>0.9787865666858399</v>
+        <v>1.001672535474264</v>
       </c>
       <c r="O12">
-        <v>0.9755009089550444</v>
+        <v>1.000522420054255</v>
       </c>
       <c r="P12">
-        <v>1.016840503530937</v>
+        <v>0.9990939112404393</v>
       </c>
       <c r="Q12">
-        <v>0.9937234697919107</v>
+        <v>1.000007275488871</v>
       </c>
       <c r="R12">
-        <v>1.004155857915905</v>
+        <v>0.9999534526517141</v>
       </c>
       <c r="S12">
-        <v>1.01520901256355</v>
+        <v>0.9992266511347886</v>
       </c>
       <c r="T12">
-        <v>1.004155857915905</v>
+        <v>0.9999534526517141</v>
       </c>
       <c r="U12">
-        <v>1.006103401094123</v>
+        <v>0.9998381222196574</v>
       </c>
       <c r="V12">
-        <v>1.000640034212466</v>
+        <v>1.000205004870579</v>
       </c>
       <c r="W12">
-        <v>1.004271253281342</v>
+        <v>0.9998491481222921</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001660143329285</v>
+        <v>1.001942905638006</v>
       </c>
       <c r="D13">
-        <v>1.010255721180245</v>
+        <v>0.991511116795405</v>
       </c>
       <c r="E13">
-        <v>0.985804183976829</v>
+        <v>1.006002897837417</v>
       </c>
       <c r="F13">
-        <v>1.010255721180245</v>
+        <v>0.991511116795405</v>
       </c>
       <c r="G13">
-        <v>1.004695923658819</v>
+        <v>0.9981777956021566</v>
       </c>
       <c r="H13">
-        <v>0.9951082105529874</v>
+        <v>1.002224945104853</v>
       </c>
       <c r="I13">
-        <v>1.007349716455098</v>
+        <v>0.9944411890180102</v>
       </c>
       <c r="J13">
-        <v>0.985804183976829</v>
+        <v>1.006002897837417</v>
       </c>
       <c r="K13">
-        <v>0.985804183976829</v>
+        <v>1.006002897837417</v>
       </c>
       <c r="L13">
-        <v>1.002405040071198</v>
+        <v>0.9981565002629202</v>
       </c>
       <c r="M13">
-        <v>0.9966756587618713</v>
+        <v>1.003138620215448</v>
       </c>
       <c r="N13">
-        <v>0.985804183976829</v>
+        <v>1.006002897837417</v>
       </c>
       <c r="O13">
-        <v>1.001660143329285</v>
+        <v>1.001942905638006</v>
       </c>
       <c r="P13">
-        <v>1.005957932254765</v>
+        <v>0.9967270112167055</v>
       </c>
       <c r="Q13">
-        <v>1.002032591700242</v>
+        <v>1.000049702950463</v>
       </c>
       <c r="R13">
-        <v>0.99924001616212</v>
+        <v>0.9998189734236093</v>
       </c>
       <c r="S13">
-        <v>1.004773634860243</v>
+        <v>0.9972035075654437</v>
       </c>
       <c r="T13">
-        <v>0.9992400161621199</v>
+        <v>0.9998189734236093</v>
       </c>
       <c r="U13">
-        <v>1.000031272139389</v>
+        <v>0.999403355133437</v>
       </c>
       <c r="V13">
-        <v>0.9971858545068774</v>
+        <v>1.000723263674233</v>
       </c>
       <c r="W13">
-        <v>1.000494324748292</v>
+        <v>0.999449496309277</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.021117239570302</v>
+        <v>1.001825722294062</v>
       </c>
       <c r="D14">
-        <v>0.9845659933140668</v>
+        <v>0.9908986463249695</v>
       </c>
       <c r="E14">
-        <v>0.9794887091682457</v>
+        <v>1.006875840474481</v>
       </c>
       <c r="F14">
-        <v>0.9845659933140668</v>
+        <v>0.9908986463249695</v>
       </c>
       <c r="G14">
-        <v>1.008004846172068</v>
+        <v>0.997888492581434</v>
       </c>
       <c r="H14">
-        <v>0.9942555075230741</v>
+        <v>1.002526244041412</v>
       </c>
       <c r="I14">
-        <v>0.9929922349355044</v>
+        <v>0.9940014248190755</v>
       </c>
       <c r="J14">
-        <v>0.9794887091682457</v>
+        <v>1.006875840474481</v>
       </c>
       <c r="K14">
-        <v>0.9794887091682457</v>
+        <v>1.006875840474481</v>
       </c>
       <c r="L14">
-        <v>0.9977622168072435</v>
+        <v>0.9980141960870967</v>
       </c>
       <c r="M14">
-        <v>1.007509949369854</v>
+        <v>1.003333465177729</v>
       </c>
       <c r="N14">
-        <v>0.9794887091682457</v>
+        <v>1.006875840474481</v>
       </c>
       <c r="O14">
-        <v>1.021117239570302</v>
+        <v>1.001825722294062</v>
       </c>
       <c r="P14">
-        <v>1.002841616442185</v>
+        <v>0.9963621843095156</v>
       </c>
       <c r="Q14">
-        <v>1.009439728188773</v>
+        <v>0.9999199591905793</v>
       </c>
       <c r="R14">
-        <v>0.9950573140175383</v>
+        <v>0.9998667363645041</v>
       </c>
       <c r="S14">
-        <v>1.001148483230538</v>
+        <v>0.9969128549020426</v>
       </c>
       <c r="T14">
-        <v>0.9950573140175383</v>
+        <v>0.9998667363645041</v>
       </c>
       <c r="U14">
-        <v>0.9957335397149646</v>
+        <v>0.9994036012951523</v>
       </c>
       <c r="V14">
-        <v>0.9924845736056207</v>
+        <v>1.000898049131018</v>
       </c>
       <c r="W14">
-        <v>0.9982120871075447</v>
+        <v>0.9994205039750323</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9918608534276627</v>
+        <v>1.000633810793429</v>
       </c>
       <c r="D15">
-        <v>1.004383219576628</v>
+        <v>0.9967619853728887</v>
       </c>
       <c r="E15">
-        <v>1.009744519650051</v>
+        <v>1.002474292090572</v>
       </c>
       <c r="F15">
-        <v>1.004383219576628</v>
+        <v>0.9967619853728887</v>
       </c>
       <c r="G15">
-        <v>0.9963124663247968</v>
+        <v>0.9992386820091478</v>
       </c>
       <c r="H15">
-        <v>1.002835311627709</v>
+        <v>1.000907518293582</v>
       </c>
       <c r="I15">
-        <v>1.001582356557554</v>
+        <v>0.9978631176104515</v>
       </c>
       <c r="J15">
-        <v>1.009744519650051</v>
+        <v>1.002474292090572</v>
       </c>
       <c r="K15">
-        <v>1.009744519650051</v>
+        <v>1.002474292090572</v>
       </c>
       <c r="L15">
-        <v>1.000467907490345</v>
+        <v>0.9992925270678344</v>
       </c>
       <c r="M15">
-        <v>0.9976712612833325</v>
+        <v>1.00118433012796</v>
       </c>
       <c r="N15">
-        <v>1.009744519650051</v>
+        <v>1.002474292090572</v>
       </c>
       <c r="O15">
-        <v>0.9918608534276627</v>
+        <v>1.000633810793429</v>
       </c>
       <c r="P15">
-        <v>0.9981220365021455</v>
+        <v>0.9986978980831591</v>
       </c>
       <c r="Q15">
-        <v>0.9961643804590038</v>
+        <v>0.9999631689306319</v>
       </c>
       <c r="R15">
-        <v>1.001996197551447</v>
+        <v>0.9999566960856301</v>
       </c>
       <c r="S15">
-        <v>0.998903993498212</v>
+        <v>0.9988961077447175</v>
       </c>
       <c r="T15">
-        <v>1.001996197551447</v>
+        <v>0.9999566960856301</v>
       </c>
       <c r="U15">
-        <v>1.001614125036172</v>
+        <v>0.9997906538311812</v>
       </c>
       <c r="V15">
-        <v>1.003240203958947</v>
+        <v>1.000327381483059</v>
       </c>
       <c r="W15">
-        <v>1.00060723699226</v>
+        <v>0.9997945329207332</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.012845060853547</v>
+        <v>1.001227345336239</v>
       </c>
       <c r="D16">
-        <v>0.9365130856123767</v>
+        <v>0.9937453478218931</v>
       </c>
       <c r="E16">
-        <v>1.047751402658403</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="F16">
-        <v>0.9365130856123767</v>
+        <v>0.9937453478218931</v>
       </c>
       <c r="G16">
-        <v>0.9853476441847695</v>
+        <v>0.9985323285442554</v>
       </c>
       <c r="H16">
-        <v>1.017558964957788</v>
+        <v>1.001750986639747</v>
       </c>
       <c r="I16">
-        <v>0.9581811191563055</v>
+        <v>0.9958736778006039</v>
       </c>
       <c r="J16">
-        <v>1.047751402658403</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="K16">
-        <v>1.047751402658403</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="L16">
-        <v>0.9861602208410752</v>
+        <v>0.9986344678590158</v>
       </c>
       <c r="M16">
-        <v>1.023260002336086</v>
+        <v>1.002287369143447</v>
       </c>
       <c r="N16">
-        <v>1.047751402658403</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="O16">
-        <v>1.012845060853547</v>
+        <v>1.001227345336239</v>
       </c>
       <c r="P16">
-        <v>0.9746790732329619</v>
+        <v>0.9974863465790662</v>
       </c>
       <c r="Q16">
-        <v>0.9995026408473111</v>
+        <v>0.9999309065976275</v>
       </c>
       <c r="R16">
-        <v>0.9990365163747755</v>
+        <v>0.9999147376607104</v>
       </c>
       <c r="S16">
-        <v>0.9785061224356664</v>
+        <v>0.9978690536723827</v>
       </c>
       <c r="T16">
-        <v>0.9990365163747755</v>
+        <v>0.9999147376607104</v>
       </c>
       <c r="U16">
-        <v>0.9958174424913504</v>
+        <v>0.9995946702102867</v>
       </c>
       <c r="V16">
-        <v>1.006204234524761</v>
+        <v>1.000630040133029</v>
       </c>
       <c r="W16">
-        <v>0.9959521875750438</v>
+        <v>0.99960288037115</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.011625725937068</v>
+        <v>1.002381170145861</v>
       </c>
       <c r="D17">
-        <v>0.9472885231855678</v>
+        <v>0.9879976854080695</v>
       </c>
       <c r="E17">
-        <v>1.037936192245889</v>
+        <v>1.00911345158638</v>
       </c>
       <c r="F17">
-        <v>0.9472885231855678</v>
+        <v>0.9879976854080695</v>
       </c>
       <c r="G17">
-        <v>0.9884503971538917</v>
+        <v>0.9971989366654761</v>
       </c>
       <c r="H17">
-        <v>1.014044649378205</v>
+        <v>1.00334603495583</v>
       </c>
       <c r="I17">
-        <v>0.9654460624586328</v>
+        <v>0.9920852174378434</v>
       </c>
       <c r="J17">
-        <v>1.037936192245889</v>
+        <v>1.00911345158638</v>
       </c>
       <c r="K17">
-        <v>1.037936192245889</v>
+        <v>1.00911345158638</v>
       </c>
       <c r="L17">
-        <v>0.9885677864142908</v>
+        <v>0.9973800194492911</v>
       </c>
       <c r="M17">
-        <v>1.019412393095194</v>
+        <v>1.004392913584672</v>
       </c>
       <c r="N17">
-        <v>1.037936192245889</v>
+        <v>1.00911345158638</v>
       </c>
       <c r="O17">
-        <v>1.011625725937068</v>
+        <v>1.002381170145861</v>
       </c>
       <c r="P17">
-        <v>0.9794571245613179</v>
+        <v>0.9951894277769655</v>
       </c>
       <c r="Q17">
-        <v>1.00009675617568</v>
+        <v>0.9998805947975762</v>
       </c>
       <c r="R17">
-        <v>0.9989501471228417</v>
+        <v>0.9998307690467702</v>
       </c>
       <c r="S17">
-        <v>0.9824940118456422</v>
+        <v>0.9959196250010741</v>
       </c>
       <c r="T17">
-        <v>0.9989501471228417</v>
+        <v>0.9998307690467702</v>
       </c>
       <c r="U17">
-        <v>0.996354556945704</v>
+        <v>0.9992180816474004</v>
       </c>
       <c r="V17">
-        <v>1.004670884005741</v>
+        <v>1.001197155635196</v>
       </c>
       <c r="W17">
-        <v>0.9965964662335924</v>
+        <v>0.9992369286541778</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.009136959565545</v>
+        <v>1.003509781121739</v>
       </c>
       <c r="D18">
-        <v>0.9688387530613484</v>
+        <v>0.9823881103892897</v>
       </c>
       <c r="E18">
-        <v>1.018394977873059</v>
+        <v>1.013349126023033</v>
       </c>
       <c r="F18">
-        <v>0.9688387530613484</v>
+        <v>0.9823881103892897</v>
       </c>
       <c r="G18">
-        <v>0.9946238300408082</v>
+        <v>0.9958982138115178</v>
       </c>
       <c r="H18">
-        <v>1.007044029476768</v>
+        <v>1.00490168275243</v>
       </c>
       <c r="I18">
-        <v>0.9799670157189281</v>
+        <v>0.9883873684125036</v>
       </c>
       <c r="J18">
-        <v>1.018394977873059</v>
+        <v>1.013349126023033</v>
       </c>
       <c r="K18">
-        <v>1.018394977873059</v>
+        <v>1.013349126023033</v>
       </c>
       <c r="L18">
-        <v>0.9933799580240864</v>
+        <v>0.9961549852824596</v>
       </c>
       <c r="M18">
-        <v>1.011711990880463</v>
+        <v>1.006448795133753</v>
       </c>
       <c r="N18">
-        <v>1.018394977873059</v>
+        <v>1.013349126023033</v>
       </c>
       <c r="O18">
-        <v>1.009136959565545</v>
+        <v>1.003509781121739</v>
       </c>
       <c r="P18">
-        <v>0.9889878563134467</v>
+        <v>0.9929489457555143</v>
       </c>
       <c r="Q18">
-        <v>1.001258458794816</v>
+        <v>0.9998323832020992</v>
       </c>
       <c r="R18">
-        <v>0.998790230166651</v>
+        <v>0.9997490058446871</v>
       </c>
       <c r="S18">
-        <v>0.9904518902169932</v>
+        <v>0.9940176255978294</v>
       </c>
       <c r="T18">
-        <v>0.998790230166651</v>
+        <v>0.9997490058446871</v>
       </c>
       <c r="U18">
-        <v>0.9974376621310098</v>
+        <v>0.9988505007041302</v>
       </c>
       <c r="V18">
-        <v>1.00162912527942</v>
+        <v>1.001750225767911</v>
       </c>
       <c r="W18">
-        <v>0.9978871893301259</v>
+        <v>0.9988797578658406</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.010754471337879</v>
+        <v>1.000081780141445</v>
       </c>
       <c r="D19">
-        <v>0.9654596141756133</v>
+        <v>0.9997100538592274</v>
       </c>
       <c r="E19">
-        <v>1.019298042228081</v>
+        <v>1.000176843831466</v>
       </c>
       <c r="F19">
-        <v>0.9654596141756133</v>
+        <v>0.9997100538592274</v>
       </c>
       <c r="G19">
-        <v>0.9944332004824343</v>
+        <v>0.9999479332617139</v>
       </c>
       <c r="H19">
-        <v>1.007462525446617</v>
+        <v>1.000067330191808</v>
       </c>
       <c r="I19">
-        <v>0.9778957017819528</v>
+        <v>0.9998130610290056</v>
       </c>
       <c r="J19">
-        <v>1.019298042228081</v>
+        <v>1.000176843831466</v>
       </c>
       <c r="K19">
-        <v>1.019298042228081</v>
+        <v>1.000176843831466</v>
       </c>
       <c r="L19">
-        <v>0.9926919211965731</v>
+        <v>0.9999382313991574</v>
       </c>
       <c r="M19">
-        <v>1.013053640970885</v>
+        <v>1.000108621140935</v>
       </c>
       <c r="N19">
-        <v>1.019298042228081</v>
+        <v>1.000176843831466</v>
       </c>
       <c r="O19">
-        <v>1.010754471337879</v>
+        <v>1.000081780141445</v>
       </c>
       <c r="P19">
-        <v>0.9881070427567461</v>
+        <v>0.9998959170003362</v>
       </c>
       <c r="Q19">
-        <v>1.001723196267226</v>
+        <v>1.000010005770301</v>
       </c>
       <c r="R19">
-        <v>0.9985040425805245</v>
+        <v>0.9999895592773793</v>
       </c>
       <c r="S19">
-        <v>0.9896353355700218</v>
+        <v>0.9999100217999434</v>
       </c>
       <c r="T19">
-        <v>0.9985040425805245</v>
+        <v>0.9999895592773793</v>
       </c>
       <c r="U19">
-        <v>0.9970510122345366</v>
+        <v>0.9999767273078238</v>
       </c>
       <c r="V19">
-        <v>1.001500418233246</v>
+        <v>1.000016750612552</v>
       </c>
       <c r="W19">
-        <v>0.9976311397025044</v>
+        <v>0.9999804818568448</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000009905976659</v>
+        <v>1.000222055922729</v>
       </c>
       <c r="D20">
-        <v>0.9999873745082714</v>
+        <v>0.999162230549966</v>
       </c>
       <c r="E20">
-        <v>1.000005786378026</v>
+        <v>1.000536170488716</v>
       </c>
       <c r="F20">
-        <v>0.9999873745082714</v>
+        <v>0.999162230549966</v>
       </c>
       <c r="G20">
-        <v>0.9999981531587262</v>
+        <v>0.9998404881970838</v>
       </c>
       <c r="H20">
-        <v>1.000000575990652</v>
+        <v>1.000202443423032</v>
       </c>
       <c r="I20">
-        <v>0.9999898528420864</v>
+        <v>0.9994574333216393</v>
       </c>
       <c r="J20">
-        <v>1.000005786378026</v>
+        <v>1.000536170488716</v>
       </c>
       <c r="K20">
-        <v>1.000005786378026</v>
+        <v>1.000536170488716</v>
       </c>
       <c r="L20">
-        <v>0.9999944263847027</v>
+        <v>0.9998207123317834</v>
       </c>
       <c r="M20">
-        <v>1.000007825752342</v>
+        <v>1.000312320516254</v>
       </c>
       <c r="N20">
-        <v>1.000005786378026</v>
+        <v>1.000536170488716</v>
       </c>
       <c r="O20">
-        <v>1.000009905976659</v>
+        <v>1.000222055922729</v>
       </c>
       <c r="P20">
-        <v>0.999998640242465</v>
+        <v>0.9996921432363477</v>
       </c>
       <c r="Q20">
-        <v>1.000002166180681</v>
+        <v>1.000021384127256</v>
       </c>
       <c r="R20">
-        <v>1.000001022287652</v>
+        <v>0.9999734856538037</v>
       </c>
       <c r="S20">
-        <v>0.9999972356232109</v>
+        <v>0.9997349996014929</v>
       </c>
       <c r="T20">
-        <v>1.000001022287652</v>
+        <v>0.9999734856538037</v>
       </c>
       <c r="U20">
-        <v>0.9999993733119146</v>
+        <v>0.9999352923232987</v>
       </c>
       <c r="V20">
-        <v>1.000000655925137</v>
+        <v>1.000055467956382</v>
       </c>
       <c r="W20">
-        <v>0.9999992376239331</v>
+        <v>0.9999442318439005</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000097391263521</v>
+        <v>1.000304122876394</v>
       </c>
       <c r="D21">
-        <v>0.9996846359744145</v>
+        <v>0.9987636949688231</v>
       </c>
       <c r="E21">
-        <v>1.000166158532811</v>
+        <v>1.00083299031402</v>
       </c>
       <c r="F21">
-        <v>0.9996846359744145</v>
+        <v>0.9987636949688231</v>
       </c>
       <c r="G21">
-        <v>0.9999531181658398</v>
+        <v>0.9997495771925452</v>
       </c>
       <c r="H21">
-        <v>1.000067145418381</v>
+        <v>1.00031182445659</v>
       </c>
       <c r="I21">
-        <v>0.9998018409415215</v>
+        <v>0.999195295397753</v>
       </c>
       <c r="J21">
-        <v>1.000166158532811</v>
+        <v>1.00083299031402</v>
       </c>
       <c r="K21">
-        <v>1.000166158532811</v>
+        <v>1.00083299031402</v>
       </c>
       <c r="L21">
-        <v>0.9999372204361757</v>
+        <v>0.9997340558186243</v>
       </c>
       <c r="M21">
-        <v>1.000116131786403</v>
+        <v>1.000458383105711</v>
       </c>
       <c r="N21">
-        <v>1.000166158532811</v>
+        <v>1.00083299031402</v>
       </c>
       <c r="O21">
-        <v>1.000097391263521</v>
+        <v>1.000304122876394</v>
       </c>
       <c r="P21">
-        <v>0.9998910136189679</v>
+        <v>0.9995339089226085</v>
       </c>
       <c r="Q21">
-        <v>1.000017305849848</v>
+        <v>1.000019089347509</v>
       </c>
       <c r="R21">
-        <v>0.9999827285902491</v>
+        <v>0.9999669360530792</v>
       </c>
       <c r="S21">
-        <v>0.9999064158913705</v>
+        <v>0.9996006245546137</v>
       </c>
       <c r="T21">
-        <v>0.9999827285902491</v>
+        <v>0.9999669360530792</v>
       </c>
       <c r="U21">
-        <v>0.9999713515517307</v>
+        <v>0.9999087159944655</v>
       </c>
       <c r="V21">
-        <v>1.000010312947947</v>
+        <v>1.000093570858376</v>
       </c>
       <c r="W21">
-        <v>0.9999779553148833</v>
+        <v>0.9999187430163075</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000179479295673</v>
+        <v>1.000665565658503</v>
       </c>
       <c r="D22">
-        <v>0.9990267791552156</v>
+        <v>0.9973933731379944</v>
       </c>
       <c r="E22">
-        <v>1.000788495703886</v>
+        <v>1.001712095156527</v>
       </c>
       <c r="F22">
-        <v>0.9990267791552156</v>
+        <v>0.9973933731379944</v>
       </c>
       <c r="G22">
-        <v>0.9997543143122811</v>
+        <v>0.9994879387984383</v>
       </c>
       <c r="H22">
-        <v>1.000282040567543</v>
+        <v>1.000643811443529</v>
       </c>
       <c r="I22">
-        <v>0.9993474644239118</v>
+        <v>0.9983078722067061</v>
       </c>
       <c r="J22">
-        <v>1.000788495703886</v>
+        <v>1.001712095156527</v>
       </c>
       <c r="K22">
-        <v>1.000788495703886</v>
+        <v>1.001712095156527</v>
       </c>
       <c r="L22">
-        <v>0.999777903739296</v>
+        <v>0.9994410569254987</v>
       </c>
       <c r="M22">
-        <v>1.000361347314297</v>
+        <v>1.000968778687117</v>
       </c>
       <c r="N22">
-        <v>1.000788495703886</v>
+        <v>1.001712095156527</v>
       </c>
       <c r="O22">
-        <v>1.000179479295673</v>
+        <v>1.000665565658503</v>
       </c>
       <c r="P22">
-        <v>0.9996031292254445</v>
+        <v>0.9990294693982487</v>
       </c>
       <c r="Q22">
-        <v>0.9999786915174846</v>
+        <v>1.000053311292001</v>
       </c>
       <c r="R22">
-        <v>0.999998251384925</v>
+        <v>0.9999236779843416</v>
       </c>
       <c r="S22">
-        <v>0.9996613873967283</v>
+        <v>0.9991666652406653</v>
       </c>
       <c r="T22">
-        <v>0.999998251384925</v>
+        <v>0.9999236779843416</v>
       </c>
       <c r="U22">
-        <v>0.9999431644735177</v>
+        <v>0.9998030227196308</v>
       </c>
       <c r="V22">
-        <v>1.000112230719591</v>
+        <v>1.00018483720701</v>
       </c>
       <c r="W22">
-        <v>0.999939728064013</v>
+        <v>0.9998275615017893</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.001067393415939</v>
+      </c>
+      <c r="D23">
+        <v>0.9955073871485032</v>
+      </c>
+      <c r="E23">
+        <v>1.003092953358263</v>
+      </c>
+      <c r="F23">
+        <v>0.9955073871485032</v>
+      </c>
+      <c r="G23">
+        <v>0.9990662801431001</v>
+      </c>
+      <c r="H23">
+        <v>1.001153972509511</v>
+      </c>
+      <c r="I23">
+        <v>0.9970696369477101</v>
+      </c>
+      <c r="J23">
+        <v>1.003092953358263</v>
+      </c>
+      <c r="K23">
+        <v>1.003092953358263</v>
+      </c>
+      <c r="L23">
+        <v>0.9990317266293943</v>
+      </c>
+      <c r="M23">
+        <v>1.001661441862887</v>
+      </c>
+      <c r="N23">
+        <v>1.003092953358263</v>
+      </c>
+      <c r="O23">
+        <v>1.001067393415939</v>
+      </c>
+      <c r="P23">
+        <v>0.9982873902822209</v>
+      </c>
+      <c r="Q23">
+        <v>1.000049560022666</v>
+      </c>
+      <c r="R23">
+        <v>0.9998892446409015</v>
+      </c>
+      <c r="S23">
+        <v>0.9985355023979454</v>
+      </c>
+      <c r="T23">
+        <v>0.9998892446409015</v>
+      </c>
+      <c r="U23">
+        <v>0.9996748651380247</v>
+      </c>
+      <c r="V23">
+        <v>1.000358482782072</v>
+      </c>
+      <c r="W23">
+        <v>0.9997063490019135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9755009089550444</v>
+      </c>
+      <c r="D24">
+        <v>1.058180098106829</v>
+      </c>
+      <c r="E24">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="F24">
+        <v>1.058180098106829</v>
+      </c>
+      <c r="G24">
+        <v>1.005313169491487</v>
+      </c>
+      <c r="H24">
+        <v>0.9909696585471111</v>
+      </c>
+      <c r="I24">
+        <v>1.036146256668458</v>
+      </c>
+      <c r="J24">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="K24">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="L24">
+        <v>1.011946030628777</v>
+      </c>
+      <c r="M24">
+        <v>0.9773273371671877</v>
+      </c>
+      <c r="N24">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="O24">
+        <v>0.9755009089550444</v>
+      </c>
+      <c r="P24">
+        <v>1.016840503530937</v>
+      </c>
+      <c r="Q24">
+        <v>0.9937234697919107</v>
+      </c>
+      <c r="R24">
+        <v>1.004155857915905</v>
+      </c>
+      <c r="S24">
+        <v>1.01520901256355</v>
+      </c>
+      <c r="T24">
+        <v>1.004155857915905</v>
+      </c>
+      <c r="U24">
+        <v>1.006103401094123</v>
+      </c>
+      <c r="V24">
+        <v>1.000640034212466</v>
+      </c>
+      <c r="W24">
+        <v>1.004271253281342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001660143329285</v>
+      </c>
+      <c r="D25">
+        <v>1.010255721180245</v>
+      </c>
+      <c r="E25">
+        <v>0.985804183976829</v>
+      </c>
+      <c r="F25">
+        <v>1.010255721180245</v>
+      </c>
+      <c r="G25">
+        <v>1.004695923658819</v>
+      </c>
+      <c r="H25">
+        <v>0.9951082105529874</v>
+      </c>
+      <c r="I25">
+        <v>1.007349716455098</v>
+      </c>
+      <c r="J25">
+        <v>0.985804183976829</v>
+      </c>
+      <c r="K25">
+        <v>0.985804183976829</v>
+      </c>
+      <c r="L25">
+        <v>1.002405040071198</v>
+      </c>
+      <c r="M25">
+        <v>0.9966756587618713</v>
+      </c>
+      <c r="N25">
+        <v>0.985804183976829</v>
+      </c>
+      <c r="O25">
+        <v>1.001660143329285</v>
+      </c>
+      <c r="P25">
+        <v>1.005957932254765</v>
+      </c>
+      <c r="Q25">
+        <v>1.002032591700242</v>
+      </c>
+      <c r="R25">
+        <v>0.99924001616212</v>
+      </c>
+      <c r="S25">
+        <v>1.004773634860243</v>
+      </c>
+      <c r="T25">
+        <v>0.9992400161621199</v>
+      </c>
+      <c r="U25">
+        <v>1.000031272139389</v>
+      </c>
+      <c r="V25">
+        <v>0.9971858545068774</v>
+      </c>
+      <c r="W25">
+        <v>1.000494324748292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.021117239570302</v>
+      </c>
+      <c r="D26">
+        <v>0.9845659933140668</v>
+      </c>
+      <c r="E26">
+        <v>0.9794887091682457</v>
+      </c>
+      <c r="F26">
+        <v>0.9845659933140668</v>
+      </c>
+      <c r="G26">
+        <v>1.008004846172068</v>
+      </c>
+      <c r="H26">
+        <v>0.9942555075230741</v>
+      </c>
+      <c r="I26">
+        <v>0.9929922349355044</v>
+      </c>
+      <c r="J26">
+        <v>0.9794887091682457</v>
+      </c>
+      <c r="K26">
+        <v>0.9794887091682457</v>
+      </c>
+      <c r="L26">
+        <v>0.9977622168072435</v>
+      </c>
+      <c r="M26">
+        <v>1.007509949369854</v>
+      </c>
+      <c r="N26">
+        <v>0.9794887091682457</v>
+      </c>
+      <c r="O26">
+        <v>1.021117239570302</v>
+      </c>
+      <c r="P26">
+        <v>1.002841616442185</v>
+      </c>
+      <c r="Q26">
+        <v>1.009439728188773</v>
+      </c>
+      <c r="R26">
+        <v>0.9950573140175383</v>
+      </c>
+      <c r="S26">
+        <v>1.001148483230538</v>
+      </c>
+      <c r="T26">
+        <v>0.9950573140175383</v>
+      </c>
+      <c r="U26">
+        <v>0.9957335397149646</v>
+      </c>
+      <c r="V26">
+        <v>0.9924845736056207</v>
+      </c>
+      <c r="W26">
+        <v>0.9982120871075447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9918608534276627</v>
+      </c>
+      <c r="D27">
+        <v>1.004383219576628</v>
+      </c>
+      <c r="E27">
+        <v>1.009744519650051</v>
+      </c>
+      <c r="F27">
+        <v>1.004383219576628</v>
+      </c>
+      <c r="G27">
+        <v>0.9963124663247968</v>
+      </c>
+      <c r="H27">
+        <v>1.002835311627709</v>
+      </c>
+      <c r="I27">
+        <v>1.001582356557554</v>
+      </c>
+      <c r="J27">
+        <v>1.009744519650051</v>
+      </c>
+      <c r="K27">
+        <v>1.009744519650051</v>
+      </c>
+      <c r="L27">
+        <v>1.000467907490345</v>
+      </c>
+      <c r="M27">
+        <v>0.9976712612833325</v>
+      </c>
+      <c r="N27">
+        <v>1.009744519650051</v>
+      </c>
+      <c r="O27">
+        <v>0.9918608534276627</v>
+      </c>
+      <c r="P27">
+        <v>0.9981220365021455</v>
+      </c>
+      <c r="Q27">
+        <v>0.9961643804590038</v>
+      </c>
+      <c r="R27">
+        <v>1.001996197551447</v>
+      </c>
+      <c r="S27">
+        <v>0.998903993498212</v>
+      </c>
+      <c r="T27">
+        <v>1.001996197551447</v>
+      </c>
+      <c r="U27">
+        <v>1.001614125036172</v>
+      </c>
+      <c r="V27">
+        <v>1.003240203958947</v>
+      </c>
+      <c r="W27">
+        <v>1.00060723699226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.012845060853547</v>
+      </c>
+      <c r="D28">
+        <v>0.9365130856123767</v>
+      </c>
+      <c r="E28">
+        <v>1.047751402658403</v>
+      </c>
+      <c r="F28">
+        <v>0.9365130856123767</v>
+      </c>
+      <c r="G28">
+        <v>0.9853476441847695</v>
+      </c>
+      <c r="H28">
+        <v>1.017558964957788</v>
+      </c>
+      <c r="I28">
+        <v>0.9581811191563055</v>
+      </c>
+      <c r="J28">
+        <v>1.047751402658403</v>
+      </c>
+      <c r="K28">
+        <v>1.047751402658403</v>
+      </c>
+      <c r="L28">
+        <v>0.9861602208410752</v>
+      </c>
+      <c r="M28">
+        <v>1.023260002336086</v>
+      </c>
+      <c r="N28">
+        <v>1.047751402658403</v>
+      </c>
+      <c r="O28">
+        <v>1.012845060853547</v>
+      </c>
+      <c r="P28">
+        <v>0.9746790732329619</v>
+      </c>
+      <c r="Q28">
+        <v>0.9995026408473111</v>
+      </c>
+      <c r="R28">
+        <v>0.9990365163747755</v>
+      </c>
+      <c r="S28">
+        <v>0.9785061224356664</v>
+      </c>
+      <c r="T28">
+        <v>0.9990365163747755</v>
+      </c>
+      <c r="U28">
+        <v>0.9958174424913504</v>
+      </c>
+      <c r="V28">
+        <v>1.006204234524761</v>
+      </c>
+      <c r="W28">
+        <v>0.9959521875750438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.011625725937068</v>
+      </c>
+      <c r="D29">
+        <v>0.9472885231855678</v>
+      </c>
+      <c r="E29">
+        <v>1.037936192245889</v>
+      </c>
+      <c r="F29">
+        <v>0.9472885231855678</v>
+      </c>
+      <c r="G29">
+        <v>0.9884503971538917</v>
+      </c>
+      <c r="H29">
+        <v>1.014044649378205</v>
+      </c>
+      <c r="I29">
+        <v>0.9654460624586328</v>
+      </c>
+      <c r="J29">
+        <v>1.037936192245889</v>
+      </c>
+      <c r="K29">
+        <v>1.037936192245889</v>
+      </c>
+      <c r="L29">
+        <v>0.9885677864142908</v>
+      </c>
+      <c r="M29">
+        <v>1.019412393095194</v>
+      </c>
+      <c r="N29">
+        <v>1.037936192245889</v>
+      </c>
+      <c r="O29">
+        <v>1.011625725937068</v>
+      </c>
+      <c r="P29">
+        <v>0.9794571245613179</v>
+      </c>
+      <c r="Q29">
+        <v>1.00009675617568</v>
+      </c>
+      <c r="R29">
+        <v>0.9989501471228417</v>
+      </c>
+      <c r="S29">
+        <v>0.9824940118456422</v>
+      </c>
+      <c r="T29">
+        <v>0.9989501471228417</v>
+      </c>
+      <c r="U29">
+        <v>0.996354556945704</v>
+      </c>
+      <c r="V29">
+        <v>1.004670884005741</v>
+      </c>
+      <c r="W29">
+        <v>0.9965964662335924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.009136959565545</v>
+      </c>
+      <c r="D30">
+        <v>0.9688387530613484</v>
+      </c>
+      <c r="E30">
+        <v>1.018394977873059</v>
+      </c>
+      <c r="F30">
+        <v>0.9688387530613484</v>
+      </c>
+      <c r="G30">
+        <v>0.9946238300408082</v>
+      </c>
+      <c r="H30">
+        <v>1.007044029476768</v>
+      </c>
+      <c r="I30">
+        <v>0.9799670157189281</v>
+      </c>
+      <c r="J30">
+        <v>1.018394977873059</v>
+      </c>
+      <c r="K30">
+        <v>1.018394977873059</v>
+      </c>
+      <c r="L30">
+        <v>0.9933799580240864</v>
+      </c>
+      <c r="M30">
+        <v>1.011711990880463</v>
+      </c>
+      <c r="N30">
+        <v>1.018394977873059</v>
+      </c>
+      <c r="O30">
+        <v>1.009136959565545</v>
+      </c>
+      <c r="P30">
+        <v>0.9889878563134467</v>
+      </c>
+      <c r="Q30">
+        <v>1.001258458794816</v>
+      </c>
+      <c r="R30">
+        <v>0.998790230166651</v>
+      </c>
+      <c r="S30">
+        <v>0.9904518902169932</v>
+      </c>
+      <c r="T30">
+        <v>0.998790230166651</v>
+      </c>
+      <c r="U30">
+        <v>0.9974376621310098</v>
+      </c>
+      <c r="V30">
+        <v>1.00162912527942</v>
+      </c>
+      <c r="W30">
+        <v>0.9978871893301259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.010754471337879</v>
+      </c>
+      <c r="D31">
+        <v>0.9654596141756133</v>
+      </c>
+      <c r="E31">
+        <v>1.019298042228081</v>
+      </c>
+      <c r="F31">
+        <v>0.9654596141756133</v>
+      </c>
+      <c r="G31">
+        <v>0.9944332004824343</v>
+      </c>
+      <c r="H31">
+        <v>1.007462525446617</v>
+      </c>
+      <c r="I31">
+        <v>0.9778957017819528</v>
+      </c>
+      <c r="J31">
+        <v>1.019298042228081</v>
+      </c>
+      <c r="K31">
+        <v>1.019298042228081</v>
+      </c>
+      <c r="L31">
+        <v>0.9926919211965731</v>
+      </c>
+      <c r="M31">
+        <v>1.013053640970885</v>
+      </c>
+      <c r="N31">
+        <v>1.019298042228081</v>
+      </c>
+      <c r="O31">
+        <v>1.010754471337879</v>
+      </c>
+      <c r="P31">
+        <v>0.9881070427567461</v>
+      </c>
+      <c r="Q31">
+        <v>1.001723196267226</v>
+      </c>
+      <c r="R31">
+        <v>0.9985040425805245</v>
+      </c>
+      <c r="S31">
+        <v>0.9896353355700218</v>
+      </c>
+      <c r="T31">
+        <v>0.9985040425805245</v>
+      </c>
+      <c r="U31">
+        <v>0.9970510122345366</v>
+      </c>
+      <c r="V31">
+        <v>1.001500418233246</v>
+      </c>
+      <c r="W31">
+        <v>0.9976311397025044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.014545136438356</v>
+      </c>
+      <c r="D32">
+        <v>0.92196636</v>
+      </c>
+      <c r="E32">
+        <v>1.060892197534246</v>
+      </c>
+      <c r="F32">
+        <v>0.92196636</v>
+      </c>
+      <c r="G32">
+        <v>0.9811988226027401</v>
+      </c>
+      <c r="H32">
+        <v>1.022271553972603</v>
+      </c>
+      <c r="I32">
+        <v>0.9483873991780817</v>
+      </c>
+      <c r="J32">
+        <v>1.060892197534246</v>
+      </c>
+      <c r="K32">
+        <v>1.060892197534246</v>
+      </c>
+      <c r="L32">
+        <v>0.9829180372602743</v>
+      </c>
+      <c r="M32">
+        <v>1.028456361369863</v>
+      </c>
+      <c r="N32">
+        <v>1.060892197534246</v>
+      </c>
+      <c r="O32">
+        <v>1.014545136438356</v>
+      </c>
+      <c r="P32">
+        <v>0.9682557482191783</v>
+      </c>
+      <c r="Q32">
+        <v>0.9987315868493154</v>
+      </c>
+      <c r="R32">
+        <v>0.9991345646575343</v>
+      </c>
+      <c r="S32">
+        <v>0.9731431778995435</v>
+      </c>
+      <c r="T32">
+        <v>0.9991345646575341</v>
+      </c>
+      <c r="U32">
+        <v>0.9950804328082191</v>
+      </c>
+      <c r="V32">
+        <v>1.008242785753425</v>
+      </c>
+      <c r="W32">
+        <v>0.9950794835445205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.049768821052631</v>
+      </c>
+      <c r="D33">
+        <v>0.8469808331578949</v>
+      </c>
+      <c r="E33">
+        <v>1.081473291052632</v>
+      </c>
+      <c r="F33">
+        <v>0.8469808331578949</v>
+      </c>
+      <c r="G33">
+        <v>0.9767923973684209</v>
+      </c>
+      <c r="H33">
+        <v>1.031849348421053</v>
+      </c>
+      <c r="I33">
+        <v>0.9025228831578948</v>
+      </c>
+      <c r="J33">
+        <v>1.081473291052632</v>
+      </c>
+      <c r="K33">
+        <v>1.081473291052632</v>
+      </c>
+      <c r="L33">
+        <v>0.9678363342105262</v>
+      </c>
+      <c r="M33">
+        <v>1.057989831578948</v>
+      </c>
+      <c r="N33">
+        <v>1.081473291052632</v>
+      </c>
+      <c r="O33">
+        <v>1.049768821052631</v>
+      </c>
+      <c r="P33">
+        <v>0.9483748271052632</v>
+      </c>
+      <c r="Q33">
+        <v>1.008802577631579</v>
+      </c>
+      <c r="R33">
+        <v>0.9927409817543861</v>
+      </c>
+      <c r="S33">
+        <v>0.9548619961403508</v>
+      </c>
+      <c r="T33">
+        <v>0.9927409817543861</v>
+      </c>
+      <c r="U33">
+        <v>0.986514819868421</v>
+      </c>
+      <c r="V33">
+        <v>1.005506514105263</v>
+      </c>
+      <c r="W33">
+        <v>0.9894017175000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.03613862</v>
+      </c>
+      <c r="D34">
+        <v>0.8595418363157895</v>
+      </c>
+      <c r="E34">
+        <v>1.092790459473684</v>
+      </c>
+      <c r="F34">
+        <v>0.8595418363157895</v>
+      </c>
+      <c r="G34">
+        <v>0.9721857605263157</v>
+      </c>
+      <c r="H34">
+        <v>1.034667141052631</v>
+      </c>
+      <c r="I34">
+        <v>0.908528302105263</v>
+      </c>
+      <c r="J34">
+        <v>1.092790459473684</v>
+      </c>
+      <c r="K34">
+        <v>1.092790459473684</v>
+      </c>
+      <c r="L34">
+        <v>0.9695415836842104</v>
+      </c>
+      <c r="M34">
+        <v>1.052496317368421</v>
+      </c>
+      <c r="N34">
+        <v>1.092790459473684</v>
+      </c>
+      <c r="O34">
+        <v>1.03613862</v>
+      </c>
+      <c r="P34">
+        <v>0.9478402281578946</v>
+      </c>
+      <c r="Q34">
+        <v>1.002840101842105</v>
+      </c>
+      <c r="R34">
+        <v>0.9961569719298243</v>
+      </c>
+      <c r="S34">
+        <v>0.9550740133333332</v>
+      </c>
+      <c r="T34">
+        <v>0.9961569719298243</v>
+      </c>
+      <c r="U34">
+        <v>0.9895031248684208</v>
+      </c>
+      <c r="V34">
+        <v>1.010160591789474</v>
+      </c>
+      <c r="W34">
+        <v>0.9907362525657893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.038960670705558</v>
+      </c>
+      <c r="D35">
+        <v>0.8760540280245099</v>
+      </c>
+      <c r="E35">
+        <v>1.06856471953119</v>
+      </c>
+      <c r="F35">
+        <v>0.8760540280245099</v>
+      </c>
+      <c r="G35">
+        <v>0.980271361683045</v>
+      </c>
+      <c r="H35">
+        <v>1.026570176858849</v>
+      </c>
+      <c r="I35">
+        <v>0.9207537025341724</v>
+      </c>
+      <c r="J35">
+        <v>1.06856471953119</v>
+      </c>
+      <c r="K35">
+        <v>1.06856471953119</v>
+      </c>
+      <c r="L35">
+        <v>0.9738077946934404</v>
+      </c>
+      <c r="M35">
+        <v>1.046873314246088</v>
+      </c>
+      <c r="N35">
+        <v>1.06856471953119</v>
+      </c>
+      <c r="O35">
+        <v>1.038960670705558</v>
+      </c>
+      <c r="P35">
+        <v>0.957507349365034</v>
+      </c>
+      <c r="Q35">
+        <v>1.006384232699499</v>
+      </c>
+      <c r="R35">
+        <v>0.9945264727537527</v>
+      </c>
+      <c r="S35">
+        <v>0.9629408311411695</v>
+      </c>
+      <c r="T35">
+        <v>0.9945264727537527</v>
+      </c>
+      <c r="U35">
+        <v>0.9893468032386746</v>
+      </c>
+      <c r="V35">
+        <v>1.005190386497178</v>
+      </c>
+      <c r="W35">
+        <v>0.9914819710346067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000009905976659</v>
+      </c>
+      <c r="D36">
+        <v>0.9999873745082714</v>
+      </c>
+      <c r="E36">
+        <v>1.000005786378026</v>
+      </c>
+      <c r="F36">
+        <v>0.9999873745082714</v>
+      </c>
+      <c r="G36">
+        <v>0.9999981531587262</v>
+      </c>
+      <c r="H36">
+        <v>1.000000575990652</v>
+      </c>
+      <c r="I36">
+        <v>0.9999898528420864</v>
+      </c>
+      <c r="J36">
+        <v>1.000005786378026</v>
+      </c>
+      <c r="K36">
+        <v>1.000005786378026</v>
+      </c>
+      <c r="L36">
+        <v>0.9999944263847027</v>
+      </c>
+      <c r="M36">
+        <v>1.000007825752342</v>
+      </c>
+      <c r="N36">
+        <v>1.000005786378026</v>
+      </c>
+      <c r="O36">
+        <v>1.000009905976659</v>
+      </c>
+      <c r="P36">
+        <v>0.999998640242465</v>
+      </c>
+      <c r="Q36">
+        <v>1.000002166180681</v>
+      </c>
+      <c r="R36">
+        <v>1.000001022287652</v>
+      </c>
+      <c r="S36">
+        <v>0.9999972356232109</v>
+      </c>
+      <c r="T36">
+        <v>1.000001022287652</v>
+      </c>
+      <c r="U36">
+        <v>0.9999993733119146</v>
+      </c>
+      <c r="V36">
+        <v>1.000000655925137</v>
+      </c>
+      <c r="W36">
+        <v>0.9999992376239331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000097391263521</v>
+      </c>
+      <c r="D37">
+        <v>0.9996846359744145</v>
+      </c>
+      <c r="E37">
+        <v>1.000166158532811</v>
+      </c>
+      <c r="F37">
+        <v>0.9996846359744145</v>
+      </c>
+      <c r="G37">
+        <v>0.9999531181658398</v>
+      </c>
+      <c r="H37">
+        <v>1.000067145418381</v>
+      </c>
+      <c r="I37">
+        <v>0.9998018409415215</v>
+      </c>
+      <c r="J37">
+        <v>1.000166158532811</v>
+      </c>
+      <c r="K37">
+        <v>1.000166158532811</v>
+      </c>
+      <c r="L37">
+        <v>0.9999372204361757</v>
+      </c>
+      <c r="M37">
+        <v>1.000116131786403</v>
+      </c>
+      <c r="N37">
+        <v>1.000166158532811</v>
+      </c>
+      <c r="O37">
+        <v>1.000097391263521</v>
+      </c>
+      <c r="P37">
+        <v>0.9998910136189679</v>
+      </c>
+      <c r="Q37">
+        <v>1.000017305849848</v>
+      </c>
+      <c r="R37">
+        <v>0.9999827285902491</v>
+      </c>
+      <c r="S37">
+        <v>0.9999064158913705</v>
+      </c>
+      <c r="T37">
+        <v>0.9999827285902491</v>
+      </c>
+      <c r="U37">
+        <v>0.9999713515517307</v>
+      </c>
+      <c r="V37">
+        <v>1.000010312947947</v>
+      </c>
+      <c r="W37">
+        <v>0.9999779553148833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000179479295673</v>
+      </c>
+      <c r="D38">
+        <v>0.9990267791552156</v>
+      </c>
+      <c r="E38">
+        <v>1.000788495703886</v>
+      </c>
+      <c r="F38">
+        <v>0.9990267791552156</v>
+      </c>
+      <c r="G38">
+        <v>0.9997543143122811</v>
+      </c>
+      <c r="H38">
+        <v>1.000282040567543</v>
+      </c>
+      <c r="I38">
+        <v>0.9993474644239118</v>
+      </c>
+      <c r="J38">
+        <v>1.000788495703886</v>
+      </c>
+      <c r="K38">
+        <v>1.000788495703886</v>
+      </c>
+      <c r="L38">
+        <v>0.999777903739296</v>
+      </c>
+      <c r="M38">
+        <v>1.000361347314297</v>
+      </c>
+      <c r="N38">
+        <v>1.000788495703886</v>
+      </c>
+      <c r="O38">
+        <v>1.000179479295673</v>
+      </c>
+      <c r="P38">
+        <v>0.9996031292254445</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999786915174846</v>
+      </c>
+      <c r="R38">
+        <v>0.999998251384925</v>
+      </c>
+      <c r="S38">
+        <v>0.9996613873967283</v>
+      </c>
+      <c r="T38">
+        <v>0.999998251384925</v>
+      </c>
+      <c r="U38">
+        <v>0.9999431644735177</v>
+      </c>
+      <c r="V38">
+        <v>1.000112230719591</v>
+      </c>
+      <c r="W38">
+        <v>0.999939728064013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000300067361844</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9978240189498121</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.001999176473146</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9978240189498121</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9993640297918749</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000693866107485</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9985048464093996</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.001999176473146</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.001999176473146</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9994777348348095</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000811871054381</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.001999176473146</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000300067361844</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9990620431558279</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9998889010983267</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000041087594934</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9992006070488219</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000041087594934</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999002494049029</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000320034818551</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.999871951372844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.012507330223693</v>
+      </c>
+      <c r="D40">
+        <v>0.9499858034762961</v>
+      </c>
+      <c r="E40">
+        <v>1.033572194911417</v>
+      </c>
+      <c r="F40">
+        <v>0.9499858034762961</v>
+      </c>
+      <c r="G40">
+        <v>0.9899077787048756</v>
+      </c>
+      <c r="H40">
+        <v>1.012530961270961</v>
+      </c>
+      <c r="I40">
+        <v>0.9674028603408299</v>
+      </c>
+      <c r="J40">
+        <v>1.033572194911417</v>
+      </c>
+      <c r="K40">
+        <v>1.033572194911417</v>
+      </c>
+      <c r="L40">
+        <v>0.9891710764105752</v>
+      </c>
+      <c r="M40">
+        <v>1.018626422345349</v>
+      </c>
+      <c r="N40">
+        <v>1.033572194911417</v>
+      </c>
+      <c r="O40">
+        <v>1.012507330223693</v>
+      </c>
+      <c r="P40">
+        <v>0.9812465668499948</v>
+      </c>
+      <c r="Q40">
+        <v>1.000839203317134</v>
+      </c>
+      <c r="R40">
+        <v>0.9986884428704691</v>
+      </c>
+      <c r="S40">
+        <v>0.9838880700368549</v>
+      </c>
+      <c r="T40">
+        <v>0.9986884428704691</v>
+      </c>
+      <c r="U40">
+        <v>0.9963091012554957</v>
+      </c>
+      <c r="V40">
+        <v>1.00376171998668</v>
+      </c>
+      <c r="W40">
+        <v>0.9967130534604998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9924679472187613</v>
+      </c>
+      <c r="D41">
+        <v>1.026100956665823</v>
+      </c>
+      <c r="E41">
+        <v>0.9844276904719945</v>
+      </c>
+      <c r="F41">
+        <v>1.026100956665823</v>
+      </c>
+      <c r="G41">
+        <v>1.004560887338481</v>
+      </c>
+      <c r="H41">
+        <v>0.9940389046466045</v>
+      </c>
+      <c r="I41">
+        <v>1.016783925728374</v>
+      </c>
+      <c r="J41">
+        <v>0.9844276904719945</v>
+      </c>
+      <c r="K41">
+        <v>0.9844276904719945</v>
+      </c>
+      <c r="L41">
+        <v>1.005534558135087</v>
+      </c>
+      <c r="M41">
+        <v>0.9902158337900236</v>
+      </c>
+      <c r="N41">
+        <v>0.9844276904719945</v>
+      </c>
+      <c r="O41">
+        <v>0.9924679472187613</v>
+      </c>
+      <c r="P41">
+        <v>1.009284451942292</v>
+      </c>
+      <c r="Q41">
+        <v>0.9990012526769241</v>
+      </c>
+      <c r="R41">
+        <v>1.000998864785526</v>
+      </c>
+      <c r="S41">
+        <v>1.008034487339891</v>
+      </c>
+      <c r="T41">
+        <v>1.000998864785526</v>
+      </c>
+      <c r="U41">
+        <v>1.002132788122917</v>
+      </c>
+      <c r="V41">
+        <v>0.9985917685927321</v>
+      </c>
+      <c r="W41">
+        <v>1.001766337999394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.014679009311058</v>
+      </c>
+      <c r="D42">
+        <v>0.9538987250781686</v>
+      </c>
+      <c r="E42">
+        <v>1.025175340845224</v>
+      </c>
+      <c r="F42">
+        <v>0.9538987250781686</v>
+      </c>
+      <c r="G42">
+        <v>0.992779552657398</v>
+      </c>
+      <c r="H42">
+        <v>1.009779231533201</v>
+      </c>
+      <c r="I42">
+        <v>0.9705549079934276</v>
+      </c>
+      <c r="J42">
+        <v>1.025175340845224</v>
+      </c>
+      <c r="K42">
+        <v>1.025175340845224</v>
+      </c>
+      <c r="L42">
+        <v>0.9902668616091239</v>
+      </c>
+      <c r="M42">
+        <v>1.017455801164078</v>
+      </c>
+      <c r="N42">
+        <v>1.025175340845224</v>
+      </c>
+      <c r="O42">
+        <v>1.014679009311058</v>
+      </c>
+      <c r="P42">
+        <v>0.9842888671946135</v>
+      </c>
+      <c r="Q42">
+        <v>1.002472935460091</v>
+      </c>
+      <c r="R42">
+        <v>0.9979176917448171</v>
+      </c>
+      <c r="S42">
+        <v>0.9862815319994503</v>
+      </c>
+      <c r="T42">
+        <v>0.9979176917448171</v>
+      </c>
+      <c r="U42">
+        <v>0.9960049842108938</v>
+      </c>
+      <c r="V42">
+        <v>1.00183905553776</v>
+      </c>
+      <c r="W42">
+        <v>0.9968236787739599</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002474292090572</v>
+        <v>1.000222055922729</v>
       </c>
       <c r="D3">
-        <v>0.9967619853728887</v>
+        <v>0.999162230549966</v>
       </c>
       <c r="E3">
-        <v>1.000633810793429</v>
+        <v>1.000536170488716</v>
       </c>
       <c r="F3">
-        <v>1.002474292090572</v>
+        <v>0.999162230549966</v>
       </c>
       <c r="G3">
-        <v>0.9992925270678344</v>
+        <v>0.9998404881970838</v>
       </c>
       <c r="H3">
-        <v>1.00118433012796</v>
+        <v>1.000202443423032</v>
       </c>
       <c r="I3">
-        <v>1.002474292090572</v>
+        <v>0.9994574333216393</v>
       </c>
       <c r="J3">
-        <v>0.9967619853728887</v>
+        <v>1.000536170488716</v>
       </c>
       <c r="K3">
-        <v>0.9992386820091478</v>
+        <v>1.000536170488716</v>
       </c>
       <c r="L3">
-        <v>1.000907518293582</v>
+        <v>0.9998207123317834</v>
       </c>
       <c r="M3">
-        <v>0.9978631176104515</v>
+        <v>1.000312320516254</v>
       </c>
       <c r="N3">
-        <v>1.002474292090572</v>
+        <v>1.000536170488716</v>
       </c>
       <c r="O3">
-        <v>1.000633810793429</v>
+        <v>1.000222055922729</v>
       </c>
       <c r="P3">
-        <v>0.9986978980831591</v>
+        <v>0.9996921432363477</v>
       </c>
       <c r="Q3">
-        <v>0.9999631689306319</v>
+        <v>1.000021384127256</v>
       </c>
       <c r="R3">
-        <v>0.9999566960856301</v>
+        <v>0.9999734856538037</v>
       </c>
       <c r="S3">
-        <v>0.9988961077447175</v>
+        <v>0.9997349996014929</v>
       </c>
       <c r="T3">
-        <v>0.9999566960856301</v>
+        <v>0.9999734856538037</v>
       </c>
       <c r="U3">
-        <v>0.9997906538311812</v>
+        <v>0.9999352923232987</v>
       </c>
       <c r="V3">
-        <v>1.000327381483059</v>
+        <v>1.000055467956382</v>
       </c>
       <c r="W3">
-        <v>0.9997945329207332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999442318439005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004771519823999</v>
+        <v>1.012507330223693</v>
       </c>
       <c r="D4">
-        <v>0.9937453478218931</v>
+        <v>0.9499858034762961</v>
       </c>
       <c r="E4">
-        <v>1.001227345336239</v>
+        <v>1.033572194911417</v>
       </c>
       <c r="F4">
-        <v>1.004771519823999</v>
+        <v>0.9499858034762961</v>
       </c>
       <c r="G4">
-        <v>0.9986344678590158</v>
+        <v>0.9899077787048756</v>
       </c>
       <c r="H4">
-        <v>1.002287369143447</v>
+        <v>1.012530961270961</v>
       </c>
       <c r="I4">
-        <v>1.004771519823999</v>
+        <v>0.9674028603408299</v>
       </c>
       <c r="J4">
-        <v>0.9937453478218931</v>
+        <v>1.033572194911417</v>
       </c>
       <c r="K4">
-        <v>0.9985323285442554</v>
+        <v>1.033572194911417</v>
       </c>
       <c r="L4">
-        <v>1.001750986639747</v>
+        <v>0.9891710764105752</v>
       </c>
       <c r="M4">
-        <v>0.9958736778006039</v>
+        <v>1.018626422345349</v>
       </c>
       <c r="N4">
-        <v>1.004771519823999</v>
+        <v>1.033572194911417</v>
       </c>
       <c r="O4">
-        <v>1.001227345336239</v>
+        <v>1.012507330223693</v>
       </c>
       <c r="P4">
-        <v>0.9974863465790662</v>
+        <v>0.9812465668499948</v>
       </c>
       <c r="Q4">
-        <v>0.9999309065976275</v>
+        <v>1.000839203317134</v>
       </c>
       <c r="R4">
-        <v>0.9999147376607104</v>
+        <v>0.9986884428704691</v>
       </c>
       <c r="S4">
-        <v>0.9978690536723827</v>
+        <v>0.9838880700368549</v>
       </c>
       <c r="T4">
-        <v>0.9999147376607104</v>
+        <v>0.9986884428704691</v>
       </c>
       <c r="U4">
-        <v>0.9995946702102867</v>
+        <v>0.9963091012554957</v>
       </c>
       <c r="V4">
-        <v>1.000630040133029</v>
+        <v>1.00376171998668</v>
       </c>
       <c r="W4">
-        <v>0.99960288037115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9967130534604998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00911345158638</v>
+        <v>1.011064772031698</v>
       </c>
       <c r="D5">
-        <v>0.9879976854080695</v>
+        <v>0.9621732905907758</v>
       </c>
       <c r="E5">
-        <v>1.002381170145861</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="F5">
-        <v>1.00911345158638</v>
+        <v>0.9621732905907758</v>
       </c>
       <c r="G5">
-        <v>0.9973800194492911</v>
+        <v>0.9934503872334278</v>
       </c>
       <c r="H5">
-        <v>1.004392913584672</v>
+        <v>1.008567614106624</v>
       </c>
       <c r="I5">
-        <v>1.00911345158638</v>
+        <v>0.9756718169020194</v>
       </c>
       <c r="J5">
-        <v>0.9879976854080695</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="K5">
-        <v>0.9971989366654763</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="L5">
-        <v>1.00334603495583</v>
+        <v>0.9919565412896264</v>
       </c>
       <c r="M5">
-        <v>0.9920852174378435</v>
+        <v>1.014218712917867</v>
       </c>
       <c r="N5">
-        <v>1.00911345158638</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="O5">
-        <v>1.002381170145861</v>
+        <v>1.011064772031698</v>
       </c>
       <c r="P5">
-        <v>0.9951894277769655</v>
+        <v>0.9866190313112371</v>
       </c>
       <c r="Q5">
-        <v>0.9998805947975762</v>
+        <v>1.001510656660662</v>
       </c>
       <c r="R5">
-        <v>0.9998307690467702</v>
+        <v>0.9985438779034576</v>
       </c>
       <c r="S5">
-        <v>0.9959196250010741</v>
+        <v>0.9883982013040336</v>
       </c>
       <c r="T5">
-        <v>0.9998307690467702</v>
+        <v>0.9985438779034576</v>
       </c>
       <c r="U5">
-        <v>0.9992180816474004</v>
+        <v>0.9968970437499998</v>
       </c>
       <c r="V5">
-        <v>1.001197155635196</v>
+        <v>1.00199634921758</v>
       </c>
       <c r="W5">
-        <v>0.999236928654178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9974370882699922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.013349126023033</v>
+        <v>1.038960670705558</v>
       </c>
       <c r="D6">
-        <v>0.9823881103892899</v>
+        <v>0.8760540280245099</v>
       </c>
       <c r="E6">
-        <v>1.003509781121739</v>
+        <v>1.06856471953119</v>
       </c>
       <c r="F6">
-        <v>1.013349126023033</v>
+        <v>0.8760540280245099</v>
       </c>
       <c r="G6">
-        <v>0.9961549852824596</v>
+        <v>0.980271361683045</v>
       </c>
       <c r="H6">
-        <v>1.006448795133753</v>
+        <v>1.026570176858849</v>
       </c>
       <c r="I6">
-        <v>1.013349126023033</v>
+        <v>0.9207537025341724</v>
       </c>
       <c r="J6">
-        <v>0.9823881103892899</v>
+        <v>1.06856471953119</v>
       </c>
       <c r="K6">
-        <v>0.9958982138115178</v>
+        <v>1.06856471953119</v>
       </c>
       <c r="L6">
-        <v>1.00490168275243</v>
+        <v>0.9738077946934404</v>
       </c>
       <c r="M6">
-        <v>0.9883873684125036</v>
+        <v>1.046873314246088</v>
       </c>
       <c r="N6">
-        <v>1.013349126023033</v>
+        <v>1.06856471953119</v>
       </c>
       <c r="O6">
-        <v>1.003509781121739</v>
+        <v>1.038960670705558</v>
       </c>
       <c r="P6">
-        <v>0.9929489457555143</v>
+        <v>0.957507349365034</v>
       </c>
       <c r="Q6">
-        <v>0.9998323832020992</v>
+        <v>1.006384232699499</v>
       </c>
       <c r="R6">
-        <v>0.9997490058446871</v>
+        <v>0.9945264727537527</v>
       </c>
       <c r="S6">
-        <v>0.9940176255978294</v>
+        <v>0.9629408311411695</v>
       </c>
       <c r="T6">
-        <v>0.9997490058446873</v>
+        <v>0.9945264727537527</v>
       </c>
       <c r="U6">
-        <v>0.9988505007041304</v>
+        <v>0.9893468032386746</v>
       </c>
       <c r="V6">
-        <v>1.001750225767911</v>
+        <v>1.005190386497178</v>
       </c>
       <c r="W6">
-        <v>0.9988797578658407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9914819710346067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000176843831466</v>
+        <v>1.00070994814179</v>
       </c>
       <c r="D7">
-        <v>0.9997100538592272</v>
+        <v>0.9960987105298313</v>
       </c>
       <c r="E7">
-        <v>1.000081780141445</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="F7">
-        <v>1.000176843831466</v>
+        <v>0.9960987105298313</v>
       </c>
       <c r="G7">
-        <v>0.9999382313991575</v>
+        <v>0.999048260184251</v>
       </c>
       <c r="H7">
-        <v>1.000108621140935</v>
+        <v>1.001123279117793</v>
       </c>
       <c r="I7">
-        <v>1.000176843831466</v>
+        <v>0.9974160087317306</v>
       </c>
       <c r="J7">
-        <v>0.9997100538592272</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="K7">
-        <v>0.9999479332617138</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="L7">
-        <v>1.000067330191808</v>
+        <v>0.9991442823997503</v>
       </c>
       <c r="M7">
-        <v>0.9998130610290056</v>
+        <v>1.001421365394656</v>
       </c>
       <c r="N7">
-        <v>1.000176843831466</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="O7">
-        <v>1.000081780141445</v>
+        <v>1.00070994814179</v>
       </c>
       <c r="P7">
-        <v>0.9998959170003361</v>
+        <v>0.9984043293358109</v>
       </c>
       <c r="Q7">
-        <v>1.000010005770301</v>
+        <v>0.9999271152707704</v>
       </c>
       <c r="R7">
-        <v>0.9999895592773793</v>
+        <v>0.9999618404775962</v>
       </c>
       <c r="S7">
-        <v>0.9999100217999431</v>
+        <v>0.998650980357124</v>
       </c>
       <c r="T7">
-        <v>0.9999895592773793</v>
+        <v>0.9999618404775962</v>
       </c>
       <c r="U7">
-        <v>0.9999767273078238</v>
+        <v>0.9997574509581346</v>
       </c>
       <c r="V7">
-        <v>1.000016750612552</v>
+        <v>1.000421333318741</v>
       </c>
       <c r="W7">
-        <v>0.9999804818568447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9997548396576212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000536170488716</v>
+        <v>1.000097391263521</v>
       </c>
       <c r="D8">
-        <v>0.9991622305499659</v>
+        <v>0.9996846359744145</v>
       </c>
       <c r="E8">
-        <v>1.000222055922729</v>
+        <v>1.000166158532811</v>
       </c>
       <c r="F8">
-        <v>1.000536170488716</v>
+        <v>0.9996846359744145</v>
       </c>
       <c r="G8">
-        <v>0.9998207123317834</v>
+        <v>0.9999531181658398</v>
       </c>
       <c r="H8">
-        <v>1.000312320516254</v>
+        <v>1.000067145418381</v>
       </c>
       <c r="I8">
-        <v>1.000536170488716</v>
+        <v>0.9998018409415215</v>
       </c>
       <c r="J8">
-        <v>0.9991622305499659</v>
+        <v>1.000166158532811</v>
       </c>
       <c r="K8">
-        <v>0.9998404881970838</v>
+        <v>1.000166158532811</v>
       </c>
       <c r="L8">
-        <v>1.000202443423032</v>
+        <v>0.9999372204361757</v>
       </c>
       <c r="M8">
-        <v>0.9994574333216393</v>
+        <v>1.000116131786403</v>
       </c>
       <c r="N8">
-        <v>1.000536170488716</v>
+        <v>1.000166158532811</v>
       </c>
       <c r="O8">
-        <v>1.000222055922729</v>
+        <v>1.000097391263521</v>
       </c>
       <c r="P8">
-        <v>0.9996921432363476</v>
+        <v>0.9998910136189679</v>
       </c>
       <c r="Q8">
-        <v>1.000021384127256</v>
+        <v>1.000017305849848</v>
       </c>
       <c r="R8">
-        <v>0.9999734856538037</v>
+        <v>0.9999827285902491</v>
       </c>
       <c r="S8">
-        <v>0.9997349996014928</v>
+        <v>0.9999064158913705</v>
       </c>
       <c r="T8">
-        <v>0.9999734856538037</v>
+        <v>0.9999827285902491</v>
       </c>
       <c r="U8">
-        <v>0.9999352923232987</v>
+        <v>0.9999713515517307</v>
       </c>
       <c r="V8">
-        <v>1.000055467956382</v>
+        <v>1.000010312947947</v>
       </c>
       <c r="W8">
-        <v>0.9999442318439005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999779553148833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00083299031402</v>
+        <v>1.001227345336239</v>
       </c>
       <c r="D9">
-        <v>0.9987636949688231</v>
+        <v>0.9937453478218931</v>
       </c>
       <c r="E9">
-        <v>1.000304122876394</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="F9">
-        <v>1.00083299031402</v>
+        <v>0.9937453478218931</v>
       </c>
       <c r="G9">
-        <v>0.9997340558186243</v>
+        <v>0.9985323285442554</v>
       </c>
       <c r="H9">
-        <v>1.000458383105711</v>
+        <v>1.001750986639747</v>
       </c>
       <c r="I9">
-        <v>1.00083299031402</v>
+        <v>0.9958736778006039</v>
       </c>
       <c r="J9">
-        <v>0.9987636949688231</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="K9">
-        <v>0.9997495771925452</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="L9">
-        <v>1.00031182445659</v>
+        <v>0.9986344678590158</v>
       </c>
       <c r="M9">
-        <v>0.999195295397753</v>
+        <v>1.002287369143447</v>
       </c>
       <c r="N9">
-        <v>1.00083299031402</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="O9">
-        <v>1.000304122876394</v>
+        <v>1.001227345336239</v>
       </c>
       <c r="P9">
-        <v>0.9995339089226085</v>
+        <v>0.9974863465790662</v>
       </c>
       <c r="Q9">
-        <v>1.000019089347509</v>
+        <v>0.9999309065976275</v>
       </c>
       <c r="R9">
-        <v>0.9999669360530792</v>
+        <v>0.9999147376607104</v>
       </c>
       <c r="S9">
-        <v>0.9996006245546137</v>
+        <v>0.9978690536723827</v>
       </c>
       <c r="T9">
-        <v>0.9999669360530792</v>
+        <v>0.9999147376607104</v>
       </c>
       <c r="U9">
-        <v>0.9999087159944655</v>
+        <v>0.9995946702102867</v>
       </c>
       <c r="V9">
-        <v>1.000093570858376</v>
+        <v>1.000630040133029</v>
       </c>
       <c r="W9">
-        <v>0.9999187430163075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.99960288037115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001712095156527</v>
+        <v>1.039694051579475</v>
       </c>
       <c r="D10">
-        <v>0.9973933731379944</v>
+        <v>0.8741209674825281</v>
       </c>
       <c r="E10">
-        <v>1.000665565658503</v>
+        <v>1.06941584985461</v>
       </c>
       <c r="F10">
-        <v>1.001712095156527</v>
+        <v>0.8741209674825281</v>
       </c>
       <c r="G10">
-        <v>0.9994410569254987</v>
+        <v>0.9800420736009648</v>
       </c>
       <c r="H10">
-        <v>1.000968778687117</v>
+        <v>1.026915373190191</v>
       </c>
       <c r="I10">
-        <v>1.001712095156527</v>
+        <v>0.9195377769917673</v>
       </c>
       <c r="J10">
-        <v>0.9973933731379944</v>
+        <v>1.06941584985461</v>
       </c>
       <c r="K10">
-        <v>0.9994879387984383</v>
+        <v>1.06941584985461</v>
       </c>
       <c r="L10">
-        <v>1.000643811443529</v>
+        <v>0.9734049938452445</v>
       </c>
       <c r="M10">
-        <v>0.9983078722067061</v>
+        <v>1.047618937147993</v>
       </c>
       <c r="N10">
-        <v>1.001712095156527</v>
+        <v>1.06941584985461</v>
       </c>
       <c r="O10">
-        <v>1.000665565658503</v>
+        <v>1.039694051579475</v>
       </c>
       <c r="P10">
-        <v>0.9990294693982487</v>
+        <v>0.9569075095310018</v>
       </c>
       <c r="Q10">
-        <v>1.000053311292001</v>
+        <v>1.00654952271236</v>
       </c>
       <c r="R10">
-        <v>0.9999236779843416</v>
+        <v>0.994410289638871</v>
       </c>
       <c r="S10">
-        <v>0.9991666652406653</v>
+        <v>0.9624066709690826</v>
       </c>
       <c r="T10">
-        <v>0.9999236779843416</v>
+        <v>0.994410289638871</v>
       </c>
       <c r="U10">
-        <v>0.9998030227196308</v>
+        <v>0.9891589656904645</v>
       </c>
       <c r="V10">
-        <v>1.00018483720701</v>
+        <v>1.005210342523294</v>
       </c>
       <c r="W10">
-        <v>0.9998275615017893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9913437529615967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003092953358263</v>
+        <v>1.00523987903602</v>
       </c>
       <c r="D11">
-        <v>0.9955073871485032</v>
+        <v>0.9757832431395392</v>
       </c>
       <c r="E11">
-        <v>1.001067393415939</v>
+        <v>1.017874454631196</v>
       </c>
       <c r="F11">
-        <v>1.003092953358263</v>
+        <v>0.9757832431395392</v>
       </c>
       <c r="G11">
-        <v>0.9990317266293943</v>
+        <v>0.9945257375806691</v>
       </c>
       <c r="H11">
-        <v>1.001661441862887</v>
+        <v>1.006541867560998</v>
       </c>
       <c r="I11">
-        <v>1.003092953358263</v>
+        <v>0.9840195517696406</v>
       </c>
       <c r="J11">
-        <v>0.9955073871485032</v>
+        <v>1.017874454631196</v>
       </c>
       <c r="K11">
-        <v>0.9990662801431001</v>
+        <v>1.017874454631196</v>
       </c>
       <c r="L11">
-        <v>1.001153972509511</v>
+        <v>0.9946490654405377</v>
       </c>
       <c r="M11">
-        <v>0.9970696369477101</v>
+        <v>1.008976731213548</v>
       </c>
       <c r="N11">
-        <v>1.003092953358263</v>
+        <v>1.017874454631196</v>
       </c>
       <c r="O11">
-        <v>1.001067393415939</v>
+        <v>1.00523987903602</v>
       </c>
       <c r="P11">
-        <v>0.9982873902822209</v>
+        <v>0.9905115610877798</v>
       </c>
       <c r="Q11">
-        <v>1.000049560022666</v>
+        <v>0.9999444722382791</v>
       </c>
       <c r="R11">
-        <v>0.9998892446409015</v>
+        <v>0.9996325256022519</v>
       </c>
       <c r="S11">
-        <v>0.9985355023979454</v>
+        <v>0.9918907292053657</v>
       </c>
       <c r="T11">
-        <v>0.9998892446409015</v>
+        <v>0.9996325256022519</v>
       </c>
       <c r="U11">
-        <v>0.9996748651380247</v>
+        <v>0.9983866605618233</v>
       </c>
       <c r="V11">
-        <v>1.000358482782072</v>
+        <v>1.002284219375698</v>
       </c>
       <c r="W11">
-        <v>0.9997063490019135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9984513162965187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9787865666858397</v>
+        <v>1.012126706736842</v>
       </c>
       <c r="D12">
-        <v>1.058180098106829</v>
+        <v>0.9616538930947363</v>
       </c>
       <c r="E12">
-        <v>0.9755009089550444</v>
+        <v>1.021097918073686</v>
       </c>
       <c r="F12">
-        <v>0.9787865666858397</v>
+        <v>0.9616538930947363</v>
       </c>
       <c r="G12">
-        <v>1.011946030628777</v>
+        <v>0.99393716313684</v>
       </c>
       <c r="H12">
-        <v>0.9773273371671877</v>
+        <v>1.008181528463154</v>
       </c>
       <c r="I12">
-        <v>0.9787865666858397</v>
+        <v>0.9754904744000028</v>
       </c>
       <c r="J12">
-        <v>1.058180098106829</v>
+        <v>1.021097918073686</v>
       </c>
       <c r="K12">
-        <v>1.005313169491487</v>
+        <v>1.021097918073686</v>
       </c>
       <c r="L12">
-        <v>0.9909696585471111</v>
+        <v>0.991895687347367</v>
       </c>
       <c r="M12">
-        <v>1.036146256668458</v>
+        <v>1.014513269905264</v>
       </c>
       <c r="N12">
-        <v>0.9787865666858397</v>
+        <v>1.021097918073686</v>
       </c>
       <c r="O12">
-        <v>0.9755009089550444</v>
+        <v>1.012126706736842</v>
       </c>
       <c r="P12">
-        <v>1.016840503530937</v>
+        <v>0.9868902999157889</v>
       </c>
       <c r="Q12">
-        <v>0.9937234697919108</v>
+        <v>1.002011197042104</v>
       </c>
       <c r="R12">
-        <v>1.004155857915904</v>
+        <v>0.9982928393017545</v>
       </c>
       <c r="S12">
-        <v>1.01520901256355</v>
+        <v>0.9885587623929816</v>
       </c>
       <c r="T12">
-        <v>1.004155857915905</v>
+        <v>0.9982928393017545</v>
       </c>
       <c r="U12">
-        <v>1.006103401094123</v>
+        <v>0.9966935513131576</v>
       </c>
       <c r="V12">
-        <v>1.000640034212466</v>
+        <v>1.001574424665263</v>
       </c>
       <c r="W12">
-        <v>1.004271253281342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9973620801447365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.985804183976829</v>
+        <v>0.9937359213083535</v>
       </c>
       <c r="D13">
-        <v>1.010255721180245</v>
+        <v>1.023803151107931</v>
       </c>
       <c r="E13">
-        <v>1.001660143329285</v>
+        <v>0.984656748153693</v>
       </c>
       <c r="F13">
-        <v>0.985804183976829</v>
+        <v>1.023803151107931</v>
       </c>
       <c r="G13">
-        <v>1.002405040071198</v>
+        <v>1.004572351473542</v>
       </c>
       <c r="H13">
-        <v>0.9966756587618713</v>
+        <v>0.9942193306658246</v>
       </c>
       <c r="I13">
-        <v>0.985804183976829</v>
+        <v>1.01543312558867</v>
       </c>
       <c r="J13">
-        <v>1.010255721180245</v>
+        <v>0.984656748153693</v>
       </c>
       <c r="K13">
-        <v>1.004695923658819</v>
+        <v>0.984656748153693</v>
       </c>
       <c r="L13">
-        <v>0.9951082105529875</v>
+        <v>1.005106854390406</v>
       </c>
       <c r="M13">
-        <v>1.007349716455098</v>
+        <v>0.9911234466513136</v>
       </c>
       <c r="N13">
-        <v>0.985804183976829</v>
+        <v>0.984656748153693</v>
       </c>
       <c r="O13">
-        <v>1.001660143329285</v>
+        <v>0.9937359213083535</v>
       </c>
       <c r="P13">
-        <v>1.005957932254765</v>
+        <v>1.008769536208142</v>
       </c>
       <c r="Q13">
-        <v>1.002032591700242</v>
+        <v>0.9994213878493801</v>
       </c>
       <c r="R13">
-        <v>0.99924001616212</v>
+        <v>1.000731940189993</v>
       </c>
       <c r="S13">
-        <v>1.004773634860243</v>
+        <v>1.007548642268897</v>
       </c>
       <c r="T13">
-        <v>0.9992400161621199</v>
+        <v>1.000731940189993</v>
       </c>
       <c r="U13">
-        <v>1.000031272139389</v>
+        <v>1.001825668740096</v>
       </c>
       <c r="V13">
-        <v>0.9971858545068774</v>
+        <v>0.9983918846228155</v>
       </c>
       <c r="W13">
-        <v>1.000494324748292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.001581366167467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9794887091682457</v>
+        <v>1.0689592</v>
       </c>
       <c r="D14">
-        <v>0.9845659933140668</v>
+        <v>0.7822851299999987</v>
       </c>
       <c r="E14">
-        <v>1.021117239570302</v>
+        <v>1.119516899999999</v>
       </c>
       <c r="F14">
-        <v>0.9794887091682457</v>
+        <v>0.7822851299999987</v>
       </c>
       <c r="G14">
-        <v>0.9977622168072438</v>
+        <v>0.9656765900000006</v>
       </c>
       <c r="H14">
-        <v>1.007509949369854</v>
+        <v>1.0463819</v>
       </c>
       <c r="I14">
-        <v>0.9794887091682457</v>
+        <v>0.8608882400000009</v>
       </c>
       <c r="J14">
-        <v>0.9845659933140668</v>
+        <v>1.119516899999999</v>
       </c>
       <c r="K14">
-        <v>1.008004846172068</v>
+        <v>1.119516899999999</v>
       </c>
       <c r="L14">
-        <v>0.9942555075230741</v>
+        <v>0.9540199799999987</v>
       </c>
       <c r="M14">
-        <v>0.9929922349355044</v>
+        <v>1.082392400000002</v>
       </c>
       <c r="N14">
-        <v>0.9794887091682457</v>
+        <v>1.119516899999999</v>
       </c>
       <c r="O14">
-        <v>1.021117239570302</v>
+        <v>1.0689592</v>
       </c>
       <c r="P14">
-        <v>1.002841616442185</v>
+        <v>0.9256221649999995</v>
       </c>
       <c r="Q14">
-        <v>1.009439728188773</v>
+        <v>1.01148959</v>
       </c>
       <c r="R14">
-        <v>0.9950573140175383</v>
+        <v>0.9902537433333327</v>
       </c>
       <c r="S14">
-        <v>1.001148483230538</v>
+        <v>0.9350881033333325</v>
       </c>
       <c r="T14">
-        <v>0.9950573140175383</v>
+        <v>0.9902537433333327</v>
       </c>
       <c r="U14">
-        <v>0.9957335397149647</v>
+        <v>0.9811953024999992</v>
       </c>
       <c r="V14">
-        <v>0.9924845736056209</v>
+        <v>1.008859621999999</v>
       </c>
       <c r="W14">
-        <v>0.9982120871075448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9850150425000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.009744519650051</v>
+        <v>1.0462216</v>
       </c>
       <c r="D15">
-        <v>1.004383219576628</v>
+        <v>0.66187112</v>
       </c>
       <c r="E15">
-        <v>0.9918608534276627</v>
+        <v>1.2928493</v>
       </c>
       <c r="F15">
-        <v>1.009744519650051</v>
+        <v>0.66187112</v>
       </c>
       <c r="G15">
-        <v>1.000467907490345</v>
+        <v>0.90811891</v>
       </c>
       <c r="H15">
-        <v>0.9976712612833325</v>
+        <v>1.1057312</v>
       </c>
       <c r="I15">
-        <v>1.009744519650051</v>
+        <v>0.77373804</v>
       </c>
       <c r="J15">
-        <v>1.004383219576628</v>
+        <v>1.2928493</v>
       </c>
       <c r="K15">
-        <v>0.9963124663247968</v>
+        <v>1.2928493</v>
       </c>
       <c r="L15">
-        <v>1.002835311627709</v>
+        <v>0.92527774</v>
       </c>
       <c r="M15">
-        <v>1.001582356557554</v>
+        <v>1.1213133</v>
       </c>
       <c r="N15">
-        <v>1.009744519650051</v>
+        <v>1.2928493</v>
       </c>
       <c r="O15">
-        <v>0.9918608534276627</v>
+        <v>1.0462216</v>
       </c>
       <c r="P15">
-        <v>0.9981220365021455</v>
+        <v>0.85404636</v>
       </c>
       <c r="Q15">
-        <v>0.9961643804590038</v>
+        <v>0.9857496699999999</v>
       </c>
       <c r="R15">
-        <v>1.001996197551447</v>
+        <v>1.000314006666667</v>
       </c>
       <c r="S15">
-        <v>0.998903993498212</v>
+        <v>0.8777901533333333</v>
       </c>
       <c r="T15">
-        <v>1.001996197551447</v>
+        <v>1.000314006666667</v>
       </c>
       <c r="U15">
-        <v>1.001614125036172</v>
+        <v>0.98155494</v>
       </c>
       <c r="V15">
-        <v>1.003240203958947</v>
+        <v>1.043813812</v>
       </c>
       <c r="W15">
-        <v>1.00060723699226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9793901512500001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000005786378025</v>
+        <v>1.0837897</v>
       </c>
       <c r="D16">
-        <v>0.9999873745082714</v>
+        <v>0.6521713200000001</v>
       </c>
       <c r="E16">
-        <v>1.000009905976659</v>
+        <v>1.241318</v>
       </c>
       <c r="F16">
-        <v>1.000005786378025</v>
+        <v>0.6521713200000001</v>
       </c>
       <c r="G16">
-        <v>0.9999944263847027</v>
+        <v>0.9269292</v>
       </c>
       <c r="H16">
-        <v>1.000007825752342</v>
+        <v>1.089192</v>
       </c>
       <c r="I16">
-        <v>1.000005786378025</v>
+        <v>0.7720312499999999</v>
       </c>
       <c r="J16">
-        <v>0.9999873745082714</v>
+        <v>1.241318</v>
       </c>
       <c r="K16">
-        <v>0.9999981531587265</v>
+        <v>1.241318</v>
       </c>
       <c r="L16">
-        <v>1.000000575990652</v>
+        <v>0.92374469</v>
       </c>
       <c r="M16">
-        <v>0.9999898528420864</v>
+        <v>1.1297636</v>
       </c>
       <c r="N16">
-        <v>1.000005786378025</v>
+        <v>1.241318</v>
       </c>
       <c r="O16">
-        <v>1.000009905976659</v>
+        <v>1.0837897</v>
       </c>
       <c r="P16">
-        <v>0.999998640242465</v>
+        <v>0.8679805100000001</v>
       </c>
       <c r="Q16">
-        <v>1.000002166180681</v>
+        <v>1.003767195</v>
       </c>
       <c r="R16">
-        <v>1.000001022287652</v>
+        <v>0.9924263400000001</v>
       </c>
       <c r="S16">
-        <v>0.9999972356232109</v>
+        <v>0.8865685700000001</v>
       </c>
       <c r="T16">
-        <v>1.000001022287652</v>
+        <v>0.9924263400000001</v>
       </c>
       <c r="U16">
-        <v>0.9999993733119145</v>
+        <v>0.9752559275</v>
       </c>
       <c r="V16">
-        <v>1.000000655925137</v>
+        <v>1.028468342</v>
       </c>
       <c r="W16">
-        <v>0.9999992376239331</v>
+        <v>0.9773674699999999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000166158532811</v>
+        <v>1.0229119</v>
       </c>
       <c r="D17">
-        <v>0.9996846359744145</v>
+        <v>0.8982430000000001</v>
       </c>
       <c r="E17">
-        <v>1.000097391263521</v>
+        <v>1.0698819</v>
       </c>
       <c r="F17">
-        <v>1.000166158532811</v>
+        <v>0.8982430000000001</v>
       </c>
       <c r="G17">
-        <v>0.9999372204361757</v>
+        <v>0.9789833399999999</v>
       </c>
       <c r="H17">
-        <v>1.000116131786403</v>
+        <v>1.0265372</v>
       </c>
       <c r="I17">
-        <v>1.000166158532811</v>
+        <v>0.9342113399999999</v>
       </c>
       <c r="J17">
-        <v>0.9996846359744145</v>
+        <v>1.0698819</v>
       </c>
       <c r="K17">
-        <v>0.9999531181658398</v>
+        <v>1.0698819</v>
       </c>
       <c r="L17">
-        <v>1.000067145418381</v>
+        <v>0.9788365999999999</v>
       </c>
       <c r="M17">
-        <v>0.9998018409415215</v>
+        <v>1.0368712</v>
       </c>
       <c r="N17">
-        <v>1.000166158532811</v>
+        <v>1.0698819</v>
       </c>
       <c r="O17">
-        <v>1.000097391263521</v>
+        <v>1.0229119</v>
       </c>
       <c r="P17">
-        <v>0.9998910136189679</v>
+        <v>0.9605774500000001</v>
       </c>
       <c r="Q17">
-        <v>1.000017305849848</v>
+        <v>1.00087425</v>
       </c>
       <c r="R17">
-        <v>0.9999827285902491</v>
+        <v>0.9970122666666666</v>
       </c>
       <c r="S17">
-        <v>0.9999064158913705</v>
+        <v>0.9666638333333334</v>
       </c>
       <c r="T17">
-        <v>0.9999827285902491</v>
+        <v>0.9970122666666666</v>
       </c>
       <c r="U17">
-        <v>0.9999713515517307</v>
+        <v>0.99246835</v>
       </c>
       <c r="V17">
-        <v>1.000010312947947</v>
+        <v>1.00795106</v>
       </c>
       <c r="W17">
-        <v>0.9999779553148834</v>
+        <v>0.9933095599999999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000788495703886</v>
+        <v>1.014545136438356</v>
       </c>
       <c r="D18">
-        <v>0.9990267791552156</v>
+        <v>0.92196636</v>
       </c>
       <c r="E18">
-        <v>1.000179479295673</v>
+        <v>1.060892197534246</v>
       </c>
       <c r="F18">
-        <v>1.000788495703886</v>
+        <v>0.92196636</v>
       </c>
       <c r="G18">
-        <v>0.999777903739296</v>
+        <v>0.9811988226027401</v>
       </c>
       <c r="H18">
-        <v>1.000361347314297</v>
+        <v>1.022271553972603</v>
       </c>
       <c r="I18">
-        <v>1.000788495703886</v>
+        <v>0.9483873991780817</v>
       </c>
       <c r="J18">
-        <v>0.9990267791552156</v>
+        <v>1.060892197534246</v>
       </c>
       <c r="K18">
-        <v>0.9997543143122811</v>
+        <v>1.060892197534246</v>
       </c>
       <c r="L18">
-        <v>1.000282040567543</v>
+        <v>0.9829180372602743</v>
       </c>
       <c r="M18">
-        <v>0.9993474644239118</v>
+        <v>1.028456361369863</v>
       </c>
       <c r="N18">
-        <v>1.000788495703886</v>
+        <v>1.060892197534246</v>
       </c>
       <c r="O18">
-        <v>1.000179479295673</v>
+        <v>1.014545136438356</v>
       </c>
       <c r="P18">
-        <v>0.9996031292254445</v>
+        <v>0.9682557482191783</v>
       </c>
       <c r="Q18">
-        <v>0.9999786915174846</v>
+        <v>0.9987315868493154</v>
       </c>
       <c r="R18">
-        <v>0.999998251384925</v>
+        <v>0.9991345646575343</v>
       </c>
       <c r="S18">
-        <v>0.9996613873967283</v>
+        <v>0.9731431778995435</v>
       </c>
       <c r="T18">
-        <v>0.999998251384925</v>
+        <v>0.9991345646575341</v>
       </c>
       <c r="U18">
-        <v>0.9999431644735177</v>
+        <v>0.9950804328082191</v>
       </c>
       <c r="V18">
-        <v>1.000112230719591</v>
+        <v>1.008242785753425</v>
       </c>
       <c r="W18">
-        <v>0.999939728064013</v>
+        <v>0.9950794835445205</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001999176473146</v>
+        <v>1.049768821052631</v>
       </c>
       <c r="D19">
-        <v>0.9978240189498121</v>
+        <v>0.8469808331578949</v>
       </c>
       <c r="E19">
-        <v>1.000300067361844</v>
+        <v>1.081473291052632</v>
       </c>
       <c r="F19">
-        <v>1.001999176473146</v>
+        <v>0.8469808331578949</v>
       </c>
       <c r="G19">
-        <v>0.9994777348348095</v>
+        <v>0.9767923973684209</v>
       </c>
       <c r="H19">
-        <v>1.000811871054381</v>
+        <v>1.031849348421053</v>
       </c>
       <c r="I19">
-        <v>1.001999176473146</v>
+        <v>0.9025228831578948</v>
       </c>
       <c r="J19">
-        <v>0.9978240189498121</v>
+        <v>1.081473291052632</v>
       </c>
       <c r="K19">
-        <v>0.9993640297918749</v>
+        <v>1.081473291052632</v>
       </c>
       <c r="L19">
-        <v>1.000693866107485</v>
+        <v>0.9678363342105262</v>
       </c>
       <c r="M19">
-        <v>0.9985048464093996</v>
+        <v>1.057989831578948</v>
       </c>
       <c r="N19">
-        <v>1.001999176473146</v>
+        <v>1.081473291052632</v>
       </c>
       <c r="O19">
-        <v>1.000300067361844</v>
+        <v>1.049768821052631</v>
       </c>
       <c r="P19">
-        <v>0.9990620431558279</v>
+        <v>0.9483748271052632</v>
       </c>
       <c r="Q19">
-        <v>0.9998889010983265</v>
+        <v>1.008802577631579</v>
       </c>
       <c r="R19">
-        <v>1.000041087594934</v>
+        <v>0.9927409817543861</v>
       </c>
       <c r="S19">
-        <v>0.9992006070488219</v>
+        <v>0.9548619961403508</v>
       </c>
       <c r="T19">
-        <v>1.000041087594934</v>
+        <v>0.9927409817543861</v>
       </c>
       <c r="U19">
-        <v>0.9999002494049027</v>
+        <v>0.986514819868421</v>
       </c>
       <c r="V19">
-        <v>1.000320034818551</v>
+        <v>1.005506514105263</v>
       </c>
       <c r="W19">
-        <v>0.999871951372844</v>
+        <v>0.9894017175000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.03613862</v>
+      </c>
+      <c r="D20">
+        <v>0.8595418363157895</v>
+      </c>
+      <c r="E20">
+        <v>1.092790459473684</v>
+      </c>
+      <c r="F20">
+        <v>0.8595418363157895</v>
+      </c>
+      <c r="G20">
+        <v>0.9721857605263157</v>
+      </c>
+      <c r="H20">
+        <v>1.034667141052631</v>
+      </c>
+      <c r="I20">
+        <v>0.908528302105263</v>
+      </c>
+      <c r="J20">
+        <v>1.092790459473684</v>
+      </c>
+      <c r="K20">
+        <v>1.092790459473684</v>
+      </c>
+      <c r="L20">
+        <v>0.9695415836842104</v>
+      </c>
+      <c r="M20">
+        <v>1.052496317368421</v>
+      </c>
+      <c r="N20">
+        <v>1.092790459473684</v>
+      </c>
+      <c r="O20">
+        <v>1.03613862</v>
+      </c>
+      <c r="P20">
+        <v>0.9478402281578946</v>
+      </c>
+      <c r="Q20">
+        <v>1.002840101842105</v>
+      </c>
+      <c r="R20">
+        <v>0.9961569719298243</v>
+      </c>
+      <c r="S20">
+        <v>0.9550740133333332</v>
+      </c>
+      <c r="T20">
+        <v>0.9961569719298243</v>
+      </c>
+      <c r="U20">
+        <v>0.9895031248684208</v>
+      </c>
+      <c r="V20">
+        <v>1.010160591789474</v>
+      </c>
+      <c r="W20">
+        <v>0.9907362525657893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.021117239570302</v>
+      </c>
+      <c r="D21">
+        <v>0.9845659933140668</v>
+      </c>
+      <c r="E21">
+        <v>0.9794887091682457</v>
+      </c>
+      <c r="F21">
+        <v>0.9845659933140668</v>
+      </c>
+      <c r="G21">
+        <v>1.008004846172068</v>
+      </c>
+      <c r="H21">
+        <v>0.9942555075230741</v>
+      </c>
+      <c r="I21">
+        <v>0.9929922349355044</v>
+      </c>
+      <c r="J21">
+        <v>0.9794887091682457</v>
+      </c>
+      <c r="K21">
+        <v>0.9794887091682457</v>
+      </c>
+      <c r="L21">
+        <v>0.9977622168072435</v>
+      </c>
+      <c r="M21">
+        <v>1.007509949369854</v>
+      </c>
+      <c r="N21">
+        <v>0.9794887091682457</v>
+      </c>
+      <c r="O21">
+        <v>1.021117239570302</v>
+      </c>
+      <c r="P21">
+        <v>1.002841616442185</v>
+      </c>
+      <c r="Q21">
+        <v>1.009439728188773</v>
+      </c>
+      <c r="R21">
+        <v>0.9950573140175383</v>
+      </c>
+      <c r="S21">
+        <v>1.001148483230538</v>
+      </c>
+      <c r="T21">
+        <v>0.9950573140175383</v>
+      </c>
+      <c r="U21">
+        <v>0.9957335397149646</v>
+      </c>
+      <c r="V21">
+        <v>0.9924845736056207</v>
+      </c>
+      <c r="W21">
+        <v>0.9982120871075447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9918608534276627</v>
+      </c>
+      <c r="D22">
+        <v>1.004383219576628</v>
+      </c>
+      <c r="E22">
+        <v>1.009744519650051</v>
+      </c>
+      <c r="F22">
+        <v>1.004383219576628</v>
+      </c>
+      <c r="G22">
+        <v>0.9963124663247968</v>
+      </c>
+      <c r="H22">
+        <v>1.002835311627709</v>
+      </c>
+      <c r="I22">
+        <v>1.001582356557554</v>
+      </c>
+      <c r="J22">
+        <v>1.009744519650051</v>
+      </c>
+      <c r="K22">
+        <v>1.009744519650051</v>
+      </c>
+      <c r="L22">
+        <v>1.000467907490345</v>
+      </c>
+      <c r="M22">
+        <v>0.9976712612833325</v>
+      </c>
+      <c r="N22">
+        <v>1.009744519650051</v>
+      </c>
+      <c r="O22">
+        <v>0.9918608534276627</v>
+      </c>
+      <c r="P22">
+        <v>0.9981220365021455</v>
+      </c>
+      <c r="Q22">
+        <v>0.9961643804590038</v>
+      </c>
+      <c r="R22">
+        <v>1.001996197551447</v>
+      </c>
+      <c r="S22">
+        <v>0.998903993498212</v>
+      </c>
+      <c r="T22">
+        <v>1.001996197551447</v>
+      </c>
+      <c r="U22">
+        <v>1.001614125036172</v>
+      </c>
+      <c r="V22">
+        <v>1.003240203958947</v>
+      </c>
+      <c r="W22">
+        <v>1.00060723699226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9755009089550444</v>
+      </c>
+      <c r="D23">
+        <v>1.058180098106829</v>
+      </c>
+      <c r="E23">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="F23">
+        <v>1.058180098106829</v>
+      </c>
+      <c r="G23">
+        <v>1.005313169491487</v>
+      </c>
+      <c r="H23">
+        <v>0.9909696585471111</v>
+      </c>
+      <c r="I23">
+        <v>1.036146256668458</v>
+      </c>
+      <c r="J23">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="K23">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="L23">
+        <v>1.011946030628777</v>
+      </c>
+      <c r="M23">
+        <v>0.9773273371671877</v>
+      </c>
+      <c r="N23">
+        <v>0.9787865666858399</v>
+      </c>
+      <c r="O23">
+        <v>0.9755009089550444</v>
+      </c>
+      <c r="P23">
+        <v>1.016840503530937</v>
+      </c>
+      <c r="Q23">
+        <v>0.9937234697919107</v>
+      </c>
+      <c r="R23">
+        <v>1.004155857915905</v>
+      </c>
+      <c r="S23">
+        <v>1.01520901256355</v>
+      </c>
+      <c r="T23">
+        <v>1.004155857915905</v>
+      </c>
+      <c r="U23">
+        <v>1.006103401094123</v>
+      </c>
+      <c r="V23">
+        <v>1.000640034212466</v>
+      </c>
+      <c r="W23">
+        <v>1.004271253281342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001660143329285</v>
+      </c>
+      <c r="D24">
+        <v>1.010255721180245</v>
+      </c>
+      <c r="E24">
+        <v>0.985804183976829</v>
+      </c>
+      <c r="F24">
+        <v>1.010255721180245</v>
+      </c>
+      <c r="G24">
+        <v>1.004695923658819</v>
+      </c>
+      <c r="H24">
+        <v>0.9951082105529874</v>
+      </c>
+      <c r="I24">
+        <v>1.007349716455098</v>
+      </c>
+      <c r="J24">
+        <v>0.985804183976829</v>
+      </c>
+      <c r="K24">
+        <v>0.985804183976829</v>
+      </c>
+      <c r="L24">
+        <v>1.002405040071198</v>
+      </c>
+      <c r="M24">
+        <v>0.9966756587618713</v>
+      </c>
+      <c r="N24">
+        <v>0.985804183976829</v>
+      </c>
+      <c r="O24">
+        <v>1.001660143329285</v>
+      </c>
+      <c r="P24">
+        <v>1.005957932254765</v>
+      </c>
+      <c r="Q24">
+        <v>1.002032591700242</v>
+      </c>
+      <c r="R24">
+        <v>0.99924001616212</v>
+      </c>
+      <c r="S24">
+        <v>1.004773634860243</v>
+      </c>
+      <c r="T24">
+        <v>0.9992400161621199</v>
+      </c>
+      <c r="U24">
+        <v>1.000031272139389</v>
+      </c>
+      <c r="V24">
+        <v>0.9971858545068774</v>
+      </c>
+      <c r="W24">
+        <v>1.000494324748292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9849450844082556</v>
+      </c>
+      <c r="D25">
+        <v>1.017428538808435</v>
+      </c>
+      <c r="E25">
+        <v>1.007751013173052</v>
+      </c>
+      <c r="F25">
+        <v>1.017428538808435</v>
+      </c>
+      <c r="G25">
+        <v>0.9965023689396885</v>
+      </c>
+      <c r="H25">
+        <v>1.00163004390829</v>
+      </c>
+      <c r="I25">
+        <v>1.00936326795159</v>
+      </c>
+      <c r="J25">
+        <v>1.007751013173052</v>
+      </c>
+      <c r="K25">
+        <v>1.007751013173052</v>
+      </c>
+      <c r="L25">
+        <v>1.002979378667826</v>
+      </c>
+      <c r="M25">
+        <v>0.9924988936921714</v>
+      </c>
+      <c r="N25">
+        <v>1.007751013173052</v>
+      </c>
+      <c r="O25">
+        <v>0.9849450844082556</v>
+      </c>
+      <c r="P25">
+        <v>1.001186811608345</v>
+      </c>
+      <c r="Q25">
+        <v>0.9939622315380408</v>
+      </c>
+      <c r="R25">
+        <v>1.003374878796581</v>
+      </c>
+      <c r="S25">
+        <v>1.001784333961505</v>
+      </c>
+      <c r="T25">
+        <v>1.003374878796581</v>
+      </c>
+      <c r="U25">
+        <v>1.003276003764392</v>
+      </c>
+      <c r="V25">
+        <v>1.004171005646124</v>
+      </c>
+      <c r="W25">
+        <v>1.001637323693664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.004542920199279</v>
+      </c>
+      <c r="D26">
+        <v>0.9990223453448386</v>
+      </c>
+      <c r="E26">
+        <v>0.992580302903791</v>
+      </c>
+      <c r="F26">
+        <v>0.9990223453448386</v>
+      </c>
+      <c r="G26">
+        <v>1.002722564828834</v>
+      </c>
+      <c r="H26">
+        <v>0.9978026482434614</v>
+      </c>
+      <c r="I26">
+        <v>1.00025102349151</v>
+      </c>
+      <c r="J26">
+        <v>0.992580302903791</v>
+      </c>
+      <c r="K26">
+        <v>0.992580302903791</v>
+      </c>
+      <c r="L26">
+        <v>1.000198048432523</v>
+      </c>
+      <c r="M26">
+        <v>1.00070275839739</v>
+      </c>
+      <c r="N26">
+        <v>0.992580302903791</v>
+      </c>
+      <c r="O26">
+        <v>1.004542920199279</v>
+      </c>
+      <c r="P26">
+        <v>1.001782632772059</v>
+      </c>
+      <c r="Q26">
+        <v>1.002370484315901</v>
+      </c>
+      <c r="R26">
+        <v>0.9987151894826362</v>
+      </c>
+      <c r="S26">
+        <v>1.001254437992213</v>
+      </c>
+      <c r="T26">
+        <v>0.998715189482636</v>
+      </c>
+      <c r="U26">
+        <v>0.9990859042201077</v>
+      </c>
+      <c r="V26">
+        <v>0.9977847839568443</v>
+      </c>
+      <c r="W26">
+        <v>0.9997278264802034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.00277271178067</v>
+      </c>
+      <c r="D27">
+        <v>0.9880165570702475</v>
+      </c>
+      <c r="E27">
+        <v>1.008700974217325</v>
+      </c>
+      <c r="F27">
+        <v>0.9880165570702475</v>
+      </c>
+      <c r="G27">
+        <v>0.9973378883144914</v>
+      </c>
+      <c r="H27">
+        <v>1.003159252850885</v>
+      </c>
+      <c r="I27">
+        <v>0.9920651184137517</v>
+      </c>
+      <c r="J27">
+        <v>1.008700974217325</v>
+      </c>
+      <c r="K27">
+        <v>1.008700974217325</v>
+      </c>
+      <c r="L27">
+        <v>0.9973017221595385</v>
+      </c>
+      <c r="M27">
+        <v>1.004506451212681</v>
+      </c>
+      <c r="N27">
+        <v>1.008700974217325</v>
+      </c>
+      <c r="O27">
+        <v>1.00277271178067</v>
+      </c>
+      <c r="P27">
+        <v>0.9953946344254586</v>
+      </c>
+      <c r="Q27">
+        <v>1.000037216970104</v>
+      </c>
+      <c r="R27">
+        <v>0.9998300810227475</v>
+      </c>
+      <c r="S27">
+        <v>0.9960303303368185</v>
+      </c>
+      <c r="T27">
+        <v>0.9998300810227475</v>
+      </c>
+      <c r="U27">
+        <v>0.9991979913069453</v>
+      </c>
+      <c r="V27">
+        <v>1.001098587889021</v>
+      </c>
+      <c r="W27">
+        <v>0.9992325845024488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003411520295925</v>
+      </c>
+      <c r="D28">
+        <v>0.9851554034091341</v>
+      </c>
+      <c r="E28">
+        <v>1.010774762636416</v>
+      </c>
+      <c r="F28">
+        <v>0.9851554034091341</v>
+      </c>
+      <c r="G28">
+        <v>0.9967049059923647</v>
+      </c>
+      <c r="H28">
+        <v>1.003920816649515</v>
+      </c>
+      <c r="I28">
+        <v>0.990181474075002</v>
+      </c>
+      <c r="J28">
+        <v>1.010774762636416</v>
+      </c>
+      <c r="K28">
+        <v>1.010774762636416</v>
+      </c>
+      <c r="L28">
+        <v>0.9966717588619991</v>
+      </c>
+      <c r="M28">
+        <v>1.005568329846857</v>
+      </c>
+      <c r="N28">
+        <v>1.010774762636416</v>
+      </c>
+      <c r="O28">
+        <v>1.003411520295925</v>
+      </c>
+      <c r="P28">
+        <v>0.9942834618525297</v>
+      </c>
+      <c r="Q28">
+        <v>1.000041639578962</v>
+      </c>
+      <c r="R28">
+        <v>0.999780562113825</v>
+      </c>
+      <c r="S28">
+        <v>0.9950795608556863</v>
+      </c>
+      <c r="T28">
+        <v>0.999780562113825</v>
+      </c>
+      <c r="U28">
+        <v>0.9990033613008685</v>
+      </c>
+      <c r="V28">
+        <v>1.001357641567978</v>
+      </c>
+      <c r="W28">
+        <v>0.9990486214709016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9893177061753758</v>
+      </c>
+      <c r="D29">
+        <v>1.025122638334373</v>
+      </c>
+      <c r="E29">
+        <v>0.9900064464184194</v>
+      </c>
+      <c r="F29">
+        <v>1.025122638334373</v>
+      </c>
+      <c r="G29">
+        <v>1.00262358926731</v>
+      </c>
+      <c r="H29">
+        <v>0.9960309054745287</v>
+      </c>
+      <c r="I29">
+        <v>1.015927555616298</v>
+      </c>
+      <c r="J29">
+        <v>0.9900064464184194</v>
+      </c>
+      <c r="K29">
+        <v>0.9900064464184194</v>
+      </c>
+      <c r="L29">
+        <v>1.005506717963673</v>
+      </c>
+      <c r="M29">
+        <v>0.9899352793083948</v>
+      </c>
+      <c r="N29">
+        <v>0.9900064464184194</v>
+      </c>
+      <c r="O29">
+        <v>0.9893177061753758</v>
+      </c>
+      <c r="P29">
+        <v>1.007220172254875</v>
+      </c>
+      <c r="Q29">
+        <v>0.9974122120695246</v>
+      </c>
+      <c r="R29">
+        <v>1.001482263642723</v>
+      </c>
+      <c r="S29">
+        <v>1.006649020824474</v>
+      </c>
+      <c r="T29">
+        <v>1.001482263642723</v>
+      </c>
+      <c r="U29">
+        <v>1.00248837722296</v>
+      </c>
+      <c r="V29">
+        <v>0.9999919910620523</v>
+      </c>
+      <c r="W29">
+        <v>1.001808854819797</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.012507330223693</v>
+        <v>1.008988713663024</v>
       </c>
       <c r="D4">
-        <v>0.9499858034762961</v>
+        <v>0.9704984160446846</v>
       </c>
       <c r="E4">
-        <v>1.033572194911417</v>
+        <v>1.016818949156604</v>
       </c>
       <c r="F4">
-        <v>0.9499858034762961</v>
+        <v>0.9704984160446846</v>
       </c>
       <c r="G4">
-        <v>0.9899077787048756</v>
+        <v>0.9951246855042575</v>
       </c>
       <c r="H4">
-        <v>1.012530961270961</v>
+        <v>1.006481524973545</v>
       </c>
       <c r="I4">
-        <v>0.9674028603408299</v>
+        <v>0.981090822293042</v>
       </c>
       <c r="J4">
-        <v>1.033572194911417</v>
+        <v>1.016818949156604</v>
       </c>
       <c r="K4">
-        <v>1.033572194911417</v>
+        <v>1.016818949156604</v>
       </c>
       <c r="L4">
-        <v>0.9891710764105752</v>
+        <v>0.9937510412163307</v>
       </c>
       <c r="M4">
-        <v>1.018626422345349</v>
+        <v>1.011125095538023</v>
       </c>
       <c r="N4">
-        <v>1.033572194911417</v>
+        <v>1.016818949156604</v>
       </c>
       <c r="O4">
-        <v>1.012507330223693</v>
+        <v>1.008988713663024</v>
       </c>
       <c r="P4">
-        <v>0.9812465668499948</v>
+        <v>0.9897435648538542</v>
       </c>
       <c r="Q4">
-        <v>1.000839203317134</v>
+        <v>1.001369877439677</v>
       </c>
       <c r="R4">
-        <v>0.9986884428704691</v>
+        <v>0.998768692954771</v>
       </c>
       <c r="S4">
-        <v>0.9838880700368549</v>
+        <v>0.9910793903080131</v>
       </c>
       <c r="T4">
-        <v>0.9986884428704691</v>
+        <v>0.998768692954771</v>
       </c>
       <c r="U4">
-        <v>0.9963091012554957</v>
+        <v>0.997514280020161</v>
       </c>
       <c r="V4">
-        <v>1.00376171998668</v>
+        <v>1.00137521384745</v>
       </c>
       <c r="W4">
-        <v>0.9967130534604998</v>
+        <v>0.9979849060486887</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011064772031698</v>
+        <v>1.033474386883205</v>
       </c>
       <c r="D5">
-        <v>0.9621732905907758</v>
+        <v>0.870239079577972</v>
       </c>
       <c r="E5">
-        <v>1.022393571087899</v>
+        <v>1.085745272975651</v>
       </c>
       <c r="F5">
-        <v>0.9621732905907758</v>
+        <v>0.870239079577972</v>
       </c>
       <c r="G5">
-        <v>0.9934503872334278</v>
+        <v>0.9742911369010427</v>
       </c>
       <c r="H5">
-        <v>1.008567614106624</v>
+        <v>1.032000259982808</v>
       </c>
       <c r="I5">
-        <v>0.9756718169020194</v>
+        <v>0.9154509069023515</v>
       </c>
       <c r="J5">
-        <v>1.022393571087899</v>
+        <v>1.085745272975651</v>
       </c>
       <c r="K5">
-        <v>1.022393571087899</v>
+        <v>1.085745272975651</v>
       </c>
       <c r="L5">
-        <v>0.9919565412896264</v>
+        <v>0.9718044450903923</v>
       </c>
       <c r="M5">
-        <v>1.014218712917867</v>
+        <v>1.048553664528656</v>
       </c>
       <c r="N5">
-        <v>1.022393571087899</v>
+        <v>1.085745272975651</v>
       </c>
       <c r="O5">
-        <v>1.011064772031698</v>
+        <v>1.033474386883205</v>
       </c>
       <c r="P5">
-        <v>0.9866190313112371</v>
+        <v>0.9518567332305883</v>
       </c>
       <c r="Q5">
-        <v>1.001510656660662</v>
+        <v>1.002639415986798</v>
       </c>
       <c r="R5">
-        <v>0.9985438779034576</v>
+        <v>0.9964862464789425</v>
       </c>
       <c r="S5">
-        <v>0.9883982013040336</v>
+        <v>0.9585059705171896</v>
       </c>
       <c r="T5">
-        <v>0.9985438779034576</v>
+        <v>0.9964862464789425</v>
       </c>
       <c r="U5">
-        <v>0.9968970437499998</v>
+        <v>0.9903157961318049</v>
       </c>
       <c r="V5">
-        <v>1.00199634921758</v>
+        <v>1.009401691500574</v>
       </c>
       <c r="W5">
-        <v>0.9974370882699922</v>
+        <v>0.9914448941052598</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.038960670705558</v>
+        <v>1.012507330223693</v>
       </c>
       <c r="D6">
-        <v>0.8760540280245099</v>
+        <v>0.9499858034762961</v>
       </c>
       <c r="E6">
-        <v>1.06856471953119</v>
+        <v>1.033572194911417</v>
       </c>
       <c r="F6">
-        <v>0.8760540280245099</v>
+        <v>0.9499858034762961</v>
       </c>
       <c r="G6">
-        <v>0.980271361683045</v>
+        <v>0.9899077787048756</v>
       </c>
       <c r="H6">
-        <v>1.026570176858849</v>
+        <v>1.012530961270961</v>
       </c>
       <c r="I6">
-        <v>0.9207537025341724</v>
+        <v>0.9674028603408299</v>
       </c>
       <c r="J6">
-        <v>1.06856471953119</v>
+        <v>1.033572194911417</v>
       </c>
       <c r="K6">
-        <v>1.06856471953119</v>
+        <v>1.033572194911417</v>
       </c>
       <c r="L6">
-        <v>0.9738077946934404</v>
+        <v>0.9891710764105752</v>
       </c>
       <c r="M6">
-        <v>1.046873314246088</v>
+        <v>1.018626422345349</v>
       </c>
       <c r="N6">
-        <v>1.06856471953119</v>
+        <v>1.033572194911417</v>
       </c>
       <c r="O6">
-        <v>1.038960670705558</v>
+        <v>1.012507330223693</v>
       </c>
       <c r="P6">
-        <v>0.957507349365034</v>
+        <v>0.9812465668499948</v>
       </c>
       <c r="Q6">
-        <v>1.006384232699499</v>
+        <v>1.000839203317134</v>
       </c>
       <c r="R6">
-        <v>0.9945264727537527</v>
+        <v>0.9986884428704691</v>
       </c>
       <c r="S6">
-        <v>0.9629408311411695</v>
+        <v>0.9838880700368549</v>
       </c>
       <c r="T6">
-        <v>0.9945264727537527</v>
+        <v>0.9986884428704691</v>
       </c>
       <c r="U6">
-        <v>0.9893468032386746</v>
+        <v>0.9963091012554957</v>
       </c>
       <c r="V6">
-        <v>1.005190386497178</v>
+        <v>1.00376171998668</v>
       </c>
       <c r="W6">
-        <v>0.9914819710346067</v>
+        <v>0.9967130534604998</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00070994814179</v>
+        <v>1.011064772031698</v>
       </c>
       <c r="D7">
-        <v>0.9960987105298313</v>
+        <v>0.9621732905907758</v>
       </c>
       <c r="E7">
-        <v>1.003076862761167</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="F7">
-        <v>0.9960987105298313</v>
+        <v>0.9621732905907758</v>
       </c>
       <c r="G7">
-        <v>0.999048260184251</v>
+        <v>0.9934503872334278</v>
       </c>
       <c r="H7">
-        <v>1.001123279117793</v>
+        <v>1.008567614106624</v>
       </c>
       <c r="I7">
-        <v>0.9974160087317306</v>
+        <v>0.9756718169020194</v>
       </c>
       <c r="J7">
-        <v>1.003076862761167</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="K7">
-        <v>1.003076862761167</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="L7">
-        <v>0.9991442823997503</v>
+        <v>0.9919565412896264</v>
       </c>
       <c r="M7">
-        <v>1.001421365394656</v>
+        <v>1.014218712917867</v>
       </c>
       <c r="N7">
-        <v>1.003076862761167</v>
+        <v>1.022393571087899</v>
       </c>
       <c r="O7">
-        <v>1.00070994814179</v>
+        <v>1.011064772031698</v>
       </c>
       <c r="P7">
-        <v>0.9984043293358109</v>
+        <v>0.9866190313112371</v>
       </c>
       <c r="Q7">
-        <v>0.9999271152707704</v>
+        <v>1.001510656660662</v>
       </c>
       <c r="R7">
-        <v>0.9999618404775962</v>
+        <v>0.9985438779034576</v>
       </c>
       <c r="S7">
-        <v>0.998650980357124</v>
+        <v>0.9883982013040336</v>
       </c>
       <c r="T7">
-        <v>0.9999618404775962</v>
+        <v>0.9985438779034576</v>
       </c>
       <c r="U7">
-        <v>0.9997574509581346</v>
+        <v>0.9968970437499998</v>
       </c>
       <c r="V7">
-        <v>1.000421333318741</v>
+        <v>1.00199634921758</v>
       </c>
       <c r="W7">
-        <v>0.9997548396576212</v>
+        <v>0.9974370882699922</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000097391263521</v>
+        <v>1.038960670705558</v>
       </c>
       <c r="D8">
-        <v>0.9996846359744145</v>
+        <v>0.8760540280245099</v>
       </c>
       <c r="E8">
-        <v>1.000166158532811</v>
+        <v>1.06856471953119</v>
       </c>
       <c r="F8">
-        <v>0.9996846359744145</v>
+        <v>0.8760540280245099</v>
       </c>
       <c r="G8">
-        <v>0.9999531181658398</v>
+        <v>0.980271361683045</v>
       </c>
       <c r="H8">
-        <v>1.000067145418381</v>
+        <v>1.026570176858849</v>
       </c>
       <c r="I8">
-        <v>0.9998018409415215</v>
+        <v>0.9207537025341724</v>
       </c>
       <c r="J8">
-        <v>1.000166158532811</v>
+        <v>1.06856471953119</v>
       </c>
       <c r="K8">
-        <v>1.000166158532811</v>
+        <v>1.06856471953119</v>
       </c>
       <c r="L8">
-        <v>0.9999372204361757</v>
+        <v>0.9738077946934404</v>
       </c>
       <c r="M8">
-        <v>1.000116131786403</v>
+        <v>1.046873314246088</v>
       </c>
       <c r="N8">
-        <v>1.000166158532811</v>
+        <v>1.06856471953119</v>
       </c>
       <c r="O8">
-        <v>1.000097391263521</v>
+        <v>1.038960670705558</v>
       </c>
       <c r="P8">
-        <v>0.9998910136189679</v>
+        <v>0.957507349365034</v>
       </c>
       <c r="Q8">
-        <v>1.000017305849848</v>
+        <v>1.006384232699499</v>
       </c>
       <c r="R8">
-        <v>0.9999827285902491</v>
+        <v>0.9945264727537527</v>
       </c>
       <c r="S8">
-        <v>0.9999064158913705</v>
+        <v>0.9629408311411695</v>
       </c>
       <c r="T8">
-        <v>0.9999827285902491</v>
+        <v>0.9945264727537527</v>
       </c>
       <c r="U8">
-        <v>0.9999713515517307</v>
+        <v>0.9893468032386746</v>
       </c>
       <c r="V8">
-        <v>1.000010312947947</v>
+        <v>1.005190386497178</v>
       </c>
       <c r="W8">
-        <v>0.9999779553148833</v>
+        <v>0.9914819710346067</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001227345336239</v>
+        <v>1.00070994814179</v>
       </c>
       <c r="D9">
-        <v>0.9937453478218931</v>
+        <v>0.9960987105298313</v>
       </c>
       <c r="E9">
-        <v>1.004771519823999</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="F9">
-        <v>0.9937453478218931</v>
+        <v>0.9960987105298313</v>
       </c>
       <c r="G9">
-        <v>0.9985323285442554</v>
+        <v>0.999048260184251</v>
       </c>
       <c r="H9">
-        <v>1.001750986639747</v>
+        <v>1.001123279117793</v>
       </c>
       <c r="I9">
-        <v>0.9958736778006039</v>
+        <v>0.9974160087317306</v>
       </c>
       <c r="J9">
-        <v>1.004771519823999</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="K9">
-        <v>1.004771519823999</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="L9">
-        <v>0.9986344678590158</v>
+        <v>0.9991442823997503</v>
       </c>
       <c r="M9">
-        <v>1.002287369143447</v>
+        <v>1.001421365394656</v>
       </c>
       <c r="N9">
-        <v>1.004771519823999</v>
+        <v>1.003076862761167</v>
       </c>
       <c r="O9">
-        <v>1.001227345336239</v>
+        <v>1.00070994814179</v>
       </c>
       <c r="P9">
-        <v>0.9974863465790662</v>
+        <v>0.9984043293358109</v>
       </c>
       <c r="Q9">
-        <v>0.9999309065976275</v>
+        <v>0.9999271152707704</v>
       </c>
       <c r="R9">
-        <v>0.9999147376607104</v>
+        <v>0.9999618404775962</v>
       </c>
       <c r="S9">
-        <v>0.9978690536723827</v>
+        <v>0.998650980357124</v>
       </c>
       <c r="T9">
-        <v>0.9999147376607104</v>
+        <v>0.9999618404775962</v>
       </c>
       <c r="U9">
-        <v>0.9995946702102867</v>
+        <v>0.9997574509581346</v>
       </c>
       <c r="V9">
-        <v>1.000630040133029</v>
+        <v>1.000421333318741</v>
       </c>
       <c r="W9">
-        <v>0.99960288037115</v>
+        <v>0.9997548396576212</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.039694051579475</v>
+        <v>1.000097391263521</v>
       </c>
       <c r="D10">
-        <v>0.8741209674825281</v>
+        <v>0.9996846359744145</v>
       </c>
       <c r="E10">
-        <v>1.06941584985461</v>
+        <v>1.000166158532811</v>
       </c>
       <c r="F10">
-        <v>0.8741209674825281</v>
+        <v>0.9996846359744145</v>
       </c>
       <c r="G10">
-        <v>0.9800420736009648</v>
+        <v>0.9999531181658398</v>
       </c>
       <c r="H10">
-        <v>1.026915373190191</v>
+        <v>1.000067145418381</v>
       </c>
       <c r="I10">
-        <v>0.9195377769917673</v>
+        <v>0.9998018409415215</v>
       </c>
       <c r="J10">
-        <v>1.06941584985461</v>
+        <v>1.000166158532811</v>
       </c>
       <c r="K10">
-        <v>1.06941584985461</v>
+        <v>1.000166158532811</v>
       </c>
       <c r="L10">
-        <v>0.9734049938452445</v>
+        <v>0.9999372204361757</v>
       </c>
       <c r="M10">
-        <v>1.047618937147993</v>
+        <v>1.000116131786403</v>
       </c>
       <c r="N10">
-        <v>1.06941584985461</v>
+        <v>1.000166158532811</v>
       </c>
       <c r="O10">
-        <v>1.039694051579475</v>
+        <v>1.000097391263521</v>
       </c>
       <c r="P10">
-        <v>0.9569075095310018</v>
+        <v>0.9998910136189679</v>
       </c>
       <c r="Q10">
-        <v>1.00654952271236</v>
+        <v>1.000017305849848</v>
       </c>
       <c r="R10">
-        <v>0.994410289638871</v>
+        <v>0.9999827285902491</v>
       </c>
       <c r="S10">
-        <v>0.9624066709690826</v>
+        <v>0.9999064158913705</v>
       </c>
       <c r="T10">
-        <v>0.994410289638871</v>
+        <v>0.9999827285902491</v>
       </c>
       <c r="U10">
-        <v>0.9891589656904645</v>
+        <v>0.9999713515517307</v>
       </c>
       <c r="V10">
-        <v>1.005210342523294</v>
+        <v>1.000010312947947</v>
       </c>
       <c r="W10">
-        <v>0.9913437529615967</v>
+        <v>0.9999779553148833</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00523987903602</v>
+        <v>1.001227345336239</v>
       </c>
       <c r="D11">
-        <v>0.9757832431395392</v>
+        <v>0.9937453478218931</v>
       </c>
       <c r="E11">
-        <v>1.017874454631196</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="F11">
-        <v>0.9757832431395392</v>
+        <v>0.9937453478218931</v>
       </c>
       <c r="G11">
-        <v>0.9945257375806691</v>
+        <v>0.9985323285442554</v>
       </c>
       <c r="H11">
-        <v>1.006541867560998</v>
+        <v>1.001750986639747</v>
       </c>
       <c r="I11">
-        <v>0.9840195517696406</v>
+        <v>0.9958736778006039</v>
       </c>
       <c r="J11">
-        <v>1.017874454631196</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="K11">
-        <v>1.017874454631196</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="L11">
-        <v>0.9946490654405377</v>
+        <v>0.9986344678590158</v>
       </c>
       <c r="M11">
-        <v>1.008976731213548</v>
+        <v>1.002287369143447</v>
       </c>
       <c r="N11">
-        <v>1.017874454631196</v>
+        <v>1.004771519823999</v>
       </c>
       <c r="O11">
-        <v>1.00523987903602</v>
+        <v>1.001227345336239</v>
       </c>
       <c r="P11">
-        <v>0.9905115610877798</v>
+        <v>0.9974863465790662</v>
       </c>
       <c r="Q11">
-        <v>0.9999444722382791</v>
+        <v>0.9999309065976275</v>
       </c>
       <c r="R11">
-        <v>0.9996325256022519</v>
+        <v>0.9999147376607104</v>
       </c>
       <c r="S11">
-        <v>0.9918907292053657</v>
+        <v>0.9978690536723827</v>
       </c>
       <c r="T11">
-        <v>0.9996325256022519</v>
+        <v>0.9999147376607104</v>
       </c>
       <c r="U11">
-        <v>0.9983866605618233</v>
+        <v>0.9995946702102867</v>
       </c>
       <c r="V11">
-        <v>1.002284219375698</v>
+        <v>1.000630040133029</v>
       </c>
       <c r="W11">
-        <v>0.9984513162965187</v>
+        <v>0.99960288037115</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.012126706736842</v>
+        <v>1.039694051579475</v>
       </c>
       <c r="D12">
-        <v>0.9616538930947363</v>
+        <v>0.8741209674825281</v>
       </c>
       <c r="E12">
-        <v>1.021097918073686</v>
+        <v>1.06941584985461</v>
       </c>
       <c r="F12">
-        <v>0.9616538930947363</v>
+        <v>0.8741209674825281</v>
       </c>
       <c r="G12">
-        <v>0.99393716313684</v>
+        <v>0.9800420736009648</v>
       </c>
       <c r="H12">
-        <v>1.008181528463154</v>
+        <v>1.026915373190191</v>
       </c>
       <c r="I12">
-        <v>0.9754904744000028</v>
+        <v>0.9195377769917673</v>
       </c>
       <c r="J12">
-        <v>1.021097918073686</v>
+        <v>1.06941584985461</v>
       </c>
       <c r="K12">
-        <v>1.021097918073686</v>
+        <v>1.06941584985461</v>
       </c>
       <c r="L12">
-        <v>0.991895687347367</v>
+        <v>0.9734049938452445</v>
       </c>
       <c r="M12">
-        <v>1.014513269905264</v>
+        <v>1.047618937147993</v>
       </c>
       <c r="N12">
-        <v>1.021097918073686</v>
+        <v>1.06941584985461</v>
       </c>
       <c r="O12">
-        <v>1.012126706736842</v>
+        <v>1.039694051579475</v>
       </c>
       <c r="P12">
-        <v>0.9868902999157889</v>
+        <v>0.9569075095310018</v>
       </c>
       <c r="Q12">
-        <v>1.002011197042104</v>
+        <v>1.00654952271236</v>
       </c>
       <c r="R12">
-        <v>0.9982928393017545</v>
+        <v>0.994410289638871</v>
       </c>
       <c r="S12">
-        <v>0.9885587623929816</v>
+        <v>0.9624066709690826</v>
       </c>
       <c r="T12">
-        <v>0.9982928393017545</v>
+        <v>0.994410289638871</v>
       </c>
       <c r="U12">
-        <v>0.9966935513131576</v>
+        <v>0.9891589656904645</v>
       </c>
       <c r="V12">
-        <v>1.001574424665263</v>
+        <v>1.005210342523294</v>
       </c>
       <c r="W12">
-        <v>0.9973620801447365</v>
+        <v>0.9913437529615967</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9937359213083535</v>
+        <v>1.00523987903602</v>
       </c>
       <c r="D13">
-        <v>1.023803151107931</v>
+        <v>0.9757832431395392</v>
       </c>
       <c r="E13">
-        <v>0.984656748153693</v>
+        <v>1.017874454631196</v>
       </c>
       <c r="F13">
-        <v>1.023803151107931</v>
+        <v>0.9757832431395392</v>
       </c>
       <c r="G13">
-        <v>1.004572351473542</v>
+        <v>0.9945257375806691</v>
       </c>
       <c r="H13">
-        <v>0.9942193306658246</v>
+        <v>1.006541867560998</v>
       </c>
       <c r="I13">
-        <v>1.01543312558867</v>
+        <v>0.9840195517696406</v>
       </c>
       <c r="J13">
-        <v>0.984656748153693</v>
+        <v>1.017874454631196</v>
       </c>
       <c r="K13">
-        <v>0.984656748153693</v>
+        <v>1.017874454631196</v>
       </c>
       <c r="L13">
-        <v>1.005106854390406</v>
+        <v>0.9946490654405377</v>
       </c>
       <c r="M13">
-        <v>0.9911234466513136</v>
+        <v>1.008976731213548</v>
       </c>
       <c r="N13">
-        <v>0.984656748153693</v>
+        <v>1.017874454631196</v>
       </c>
       <c r="O13">
-        <v>0.9937359213083535</v>
+        <v>1.00523987903602</v>
       </c>
       <c r="P13">
-        <v>1.008769536208142</v>
+        <v>0.9905115610877798</v>
       </c>
       <c r="Q13">
-        <v>0.9994213878493801</v>
+        <v>0.9999444722382791</v>
       </c>
       <c r="R13">
-        <v>1.000731940189993</v>
+        <v>0.9996325256022519</v>
       </c>
       <c r="S13">
-        <v>1.007548642268897</v>
+        <v>0.9918907292053657</v>
       </c>
       <c r="T13">
-        <v>1.000731940189993</v>
+        <v>0.9996325256022519</v>
       </c>
       <c r="U13">
-        <v>1.001825668740096</v>
+        <v>0.9983866605618233</v>
       </c>
       <c r="V13">
-        <v>0.9983918846228155</v>
+        <v>1.002284219375698</v>
       </c>
       <c r="W13">
-        <v>1.001581366167467</v>
+        <v>0.9984513162965187</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0689592</v>
+        <v>1.012126706736842</v>
       </c>
       <c r="D14">
-        <v>0.7822851299999987</v>
+        <v>0.9616538930947363</v>
       </c>
       <c r="E14">
-        <v>1.119516899999999</v>
+        <v>1.021097918073686</v>
       </c>
       <c r="F14">
-        <v>0.7822851299999987</v>
+        <v>0.9616538930947363</v>
       </c>
       <c r="G14">
-        <v>0.9656765900000006</v>
+        <v>0.99393716313684</v>
       </c>
       <c r="H14">
-        <v>1.0463819</v>
+        <v>1.008181528463154</v>
       </c>
       <c r="I14">
-        <v>0.8608882400000009</v>
+        <v>0.9754904744000028</v>
       </c>
       <c r="J14">
-        <v>1.119516899999999</v>
+        <v>1.021097918073686</v>
       </c>
       <c r="K14">
-        <v>1.119516899999999</v>
+        <v>1.021097918073686</v>
       </c>
       <c r="L14">
-        <v>0.9540199799999987</v>
+        <v>0.991895687347367</v>
       </c>
       <c r="M14">
-        <v>1.082392400000002</v>
+        <v>1.014513269905264</v>
       </c>
       <c r="N14">
-        <v>1.119516899999999</v>
+        <v>1.021097918073686</v>
       </c>
       <c r="O14">
-        <v>1.0689592</v>
+        <v>1.012126706736842</v>
       </c>
       <c r="P14">
-        <v>0.9256221649999995</v>
+        <v>0.9868902999157889</v>
       </c>
       <c r="Q14">
-        <v>1.01148959</v>
+        <v>1.002011197042104</v>
       </c>
       <c r="R14">
-        <v>0.9902537433333327</v>
+        <v>0.9982928393017545</v>
       </c>
       <c r="S14">
-        <v>0.9350881033333325</v>
+        <v>0.9885587623929816</v>
       </c>
       <c r="T14">
-        <v>0.9902537433333327</v>
+        <v>0.9982928393017545</v>
       </c>
       <c r="U14">
-        <v>0.9811953024999992</v>
+        <v>0.9966935513131576</v>
       </c>
       <c r="V14">
-        <v>1.008859621999999</v>
+        <v>1.001574424665263</v>
       </c>
       <c r="W14">
-        <v>0.9850150425000002</v>
+        <v>0.9973620801447365</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0462216</v>
+        <v>0.9937359213083535</v>
       </c>
       <c r="D15">
-        <v>0.66187112</v>
+        <v>1.023803151107931</v>
       </c>
       <c r="E15">
-        <v>1.2928493</v>
+        <v>0.984656748153693</v>
       </c>
       <c r="F15">
-        <v>0.66187112</v>
+        <v>1.023803151107931</v>
       </c>
       <c r="G15">
-        <v>0.90811891</v>
+        <v>1.004572351473542</v>
       </c>
       <c r="H15">
-        <v>1.1057312</v>
+        <v>0.9942193306658246</v>
       </c>
       <c r="I15">
-        <v>0.77373804</v>
+        <v>1.01543312558867</v>
       </c>
       <c r="J15">
-        <v>1.2928493</v>
+        <v>0.984656748153693</v>
       </c>
       <c r="K15">
-        <v>1.2928493</v>
+        <v>0.984656748153693</v>
       </c>
       <c r="L15">
-        <v>0.92527774</v>
+        <v>1.005106854390406</v>
       </c>
       <c r="M15">
-        <v>1.1213133</v>
+        <v>0.9911234466513136</v>
       </c>
       <c r="N15">
-        <v>1.2928493</v>
+        <v>0.984656748153693</v>
       </c>
       <c r="O15">
-        <v>1.0462216</v>
+        <v>0.9937359213083535</v>
       </c>
       <c r="P15">
-        <v>0.85404636</v>
+        <v>1.008769536208142</v>
       </c>
       <c r="Q15">
-        <v>0.9857496699999999</v>
+        <v>0.9994213878493801</v>
       </c>
       <c r="R15">
-        <v>1.000314006666667</v>
+        <v>1.000731940189993</v>
       </c>
       <c r="S15">
-        <v>0.8777901533333333</v>
+        <v>1.007548642268897</v>
       </c>
       <c r="T15">
-        <v>1.000314006666667</v>
+        <v>1.000731940189993</v>
       </c>
       <c r="U15">
-        <v>0.98155494</v>
+        <v>1.001825668740096</v>
       </c>
       <c r="V15">
-        <v>1.043813812</v>
+        <v>0.9983918846228155</v>
       </c>
       <c r="W15">
-        <v>0.9793901512500001</v>
+        <v>1.001581366167467</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0837897</v>
+        <v>1.0689592</v>
       </c>
       <c r="D16">
-        <v>0.6521713200000001</v>
+        <v>0.7822851299999987</v>
       </c>
       <c r="E16">
-        <v>1.241318</v>
+        <v>1.119516899999999</v>
       </c>
       <c r="F16">
-        <v>0.6521713200000001</v>
+        <v>0.7822851299999987</v>
       </c>
       <c r="G16">
-        <v>0.9269292</v>
+        <v>0.9656765900000006</v>
       </c>
       <c r="H16">
-        <v>1.089192</v>
+        <v>1.0463819</v>
       </c>
       <c r="I16">
-        <v>0.7720312499999999</v>
+        <v>0.8608882400000009</v>
       </c>
       <c r="J16">
-        <v>1.241318</v>
+        <v>1.119516899999999</v>
       </c>
       <c r="K16">
-        <v>1.241318</v>
+        <v>1.119516899999999</v>
       </c>
       <c r="L16">
-        <v>0.92374469</v>
+        <v>0.9540199799999987</v>
       </c>
       <c r="M16">
-        <v>1.1297636</v>
+        <v>1.082392400000002</v>
       </c>
       <c r="N16">
-        <v>1.241318</v>
+        <v>1.119516899999999</v>
       </c>
       <c r="O16">
-        <v>1.0837897</v>
+        <v>1.0689592</v>
       </c>
       <c r="P16">
-        <v>0.8679805100000001</v>
+        <v>0.9256221649999995</v>
       </c>
       <c r="Q16">
-        <v>1.003767195</v>
+        <v>1.01148959</v>
       </c>
       <c r="R16">
-        <v>0.9924263400000001</v>
+        <v>0.9902537433333327</v>
       </c>
       <c r="S16">
-        <v>0.8865685700000001</v>
+        <v>0.9350881033333325</v>
       </c>
       <c r="T16">
-        <v>0.9924263400000001</v>
+        <v>0.9902537433333327</v>
       </c>
       <c r="U16">
-        <v>0.9752559275</v>
+        <v>0.9811953024999992</v>
       </c>
       <c r="V16">
-        <v>1.028468342</v>
+        <v>1.008859621999999</v>
       </c>
       <c r="W16">
-        <v>0.9773674699999999</v>
+        <v>0.9850150425000002</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0229119</v>
+        <v>1.0462216</v>
       </c>
       <c r="D17">
-        <v>0.8982430000000001</v>
+        <v>0.66187112</v>
       </c>
       <c r="E17">
-        <v>1.0698819</v>
+        <v>1.2928493</v>
       </c>
       <c r="F17">
-        <v>0.8982430000000001</v>
+        <v>0.66187112</v>
       </c>
       <c r="G17">
-        <v>0.9789833399999999</v>
+        <v>0.90811891</v>
       </c>
       <c r="H17">
-        <v>1.0265372</v>
+        <v>1.1057312</v>
       </c>
       <c r="I17">
-        <v>0.9342113399999999</v>
+        <v>0.77373804</v>
       </c>
       <c r="J17">
-        <v>1.0698819</v>
+        <v>1.2928493</v>
       </c>
       <c r="K17">
-        <v>1.0698819</v>
+        <v>1.2928493</v>
       </c>
       <c r="L17">
-        <v>0.9788365999999999</v>
+        <v>0.92527774</v>
       </c>
       <c r="M17">
-        <v>1.0368712</v>
+        <v>1.1213133</v>
       </c>
       <c r="N17">
-        <v>1.0698819</v>
+        <v>1.2928493</v>
       </c>
       <c r="O17">
-        <v>1.0229119</v>
+        <v>1.0462216</v>
       </c>
       <c r="P17">
-        <v>0.9605774500000001</v>
+        <v>0.85404636</v>
       </c>
       <c r="Q17">
-        <v>1.00087425</v>
+        <v>0.9857496699999999</v>
       </c>
       <c r="R17">
-        <v>0.9970122666666666</v>
+        <v>1.000314006666667</v>
       </c>
       <c r="S17">
-        <v>0.9666638333333334</v>
+        <v>0.8777901533333333</v>
       </c>
       <c r="T17">
-        <v>0.9970122666666666</v>
+        <v>1.000314006666667</v>
       </c>
       <c r="U17">
-        <v>0.99246835</v>
+        <v>0.98155494</v>
       </c>
       <c r="V17">
-        <v>1.00795106</v>
+        <v>1.043813812</v>
       </c>
       <c r="W17">
-        <v>0.9933095599999999</v>
+        <v>0.9793901512500001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.014545136438356</v>
+        <v>1.0837897</v>
       </c>
       <c r="D18">
-        <v>0.92196636</v>
+        <v>0.6521713200000001</v>
       </c>
       <c r="E18">
-        <v>1.060892197534246</v>
+        <v>1.241318</v>
       </c>
       <c r="F18">
-        <v>0.92196636</v>
+        <v>0.6521713200000001</v>
       </c>
       <c r="G18">
-        <v>0.9811988226027401</v>
+        <v>0.9269292</v>
       </c>
       <c r="H18">
-        <v>1.022271553972603</v>
+        <v>1.089192</v>
       </c>
       <c r="I18">
-        <v>0.9483873991780817</v>
+        <v>0.7720312499999999</v>
       </c>
       <c r="J18">
-        <v>1.060892197534246</v>
+        <v>1.241318</v>
       </c>
       <c r="K18">
-        <v>1.060892197534246</v>
+        <v>1.241318</v>
       </c>
       <c r="L18">
-        <v>0.9829180372602743</v>
+        <v>0.92374469</v>
       </c>
       <c r="M18">
-        <v>1.028456361369863</v>
+        <v>1.1297636</v>
       </c>
       <c r="N18">
-        <v>1.060892197534246</v>
+        <v>1.241318</v>
       </c>
       <c r="O18">
-        <v>1.014545136438356</v>
+        <v>1.0837897</v>
       </c>
       <c r="P18">
-        <v>0.9682557482191783</v>
+        <v>0.8679805100000001</v>
       </c>
       <c r="Q18">
-        <v>0.9987315868493154</v>
+        <v>1.003767195</v>
       </c>
       <c r="R18">
-        <v>0.9991345646575343</v>
+        <v>0.9924263400000001</v>
       </c>
       <c r="S18">
-        <v>0.9731431778995435</v>
+        <v>0.8865685700000001</v>
       </c>
       <c r="T18">
-        <v>0.9991345646575341</v>
+        <v>0.9924263400000001</v>
       </c>
       <c r="U18">
-        <v>0.9950804328082191</v>
+        <v>0.9752559275</v>
       </c>
       <c r="V18">
-        <v>1.008242785753425</v>
+        <v>1.028468342</v>
       </c>
       <c r="W18">
-        <v>0.9950794835445205</v>
+        <v>0.9773674699999999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.049768821052631</v>
+        <v>1.0229119</v>
       </c>
       <c r="D19">
-        <v>0.8469808331578949</v>
+        <v>0.8982430000000001</v>
       </c>
       <c r="E19">
-        <v>1.081473291052632</v>
+        <v>1.0698819</v>
       </c>
       <c r="F19">
-        <v>0.8469808331578949</v>
+        <v>0.8982430000000001</v>
       </c>
       <c r="G19">
-        <v>0.9767923973684209</v>
+        <v>0.9789833399999999</v>
       </c>
       <c r="H19">
-        <v>1.031849348421053</v>
+        <v>1.0265372</v>
       </c>
       <c r="I19">
-        <v>0.9025228831578948</v>
+        <v>0.9342113399999999</v>
       </c>
       <c r="J19">
-        <v>1.081473291052632</v>
+        <v>1.0698819</v>
       </c>
       <c r="K19">
-        <v>1.081473291052632</v>
+        <v>1.0698819</v>
       </c>
       <c r="L19">
-        <v>0.9678363342105262</v>
+        <v>0.9788365999999999</v>
       </c>
       <c r="M19">
-        <v>1.057989831578948</v>
+        <v>1.0368712</v>
       </c>
       <c r="N19">
-        <v>1.081473291052632</v>
+        <v>1.0698819</v>
       </c>
       <c r="O19">
-        <v>1.049768821052631</v>
+        <v>1.0229119</v>
       </c>
       <c r="P19">
-        <v>0.9483748271052632</v>
+        <v>0.9605774500000001</v>
       </c>
       <c r="Q19">
-        <v>1.008802577631579</v>
+        <v>1.00087425</v>
       </c>
       <c r="R19">
-        <v>0.9927409817543861</v>
+        <v>0.9970122666666666</v>
       </c>
       <c r="S19">
-        <v>0.9548619961403508</v>
+        <v>0.9666638333333334</v>
       </c>
       <c r="T19">
-        <v>0.9927409817543861</v>
+        <v>0.9970122666666666</v>
       </c>
       <c r="U19">
-        <v>0.986514819868421</v>
+        <v>0.99246835</v>
       </c>
       <c r="V19">
-        <v>1.005506514105263</v>
+        <v>1.00795106</v>
       </c>
       <c r="W19">
-        <v>0.9894017175000001</v>
+        <v>0.9933095599999999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.03613862</v>
+        <v>1.014545136438356</v>
       </c>
       <c r="D20">
-        <v>0.8595418363157895</v>
+        <v>0.92196636</v>
       </c>
       <c r="E20">
-        <v>1.092790459473684</v>
+        <v>1.060892197534246</v>
       </c>
       <c r="F20">
-        <v>0.8595418363157895</v>
+        <v>0.92196636</v>
       </c>
       <c r="G20">
-        <v>0.9721857605263157</v>
+        <v>0.9811988226027401</v>
       </c>
       <c r="H20">
-        <v>1.034667141052631</v>
+        <v>1.022271553972603</v>
       </c>
       <c r="I20">
-        <v>0.908528302105263</v>
+        <v>0.9483873991780817</v>
       </c>
       <c r="J20">
-        <v>1.092790459473684</v>
+        <v>1.060892197534246</v>
       </c>
       <c r="K20">
-        <v>1.092790459473684</v>
+        <v>1.060892197534246</v>
       </c>
       <c r="L20">
-        <v>0.9695415836842104</v>
+        <v>0.9829180372602743</v>
       </c>
       <c r="M20">
-        <v>1.052496317368421</v>
+        <v>1.028456361369863</v>
       </c>
       <c r="N20">
-        <v>1.092790459473684</v>
+        <v>1.060892197534246</v>
       </c>
       <c r="O20">
-        <v>1.03613862</v>
+        <v>1.014545136438356</v>
       </c>
       <c r="P20">
-        <v>0.9478402281578946</v>
+        <v>0.9682557482191783</v>
       </c>
       <c r="Q20">
-        <v>1.002840101842105</v>
+        <v>0.9987315868493154</v>
       </c>
       <c r="R20">
-        <v>0.9961569719298243</v>
+        <v>0.9991345646575343</v>
       </c>
       <c r="S20">
-        <v>0.9550740133333332</v>
+        <v>0.9731431778995435</v>
       </c>
       <c r="T20">
-        <v>0.9961569719298243</v>
+        <v>0.9991345646575341</v>
       </c>
       <c r="U20">
-        <v>0.9895031248684208</v>
+        <v>0.9950804328082191</v>
       </c>
       <c r="V20">
-        <v>1.010160591789474</v>
+        <v>1.008242785753425</v>
       </c>
       <c r="W20">
-        <v>0.9907362525657893</v>
+        <v>0.9950794835445205</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.021117239570302</v>
+        <v>1.049768821052631</v>
       </c>
       <c r="D21">
-        <v>0.9845659933140668</v>
+        <v>0.8469808331578949</v>
       </c>
       <c r="E21">
-        <v>0.9794887091682457</v>
+        <v>1.081473291052632</v>
       </c>
       <c r="F21">
-        <v>0.9845659933140668</v>
+        <v>0.8469808331578949</v>
       </c>
       <c r="G21">
-        <v>1.008004846172068</v>
+        <v>0.9767923973684209</v>
       </c>
       <c r="H21">
-        <v>0.9942555075230741</v>
+        <v>1.031849348421053</v>
       </c>
       <c r="I21">
-        <v>0.9929922349355044</v>
+        <v>0.9025228831578948</v>
       </c>
       <c r="J21">
-        <v>0.9794887091682457</v>
+        <v>1.081473291052632</v>
       </c>
       <c r="K21">
-        <v>0.9794887091682457</v>
+        <v>1.081473291052632</v>
       </c>
       <c r="L21">
-        <v>0.9977622168072435</v>
+        <v>0.9678363342105262</v>
       </c>
       <c r="M21">
-        <v>1.007509949369854</v>
+        <v>1.057989831578948</v>
       </c>
       <c r="N21">
-        <v>0.9794887091682457</v>
+        <v>1.081473291052632</v>
       </c>
       <c r="O21">
-        <v>1.021117239570302</v>
+        <v>1.049768821052631</v>
       </c>
       <c r="P21">
-        <v>1.002841616442185</v>
+        <v>0.9483748271052632</v>
       </c>
       <c r="Q21">
-        <v>1.009439728188773</v>
+        <v>1.008802577631579</v>
       </c>
       <c r="R21">
-        <v>0.9950573140175383</v>
+        <v>0.9927409817543861</v>
       </c>
       <c r="S21">
-        <v>1.001148483230538</v>
+        <v>0.9548619961403508</v>
       </c>
       <c r="T21">
-        <v>0.9950573140175383</v>
+        <v>0.9927409817543861</v>
       </c>
       <c r="U21">
-        <v>0.9957335397149646</v>
+        <v>0.986514819868421</v>
       </c>
       <c r="V21">
-        <v>0.9924845736056207</v>
+        <v>1.005506514105263</v>
       </c>
       <c r="W21">
-        <v>0.9982120871075447</v>
+        <v>0.9894017175000001</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9918608534276627</v>
+        <v>1.03613862</v>
       </c>
       <c r="D22">
-        <v>1.004383219576628</v>
+        <v>0.8595418363157895</v>
       </c>
       <c r="E22">
-        <v>1.009744519650051</v>
+        <v>1.092790459473684</v>
       </c>
       <c r="F22">
-        <v>1.004383219576628</v>
+        <v>0.8595418363157895</v>
       </c>
       <c r="G22">
-        <v>0.9963124663247968</v>
+        <v>0.9721857605263157</v>
       </c>
       <c r="H22">
-        <v>1.002835311627709</v>
+        <v>1.034667141052631</v>
       </c>
       <c r="I22">
-        <v>1.001582356557554</v>
+        <v>0.908528302105263</v>
       </c>
       <c r="J22">
-        <v>1.009744519650051</v>
+        <v>1.092790459473684</v>
       </c>
       <c r="K22">
-        <v>1.009744519650051</v>
+        <v>1.092790459473684</v>
       </c>
       <c r="L22">
-        <v>1.000467907490345</v>
+        <v>0.9695415836842104</v>
       </c>
       <c r="M22">
-        <v>0.9976712612833325</v>
+        <v>1.052496317368421</v>
       </c>
       <c r="N22">
-        <v>1.009744519650051</v>
+        <v>1.092790459473684</v>
       </c>
       <c r="O22">
-        <v>0.9918608534276627</v>
+        <v>1.03613862</v>
       </c>
       <c r="P22">
-        <v>0.9981220365021455</v>
+        <v>0.9478402281578946</v>
       </c>
       <c r="Q22">
-        <v>0.9961643804590038</v>
+        <v>1.002840101842105</v>
       </c>
       <c r="R22">
-        <v>1.001996197551447</v>
+        <v>0.9961569719298243</v>
       </c>
       <c r="S22">
-        <v>0.998903993498212</v>
+        <v>0.9550740133333332</v>
       </c>
       <c r="T22">
-        <v>1.001996197551447</v>
+        <v>0.9961569719298243</v>
       </c>
       <c r="U22">
-        <v>1.001614125036172</v>
+        <v>0.9895031248684208</v>
       </c>
       <c r="V22">
-        <v>1.003240203958947</v>
+        <v>1.010160591789474</v>
       </c>
       <c r="W22">
-        <v>1.00060723699226</v>
+        <v>0.9907362525657893</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9755009089550444</v>
+        <v>1.021117239570302</v>
       </c>
       <c r="D23">
-        <v>1.058180098106829</v>
+        <v>0.9845659933140668</v>
       </c>
       <c r="E23">
-        <v>0.9787865666858399</v>
+        <v>0.9794887091682457</v>
       </c>
       <c r="F23">
-        <v>1.058180098106829</v>
+        <v>0.9845659933140668</v>
       </c>
       <c r="G23">
-        <v>1.005313169491487</v>
+        <v>1.008004846172068</v>
       </c>
       <c r="H23">
-        <v>0.9909696585471111</v>
+        <v>0.9942555075230741</v>
       </c>
       <c r="I23">
-        <v>1.036146256668458</v>
+        <v>0.9929922349355044</v>
       </c>
       <c r="J23">
-        <v>0.9787865666858399</v>
+        <v>0.9794887091682457</v>
       </c>
       <c r="K23">
-        <v>0.9787865666858399</v>
+        <v>0.9794887091682457</v>
       </c>
       <c r="L23">
-        <v>1.011946030628777</v>
+        <v>0.9977622168072435</v>
       </c>
       <c r="M23">
-        <v>0.9773273371671877</v>
+        <v>1.007509949369854</v>
       </c>
       <c r="N23">
-        <v>0.9787865666858399</v>
+        <v>0.9794887091682457</v>
       </c>
       <c r="O23">
-        <v>0.9755009089550444</v>
+        <v>1.021117239570302</v>
       </c>
       <c r="P23">
-        <v>1.016840503530937</v>
+        <v>1.002841616442185</v>
       </c>
       <c r="Q23">
-        <v>0.9937234697919107</v>
+        <v>1.009439728188773</v>
       </c>
       <c r="R23">
-        <v>1.004155857915905</v>
+        <v>0.9950573140175383</v>
       </c>
       <c r="S23">
-        <v>1.01520901256355</v>
+        <v>1.001148483230538</v>
       </c>
       <c r="T23">
-        <v>1.004155857915905</v>
+        <v>0.9950573140175383</v>
       </c>
       <c r="U23">
-        <v>1.006103401094123</v>
+        <v>0.9957335397149646</v>
       </c>
       <c r="V23">
-        <v>1.000640034212466</v>
+        <v>0.9924845736056207</v>
       </c>
       <c r="W23">
-        <v>1.004271253281342</v>
+        <v>0.9982120871075447</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.001660143329285</v>
+        <v>0.9918608534276627</v>
       </c>
       <c r="D24">
-        <v>1.010255721180245</v>
+        <v>1.004383219576628</v>
       </c>
       <c r="E24">
-        <v>0.985804183976829</v>
+        <v>1.009744519650051</v>
       </c>
       <c r="F24">
-        <v>1.010255721180245</v>
+        <v>1.004383219576628</v>
       </c>
       <c r="G24">
-        <v>1.004695923658819</v>
+        <v>0.9963124663247968</v>
       </c>
       <c r="H24">
-        <v>0.9951082105529874</v>
+        <v>1.002835311627709</v>
       </c>
       <c r="I24">
-        <v>1.007349716455098</v>
+        <v>1.001582356557554</v>
       </c>
       <c r="J24">
-        <v>0.985804183976829</v>
+        <v>1.009744519650051</v>
       </c>
       <c r="K24">
-        <v>0.985804183976829</v>
+        <v>1.009744519650051</v>
       </c>
       <c r="L24">
-        <v>1.002405040071198</v>
+        <v>1.000467907490345</v>
       </c>
       <c r="M24">
-        <v>0.9966756587618713</v>
+        <v>0.9976712612833325</v>
       </c>
       <c r="N24">
-        <v>0.985804183976829</v>
+        <v>1.009744519650051</v>
       </c>
       <c r="O24">
-        <v>1.001660143329285</v>
+        <v>0.9918608534276627</v>
       </c>
       <c r="P24">
-        <v>1.005957932254765</v>
+        <v>0.9981220365021455</v>
       </c>
       <c r="Q24">
-        <v>1.002032591700242</v>
+        <v>0.9961643804590038</v>
       </c>
       <c r="R24">
-        <v>0.99924001616212</v>
+        <v>1.001996197551447</v>
       </c>
       <c r="S24">
-        <v>1.004773634860243</v>
+        <v>0.998903993498212</v>
       </c>
       <c r="T24">
-        <v>0.9992400161621199</v>
+        <v>1.001996197551447</v>
       </c>
       <c r="U24">
-        <v>1.000031272139389</v>
+        <v>1.001614125036172</v>
       </c>
       <c r="V24">
-        <v>0.9971858545068774</v>
+        <v>1.003240203958947</v>
       </c>
       <c r="W24">
-        <v>1.000494324748292</v>
+        <v>1.00060723699226</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9849450844082556</v>
+        <v>0.9755009089550444</v>
       </c>
       <c r="D25">
-        <v>1.017428538808435</v>
+        <v>1.058180098106829</v>
       </c>
       <c r="E25">
-        <v>1.007751013173052</v>
+        <v>0.9787865666858399</v>
       </c>
       <c r="F25">
-        <v>1.017428538808435</v>
+        <v>1.058180098106829</v>
       </c>
       <c r="G25">
-        <v>0.9965023689396885</v>
+        <v>1.005313169491487</v>
       </c>
       <c r="H25">
-        <v>1.00163004390829</v>
+        <v>0.9909696585471111</v>
       </c>
       <c r="I25">
-        <v>1.00936326795159</v>
+        <v>1.036146256668458</v>
       </c>
       <c r="J25">
-        <v>1.007751013173052</v>
+        <v>0.9787865666858399</v>
       </c>
       <c r="K25">
-        <v>1.007751013173052</v>
+        <v>0.9787865666858399</v>
       </c>
       <c r="L25">
-        <v>1.002979378667826</v>
+        <v>1.011946030628777</v>
       </c>
       <c r="M25">
-        <v>0.9924988936921714</v>
+        <v>0.9773273371671877</v>
       </c>
       <c r="N25">
-        <v>1.007751013173052</v>
+        <v>0.9787865666858399</v>
       </c>
       <c r="O25">
-        <v>0.9849450844082556</v>
+        <v>0.9755009089550444</v>
       </c>
       <c r="P25">
-        <v>1.001186811608345</v>
+        <v>1.016840503530937</v>
       </c>
       <c r="Q25">
-        <v>0.9939622315380408</v>
+        <v>0.9937234697919107</v>
       </c>
       <c r="R25">
-        <v>1.003374878796581</v>
+        <v>1.004155857915905</v>
       </c>
       <c r="S25">
-        <v>1.001784333961505</v>
+        <v>1.01520901256355</v>
       </c>
       <c r="T25">
-        <v>1.003374878796581</v>
+        <v>1.004155857915905</v>
       </c>
       <c r="U25">
-        <v>1.003276003764392</v>
+        <v>1.006103401094123</v>
       </c>
       <c r="V25">
-        <v>1.004171005646124</v>
+        <v>1.000640034212466</v>
       </c>
       <c r="W25">
-        <v>1.001637323693664</v>
+        <v>1.004271253281342</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.004542920199279</v>
+        <v>1.001660143329285</v>
       </c>
       <c r="D26">
-        <v>0.9990223453448386</v>
+        <v>1.010255721180245</v>
       </c>
       <c r="E26">
-        <v>0.992580302903791</v>
+        <v>0.985804183976829</v>
       </c>
       <c r="F26">
-        <v>0.9990223453448386</v>
+        <v>1.010255721180245</v>
       </c>
       <c r="G26">
-        <v>1.002722564828834</v>
+        <v>1.004695923658819</v>
       </c>
       <c r="H26">
-        <v>0.9978026482434614</v>
+        <v>0.9951082105529874</v>
       </c>
       <c r="I26">
-        <v>1.00025102349151</v>
+        <v>1.007349716455098</v>
       </c>
       <c r="J26">
-        <v>0.992580302903791</v>
+        <v>0.985804183976829</v>
       </c>
       <c r="K26">
-        <v>0.992580302903791</v>
+        <v>0.985804183976829</v>
       </c>
       <c r="L26">
-        <v>1.000198048432523</v>
+        <v>1.002405040071198</v>
       </c>
       <c r="M26">
-        <v>1.00070275839739</v>
+        <v>0.9966756587618713</v>
       </c>
       <c r="N26">
-        <v>0.992580302903791</v>
+        <v>0.985804183976829</v>
       </c>
       <c r="O26">
-        <v>1.004542920199279</v>
+        <v>1.001660143329285</v>
       </c>
       <c r="P26">
-        <v>1.001782632772059</v>
+        <v>1.005957932254765</v>
       </c>
       <c r="Q26">
-        <v>1.002370484315901</v>
+        <v>1.002032591700242</v>
       </c>
       <c r="R26">
-        <v>0.9987151894826362</v>
+        <v>0.99924001616212</v>
       </c>
       <c r="S26">
-        <v>1.001254437992213</v>
+        <v>1.004773634860243</v>
       </c>
       <c r="T26">
-        <v>0.998715189482636</v>
+        <v>0.9992400161621199</v>
       </c>
       <c r="U26">
-        <v>0.9990859042201077</v>
+        <v>1.000031272139389</v>
       </c>
       <c r="V26">
-        <v>0.9977847839568443</v>
+        <v>0.9971858545068774</v>
       </c>
       <c r="W26">
-        <v>0.9997278264802034</v>
+        <v>1.000494324748292</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.00277271178067</v>
+        <v>0.9849450844082556</v>
       </c>
       <c r="D27">
-        <v>0.9880165570702475</v>
+        <v>1.017428538808435</v>
       </c>
       <c r="E27">
-        <v>1.008700974217325</v>
+        <v>1.007751013173052</v>
       </c>
       <c r="F27">
-        <v>0.9880165570702475</v>
+        <v>1.017428538808435</v>
       </c>
       <c r="G27">
-        <v>0.9973378883144914</v>
+        <v>0.9965023689396885</v>
       </c>
       <c r="H27">
-        <v>1.003159252850885</v>
+        <v>1.00163004390829</v>
       </c>
       <c r="I27">
-        <v>0.9920651184137517</v>
+        <v>1.00936326795159</v>
       </c>
       <c r="J27">
-        <v>1.008700974217325</v>
+        <v>1.007751013173052</v>
       </c>
       <c r="K27">
-        <v>1.008700974217325</v>
+        <v>1.007751013173052</v>
       </c>
       <c r="L27">
-        <v>0.9973017221595385</v>
+        <v>1.002979378667826</v>
       </c>
       <c r="M27">
-        <v>1.004506451212681</v>
+        <v>0.9924988936921714</v>
       </c>
       <c r="N27">
-        <v>1.008700974217325</v>
+        <v>1.007751013173052</v>
       </c>
       <c r="O27">
-        <v>1.00277271178067</v>
+        <v>0.9849450844082556</v>
       </c>
       <c r="P27">
-        <v>0.9953946344254586</v>
+        <v>1.001186811608345</v>
       </c>
       <c r="Q27">
-        <v>1.000037216970104</v>
+        <v>0.9939622315380408</v>
       </c>
       <c r="R27">
-        <v>0.9998300810227475</v>
+        <v>1.003374878796581</v>
       </c>
       <c r="S27">
-        <v>0.9960303303368185</v>
+        <v>1.001784333961505</v>
       </c>
       <c r="T27">
-        <v>0.9998300810227475</v>
+        <v>1.003374878796581</v>
       </c>
       <c r="U27">
-        <v>0.9991979913069453</v>
+        <v>1.003276003764392</v>
       </c>
       <c r="V27">
-        <v>1.001098587889021</v>
+        <v>1.004171005646124</v>
       </c>
       <c r="W27">
-        <v>0.9992325845024488</v>
+        <v>1.001637323693664</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.003411520295925</v>
+        <v>1.004542920199279</v>
       </c>
       <c r="D28">
-        <v>0.9851554034091341</v>
+        <v>0.9990223453448386</v>
       </c>
       <c r="E28">
-        <v>1.010774762636416</v>
+        <v>0.992580302903791</v>
       </c>
       <c r="F28">
-        <v>0.9851554034091341</v>
+        <v>0.9990223453448386</v>
       </c>
       <c r="G28">
-        <v>0.9967049059923647</v>
+        <v>1.002722564828834</v>
       </c>
       <c r="H28">
-        <v>1.003920816649515</v>
+        <v>0.9978026482434614</v>
       </c>
       <c r="I28">
-        <v>0.990181474075002</v>
+        <v>1.00025102349151</v>
       </c>
       <c r="J28">
-        <v>1.010774762636416</v>
+        <v>0.992580302903791</v>
       </c>
       <c r="K28">
-        <v>1.010774762636416</v>
+        <v>0.992580302903791</v>
       </c>
       <c r="L28">
-        <v>0.9966717588619991</v>
+        <v>1.000198048432523</v>
       </c>
       <c r="M28">
-        <v>1.005568329846857</v>
+        <v>1.00070275839739</v>
       </c>
       <c r="N28">
-        <v>1.010774762636416</v>
+        <v>0.992580302903791</v>
       </c>
       <c r="O28">
-        <v>1.003411520295925</v>
+        <v>1.004542920199279</v>
       </c>
       <c r="P28">
-        <v>0.9942834618525297</v>
+        <v>1.001782632772059</v>
       </c>
       <c r="Q28">
-        <v>1.000041639578962</v>
+        <v>1.002370484315901</v>
       </c>
       <c r="R28">
-        <v>0.999780562113825</v>
+        <v>0.9987151894826362</v>
       </c>
       <c r="S28">
-        <v>0.9950795608556863</v>
+        <v>1.001254437992213</v>
       </c>
       <c r="T28">
-        <v>0.999780562113825</v>
+        <v>0.998715189482636</v>
       </c>
       <c r="U28">
-        <v>0.9990033613008685</v>
+        <v>0.9990859042201077</v>
       </c>
       <c r="V28">
-        <v>1.001357641567978</v>
+        <v>0.9977847839568443</v>
       </c>
       <c r="W28">
-        <v>0.9990486214709016</v>
+        <v>0.9997278264802034</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.00277271178067</v>
+      </c>
+      <c r="D29">
+        <v>0.9880165570702475</v>
+      </c>
+      <c r="E29">
+        <v>1.008700974217325</v>
+      </c>
+      <c r="F29">
+        <v>0.9880165570702475</v>
+      </c>
+      <c r="G29">
+        <v>0.9973378883144914</v>
+      </c>
+      <c r="H29">
+        <v>1.003159252850885</v>
+      </c>
+      <c r="I29">
+        <v>0.9920651184137517</v>
+      </c>
+      <c r="J29">
+        <v>1.008700974217325</v>
+      </c>
+      <c r="K29">
+        <v>1.008700974217325</v>
+      </c>
+      <c r="L29">
+        <v>0.9973017221595385</v>
+      </c>
+      <c r="M29">
+        <v>1.004506451212681</v>
+      </c>
+      <c r="N29">
+        <v>1.008700974217325</v>
+      </c>
+      <c r="O29">
+        <v>1.00277271178067</v>
+      </c>
+      <c r="P29">
+        <v>0.9953946344254586</v>
+      </c>
+      <c r="Q29">
+        <v>1.000037216970104</v>
+      </c>
+      <c r="R29">
+        <v>0.9998300810227475</v>
+      </c>
+      <c r="S29">
+        <v>0.9960303303368185</v>
+      </c>
+      <c r="T29">
+        <v>0.9998300810227475</v>
+      </c>
+      <c r="U29">
+        <v>0.9991979913069453</v>
+      </c>
+      <c r="V29">
+        <v>1.001098587889021</v>
+      </c>
+      <c r="W29">
+        <v>0.9992325845024488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.003411520295925</v>
+      </c>
+      <c r="D30">
+        <v>0.9851554034091341</v>
+      </c>
+      <c r="E30">
+        <v>1.010774762636416</v>
+      </c>
+      <c r="F30">
+        <v>0.9851554034091341</v>
+      </c>
+      <c r="G30">
+        <v>0.9967049059923647</v>
+      </c>
+      <c r="H30">
+        <v>1.003920816649515</v>
+      </c>
+      <c r="I30">
+        <v>0.990181474075002</v>
+      </c>
+      <c r="J30">
+        <v>1.010774762636416</v>
+      </c>
+      <c r="K30">
+        <v>1.010774762636416</v>
+      </c>
+      <c r="L30">
+        <v>0.9966717588619991</v>
+      </c>
+      <c r="M30">
+        <v>1.005568329846857</v>
+      </c>
+      <c r="N30">
+        <v>1.010774762636416</v>
+      </c>
+      <c r="O30">
+        <v>1.003411520295925</v>
+      </c>
+      <c r="P30">
+        <v>0.9942834618525297</v>
+      </c>
+      <c r="Q30">
+        <v>1.000041639578962</v>
+      </c>
+      <c r="R30">
+        <v>0.999780562113825</v>
+      </c>
+      <c r="S30">
+        <v>0.9950795608556863</v>
+      </c>
+      <c r="T30">
+        <v>0.999780562113825</v>
+      </c>
+      <c r="U30">
+        <v>0.9990033613008685</v>
+      </c>
+      <c r="V30">
+        <v>1.001357641567978</v>
+      </c>
+      <c r="W30">
+        <v>0.9990486214709016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9893177061753758</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.025122638334373</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9900064464184194</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.025122638334373</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.00262358926731</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9960309054745287</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.015927555616298</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9900064464184194</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9900064464184194</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.005506717963673</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9899352793083948</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9900064464184194</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9893177061753758</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.007220172254875</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9974122120695246</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001482263642723</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.006649020824474</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.001482263642723</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.00248837722296</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9999919910620523</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.001808854819797</v>
       </c>
     </row>
